--- a/public/import.xlsx
+++ b/public/import.xlsx
@@ -4,21 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="345" windowWidth="19875" windowHeight="7725" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="345" windowWidth="19875" windowHeight="7725"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$Z$29</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$S$129</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2081" uniqueCount="1216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1878" uniqueCount="1235">
   <si>
     <t>STT</t>
   </si>
@@ -62,9 +61,6 @@
     <t>Phương án 4</t>
   </si>
   <si>
-    <t>Tây Nguyên</t>
-  </si>
-  <si>
     <t>Trả lời câu hỏi</t>
   </si>
   <si>
@@ -86,9 +82,6 @@
     <t>Trang phục truyền thống của các đồng bào các dân tộc ở vùng Tây Nguyên được may bằng chất liệu lụa tơ tằm.</t>
   </si>
   <si>
-    <t>Dưới đây là bảng các câu trong 1 bài lịch sử-địa lý lớp 4, từ cột đáp án đúng hãy tạo mỗi câu thành 1 câu hỏi trắc nghiệm, 4 cột phương án , cột phương án 1 giống đáp án đúng, cột phương án 2,3,4 là phương án sai nhưng hợp lý .Các câu phương án sai phải giống  đáp án đúng về độ dai. Kết quả dạng bảng CSV utf-8 có thể copy, các cột cách nhau bằng dấu "|":</t>
-  </si>
-  <si>
     <t>Lễ hội đua voi ở Tây Nguyên được tổ chức hai năm một lần vào tháng 3 âm lịch.</t>
   </si>
   <si>
@@ -2876,9 +2869,6 @@
     <t>Vùng duyên hải miền Trung có đường bờ biển dài và vùng biển rộng lớn tạo điều kiện thuận lợi để phát triển kinh tế biển.</t>
   </si>
   <si>
-    <t>Hàng năm vùng duyên hải miền Trung thu hút đông đảo du khách trong nước và quốc tế đến tham quan nghỉ dưỡng</t>
-  </si>
-  <si>
     <t>Vùng duyên hải miền Trung có nhiều nắng ít mưa nước biển mặn và sạch tạo điều kiện thuận lợi để sản xuất muối.</t>
   </si>
   <si>
@@ -2888,12 +2878,6 @@
     <t>Vùng duyên hải miền Trung có nhiều dân tộc cùng sinh sống như Kinh, Chăm, Thái, Raglai,</t>
   </si>
   <si>
-    <t xml:space="preserve"> Năm 2020 vùng duyên hải miền Trung có hơn 20 triệu người phần lớn dân cư của vùng phân bố ở đồng bằng và ven biển</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ở miền núi dân cư thưa thớt</t>
-  </si>
-  <si>
     <t>Vùng duyên hải miền Trung có đường bờ biển dài và vùng biển rộng lớn tạo điều kiện thuận lợi để phát triển kinh tế biển</t>
   </si>
   <si>
@@ -2906,27 +2890,12 @@
     <t>Vùng duyên hải miền Trung có sản lượng muối biển lớn nhất cả nước</t>
   </si>
   <si>
-    <t xml:space="preserve"> Những nơi sản xuất muối nổi tiếng của vùng là Sa Huỳnh (Quảng ngãi), Cà Ná (Ninh Thuận), Hòn Khói (Khánh Hòa)</t>
-  </si>
-  <si>
     <t>Duyên hải miền Trung là vùng đánh bắt và nuôi trồng hải sản lớn của nước ta</t>
   </si>
   <si>
-    <t xml:space="preserve"> Sản lượng thủy sản của vùng đứng thứ hai cả nước sau vùng Nam bộ</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Các hải sản nổi tiếng của vùng là cá ngừ đại dương, cá thu, cá bớp , tôm hùm</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Thông qua hoạt động đánh bắt trên biển, ngư dân vùng duyên hải miền Trung góp phần bảo vệ chủ quyền biển, đảo nước ta</t>
-  </si>
-  <si>
     <t>Vùng duyên hải miền Trung có nhiều bãi biển và vịnh biển đẹp tạo điều kiện cho hoạt động du lịch biển phát triển</t>
   </si>
   <si>
-    <t xml:space="preserve"> Một số bãi biển nổi tiếng của vùng là Sầm Sơn (Thanh Hóa), Cửa Lò (Nghệ An), Cảnh Dương và lăng Cô (Thừa Thiên Huế), Mỹ Khê (Đà Nẵng), Sa Huỳnh (Quảng ngãi), Nha Trang (Khánh Hòa), Ninh Chữ (Ninh Thuận), Mũi Né (Bình Thuận)</t>
-  </si>
-  <si>
     <t>Bài 15: Duyên hải miền Trung</t>
   </si>
   <si>
@@ -3500,9 +3469,6 @@
     <t>Những bãi biển nổi tiếng nào ở duyên hải miền Trung thu hút khách du lịch?</t>
   </si>
   <si>
-    <t>Một số bãi biển nổi tiếng của vùng là Sầm Sơn (Thanh Hóa), Cửa Lò (Nghệ An), Cảnh Dương và lăng Cô (Thừa Thiên Huế), Mỹ Khê (Đà Nẵng), Sa Huỳnh (Qu</t>
-  </si>
-  <si>
     <t>Hàng năm vùng duyên hải miền Trung thu hút đông đảo du khách trong nước và quốc tế đến tham quan nghỉ dưỡng.</t>
   </si>
   <si>
@@ -3518,9 +3484,6 @@
     <t>Hàng năm vùng duyên hải miền Trung đóng cửa không đón du khách.</t>
   </si>
   <si>
-    <t>Nha Trang (Khánh Hòa), Ninh Chữ (Ninh Thuận), Mũi Né (Bình Thuận)</t>
-  </si>
-  <si>
     <t>Một số bãi biển nổi tiếng của vùng là Sapa (Lào Cai), Tam Đảo (Vĩnh Phúc), Hạ Long (Quảng Ninh), Đồ Sơn (Hải Phòng), Cát Bà (Hải Phòng), Trà Cổ (Quảng Ninh), Quan Lạn (Quảng Ninh), Cô Tô (Quảng Ninh).</t>
   </si>
   <si>
@@ -3530,24 +3493,6 @@
     <t>Một số bãi biển nổi tiếng của vùng là Trị An (Đồng Nai), Cần Giờ (TP Hồ Chí Minh), Hồ Tràm (Bà Rịa - Vũng Tàu), Long Hải (Bà Rịa - Vũng Tàu), Vũng Tàu (Bà Rịa - Vũng Tàu), Phú Quốc (Kiên Giang), Hà Tiên (Kiên Giang), Côn Đảo (Bà Rịa-Vũng Tàu).</t>
   </si>
   <si>
-    <t>Hoạt động du lịch biển ở duyên hải miền Trung phát triển như thế nào?</t>
-  </si>
-  <si>
-    <t>Hàng năm vùng duyên hải miền Trung chỉ thu hút rất ít khách du lịch.</t>
-  </si>
-  <si>
-    <t>Hàng năm vùng duyên hải miền Trung chủ yếu phát triển du lịch nông nghiệp.</t>
-  </si>
-  <si>
-    <t>Hàng năm vùng duyên hải miền Trung phát triển mạnh du lịch tâm linh.</t>
-  </si>
-  <si>
-    <t>Một số bệnh liên quan đến dinh dưỡng như bệnh theo cân béo phì do  ăn thừa chất béo chất bột đường chất đạm cơ thể vận động bên sẽ dinh dưỡng thấp còi do ăn thiếu hoặc cơ thể không hấp thu được đầy đủ các chất dinh dưỡng bệnh thiếu máu do chế độ ăn thiếu sắt bệnh bướu cổ và chế độ ăn thiếu iốt</t>
-  </si>
-  <si>
-    <t>bài 27: Một số bệnh liên quan đến dinh dưỡng</t>
-  </si>
-  <si>
     <t>tenAnh</t>
   </si>
   <si>
@@ -3620,52 +3565,163 @@
     <t>The foggy afternoon - Tell a story in Flyers Speaking part_00-00-50.jpg</t>
   </si>
   <si>
-    <t>Lễ hội Cầu ngư lễ hội thường được tổ chức từ 12 tháng giêng đến tháng 6 âm lịch hàng năm tùy thuộc mỗi địa phương.</t>
-  </si>
-  <si>
-    <t>Kinh thành Huế là một công trình đồ sộ có kiến trúc đặc sắc. Chùa Thiên mụ còn gọi là chùa Linh mụ được chúa Nguyễn Hoàng cho xây dựng vào năm 1601</t>
-  </si>
-  <si>
-    <t>Bài 18 phố cổ Hội An. Tháng 12 năm 1999 phố cổ Hội An đã được unesco ghi danh là di sản văn hóa thế giới.</t>
-  </si>
-  <si>
-    <t>Chùa cầu ban đầu là một cây cầu được xây dựng bởi các thương nhân người Nhật Bản và bạn thế kỷ 16 nên còn có tên gọi là cầu Nhật Bản. Năm 1653 ở sườn cầu phía bắc được dựng thêm phần chùa nên cây cầu được gọi là chùa cầu.</t>
-  </si>
-  <si>
-    <t>51719 chúa Nguyễn Phúc Chu thăm Hội An đặt tên cho chiếc cầu là like Nguyễn Kiều với nghĩa là cầu đón khách Phương xa</t>
-  </si>
-  <si>
-    <t>Năm 1719 chúa Nguyễn Phúc Chu thăm Hội An đặt tên cho chiếc cầu là lai viễn Kiều với nghĩa là cầu đón khách Phương xa.</t>
-  </si>
-  <si>
-    <t>Bài 16</t>
-  </si>
-  <si>
-    <t>Lễ hội Lam Kinh: đại hội được tổ chức hàng năm vào ngày 22 tháng 8 âm lịch ngày giỗ của vua Lê Thái tổ tại khu vực Lam Kinh thuộc huyện Thọ Xuân, tỉnh Thanh Hóa.</t>
-  </si>
-  <si>
-    <t>Bài 18</t>
-  </si>
-  <si>
-    <t>Ẩm thực của vùng duyên hải miền Trung hầu hết đều mang hương vị đặc trưng là cay và đậm đà, ngoài những món ăn mặn còn có các loại bánh chè và thường được chế biến từ mạch nha đường phèn.</t>
-  </si>
-  <si>
-    <t>Vùng duyên hải miền Trung được mệnh danh là con đường di sản, Nó hội tụ những giá trị văn hóa lịch sử và thiên nhiên của Việt Nam nổi tiếng với nhiều di sản thế giới được Unesco ghi danh.</t>
-  </si>
-  <si>
-    <t>Phần lễ được thực hiện theo nghi thức cổ truyền như màn trống hội, cờ hội, rước kiệu. Sau phần lễ là các chương trình nghệ thuật tái diễn các sự kiện như Hội thề Lũng Nhai, giải phóng Thành Đông Quan, vua Lê Thái tổ đăng quang, phát huy Hào khí Lam Sơn.</t>
-  </si>
-  <si>
-    <t>Phần lễ với nghi thức quan trọng nhất là cúng cá ông cá voi. Phần hội chủ yếu là các trò chơi dân gian đặc trưng của cư dân vùng biển như: đua thuyền, lắc thúng, bơi lội, đan lưới, kéo co.</t>
-  </si>
-  <si>
-    <t>Lễ hội Ka-tê của người Chăm được tổ chức vào tháng 7 hàng năm theo lịch chăm tháng 9 hoặc tháng 10 dương lịch. Các nghi lễ truyền thống gồm lễ rước y trang, đại lễ cúng mừng Ka-tê tại tháp chính. Lễ hội Ka-tê còn có phần hội với các trò chơi dân gian như: thi đi cà kheo, làm bánh gừng, thi giã gạo, đội nước, vượt chướng ngại vật.</t>
-  </si>
-  <si>
-    <t>Sông Hương bắt nguồn từ để Trường Sơn chạy qua thành phố Huế.</t>
-  </si>
-  <si>
-    <t>Bài 17: cố đô Huế</t>
+    <t>Khoa học</t>
+  </si>
+  <si>
+    <t>Nấm có nhiều hình dạng khác nhau như hình mũ, hình chóp nón, hình cầu, hình sợi,... Màu sắc của nấm rất phong phú như màu nâu, vàng, trắng, đỏ,... Một số nấm lớn có thể quan sát được bằng mắt thường nhưng cũng có những nấm có kích thước rất nhỏ chỉ quan sát được bằng kính hiển vi như nấm mốc và nấm men. Các nấm lớn thường có cấu tạo gồm các bộ phận chính: mũ nấm, thân nấm, chân nấm.</t>
+  </si>
+  <si>
+    <t>Bài 19: sự đa dạng của nấm</t>
+  </si>
+  <si>
+    <t>Vì đặc điểm nơi sống của nấm là ẩm ướt và nhiều dinh dưỡng nên sau một thời gian mưa, không khí ẩm làm cho nấm mọc lên trong vườn.</t>
+  </si>
+  <si>
+    <t>Bài 20: nấm ăn và nấm men trong đời sống (ở phía dưới)</t>
+  </si>
+  <si>
+    <t>Nấm men có ít đối với đời sống con người, được dùng làm bánh mì rượu và bia.. Nấm men dinh dưỡng có nhiều chất đạm, vitamin b và các chất khoáng,.... Nấm men được sử dụng để làm bánh như bánh mì, bánh ngọt,... Sản xuất bia, rượu và chế biến món ăn bổ sung dinh dưỡng</t>
+  </si>
+  <si>
+    <t>Có rất nhiều loại nấm với hình dạng và màu sắc khác nhau được dùng làm thức ăn rất bổ dưỡng như nấm hương, nấm mỡ, nấm rơm, nấm sò,.... Nấm ăn là thực phẩm có giá trị dinh dưỡng cao, ít chất béo, chứa nhiều vitamin và chất khoáng. Nấm hương được dùng để chế biến nhiều món ăn bổ dưỡng, tốt cho tim mạch, chống nhiễm trùng, giúp xương chắc khỏe, ngăn ngừa ung thư,…</t>
+  </si>
+  <si>
+    <t>Bài 26 thực phẩm an toàn</t>
+  </si>
+  <si>
+    <t>Thực phẩm an toàn được nuôi trồng bảo quản và chế biến hợp vệ sinh; không bị nhiễm vi sinh vật nhiễm hóa chất; không bị ôi thiu dập nát; không gây ngộ độc hoặc gây hại cho người sử dụng.</t>
+  </si>
+  <si>
+    <t>Bài 28 phòng tránh đuối nước</t>
+  </si>
+  <si>
+    <t>Một số việc cần làm để phòng tránh đuối nước: luôn mặc áo phao khi đi thuyền cano. Không đùa nghịch gần ao hồ khu vực có nước sâu. Bể chứa nước cần có nắp đậy. Không lội qua sông suối đặc biệt là khi trời mưa lũ. Khi thấy người bị đuối nước nhanh chóng gọi người lớn đến giúp và tìm vật dụng như xào dây để nạn nhân bám vào.</t>
+  </si>
+  <si>
+    <t>Một số nguyên tắc an toàn khi bơi hoặc tập bơi: bơi tại bể bơi dành cho trẻ em. Đi bơi cùng người lớn. Bơi tại những bể bơi có phao cứu sinh, sào cứu hộ và có sự giám sát của người cứu hộ.</t>
+  </si>
+  <si>
+    <t>Nấm có những hình dạng và màu sắc nào?</t>
+  </si>
+  <si>
+    <t>Hình mũ, hình chóp nón, hình cầu, hình sợi, màu nâu, vàng, trắng, đỏ</t>
+  </si>
+  <si>
+    <t>Hình vuông, hình chữ nhật, hình tam giác, màu xanh lá cây, xanh dương, tím</t>
+  </si>
+  <si>
+    <t>Hình ngôi sao, hình trái tim, hình thoi, màu cam, hồng, xám</t>
+  </si>
+  <si>
+    <t>Hình tròn, hình elip, hình trụ, màu đen, bạc, vàng đồng</t>
+  </si>
+  <si>
+    <t>Tại sao nấm thường mọc lên sau những cơn mưa?</t>
+  </si>
+  <si>
+    <t>Vì đặc điểm nơi sống của nấm là ẩm ướt và nhiều dinh dưỡng</t>
+  </si>
+  <si>
+    <t>Vì nấm cần ánh sáng mặt trời trực tiếp để phát triển</t>
+  </si>
+  <si>
+    <t>Vì nấm chỉ mọc được trên đất cát khô cằn</t>
+  </si>
+  <si>
+    <t>Vì nấm cần nhiệt độ cao để sinh trưởng</t>
+  </si>
+  <si>
+    <t>Những loại nấm nào thường được dùng làm thức ăn?</t>
+  </si>
+  <si>
+    <t>Nấm hương, nấm mỡ, nấm rơm, nấm sò</t>
+  </si>
+  <si>
+    <t>Nấm độc đỏ, nấm tử thần, nấm phiến xanh, nấm tán trắng</t>
+  </si>
+  <si>
+    <t>Nấm mốc xanh, nấm mốc đen, nấm mốc cam, nấm mốc vàng</t>
+  </si>
+  <si>
+    <t>Nấm than, nấm rỉ sắt, nấm phấn trắng, nấm than đen</t>
+  </si>
+  <si>
+    <t>Nấm men được sử dụng để làm gì trong đời sống?</t>
+  </si>
+  <si>
+    <t>Làm bánh mì, rượu, bia và chế biến món ăn bổ sung dinh dưỡng</t>
+  </si>
+  <si>
+    <t>Làm thuốc chữa bệnh ung thư và tim mạch</t>
+  </si>
+  <si>
+    <t>Làm phân bón cho cây trồng và thức ăn cho gia súc</t>
+  </si>
+  <si>
+    <t>Làm chất tẩy rửa và nguyên liệu sản xuất nhựa</t>
+  </si>
+  <si>
+    <t>Thế nào là thực phẩm an toàn?</t>
+  </si>
+  <si>
+    <t>Được nuôi trồng bảo quản và chế biến hợp vệ sinh; không bị nhiễm vi sinh vật nhiễm hóa chất; không bị ôi thiu dập nát; không gây ngộ độc hoặc gây hại cho người sử dụng</t>
+  </si>
+  <si>
+    <t>Chứa nhiều chất bảo quản và phẩm màu; được chế biến ở nơi không hợp vệ sinh; có mùi vị lạ</t>
+  </si>
+  <si>
+    <t>Được nuôi trồng bằng thuốc trừ sâu và hóa chất độc hại; bị dập nát và ôi thiu</t>
+  </si>
+  <si>
+    <t>Có nguồn gốc từ động vật hoang dã; được chế biến bằng phương pháp truyền thống; không có nhãn mác rõ ràng</t>
+  </si>
+  <si>
+    <t>Điều gì xảy ra nếu sử dụng thực phẩm không an toàn?</t>
+  </si>
+  <si>
+    <t>Bị đau bụng, nôn, tiêu chảy, trường hợp nặng có thể dẫn tới tử vong</t>
+  </si>
+  <si>
+    <t>Tăng cường hệ miễn dịch, cải thiện sức khỏe tim mạch, giúp xương chắc khỏe</t>
+  </si>
+  <si>
+    <t>Giúp da dẻ mịn màng, tóc bóng mượt, tăng cường trí nhớ</t>
+  </si>
+  <si>
+    <t>Không gây ra bất kỳ tác hại nào cho sức khỏe</t>
+  </si>
+  <si>
+    <t>Những việc cần làm để phòng tránh đuối nước là gì?</t>
+  </si>
+  <si>
+    <t>Luôn mặc áo phao khi đi thuyền cano; không đùa nghịch gần ao hồ khu vực có nước sâu; bể chứa nước cần có nắp đậy; không lội qua sông suối đặc biệt là khi trời mưa lũ; gọi người lớn đến giúp khi thấy người bị đuối nước</t>
+  </si>
+  <si>
+    <t>Tập bơi ở những nơi có nước sâu và dòng chảy mạnh; bơi một mình mà không có người lớn giám sát; lặn xuống nước sâu để tìm đồ vật; bơi sau khi ăn no hoặc khi đang say rượu</t>
+  </si>
+  <si>
+    <t>Đi bơi vào ban đêm hoặc khi trời mưa bão; bơi ở những nơi có biển báo nguy hiểm; bơi quá xa bờ hoặc ra giữa sông hồ; bơi khi đang bị bệnh hoặc cơ thể mệt mỏi</t>
+  </si>
+  <si>
+    <t>Nhảy xuống nước cứu người bị đuối nước khi không biết bơi; dùng tay không để kéo người bị đuối nước lên bờ; không gọi người lớn đến giúp đỡ; không tìm vật dụng để nạn nhân bám vào</t>
+  </si>
+  <si>
+    <t>Những nguyên tắc an toàn khi bơi hoặc tập bơi là gì?</t>
+  </si>
+  <si>
+    <t>Bơi tại bể bơi dành cho trẻ em; đi bơi cùng người lớn; bơi tại những bể bơi có phao cứu sinh, sào cứu hộ và có sự giám sát của người cứu hộ</t>
+  </si>
+  <si>
+    <t>Bơi ở những nơi có biển báo cấm bơi; bơi khi không có người lớn giám sát; bơi quá xa bờ hoặc ra giữa sông hồ; bơi khi đang bị bệnh hoặc cơ thể mệt mỏi</t>
+  </si>
+  <si>
+    <t>Bơi ở những nơi có dòng nước chảy xiết; bơi vào ban đêm hoặc khi trời mưa bão; bơi ở những nơi có nhiều vật sắc nhọn; bơi sau khi ăn no hoặc khi đang say rượu</t>
+  </si>
+  <si>
+    <t>Bơi ở những nơi có nước sâu và nhiều bùn lầy; bơi một mình mà không có người lớn giám sát; lặn xuống nước sâu để tìm đồ vật; bơi khi không biết bơi hoặc không có kỹ năng bơi lội</t>
+  </si>
+  <si>
+    <t>Sử dụng thực phẩm không an toàn có thể bị đau bụng nôn tiêu chảy trường hợp nặng có thể dẫn tới tử vong. Chúng ta cần sử dụng thực phẩm tươi sạch không có màu sắc và mùi vị lạ; chế biến thực phẩm bằng nước và dụng cụ sạch; bảo quản hợp vệ sinh.</t>
   </si>
 </sst>
 </file>
@@ -4024,13 +4080,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S121"/>
+  <dimension ref="A1:S129"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="13" topLeftCell="H119" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="7" ySplit="13" topLeftCell="K14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
-      <selection pane="bottomRight" sqref="A1:S121"/>
+      <selection pane="bottomRight" activeCell="K133" sqref="K133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4068,7 +4124,7 @@
         <v>9</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>1176</v>
+        <v>1158</v>
       </c>
       <c r="F1" t="s">
         <v>8</v>
@@ -4077,13 +4133,13 @@
         <v>7</v>
       </c>
       <c r="H1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I1" t="s">
+        <v>85</v>
+      </c>
+      <c r="J1" t="s">
         <v>83</v>
-      </c>
-      <c r="I1" t="s">
-        <v>87</v>
-      </c>
-      <c r="J1" t="s">
-        <v>85</v>
       </c>
       <c r="K1" t="s">
         <v>3</v>
@@ -4110,7 +4166,7 @@
         <v>13</v>
       </c>
       <c r="S1" t="s">
-        <v>970</v>
+        <v>960</v>
       </c>
     </row>
     <row r="2" spans="1:19">
@@ -4118,37 +4174,37 @@
         <v>1</v>
       </c>
       <c r="I2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J2" t="s">
         <v>84</v>
       </c>
-      <c r="J2" t="s">
-        <v>86</v>
-      </c>
       <c r="K2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="L2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q2" t="s">
         <v>34</v>
       </c>
-      <c r="O2" t="s">
-        <v>20</v>
-      </c>
-      <c r="P2" t="s">
+      <c r="R2" t="s">
         <v>35</v>
       </c>
-      <c r="Q2" t="s">
-        <v>36</v>
-      </c>
-      <c r="R2" t="s">
-        <v>37</v>
-      </c>
       <c r="S2" t="s">
-        <v>971</v>
+        <v>961</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -4156,37 +4212,37 @@
         <v>2</v>
       </c>
       <c r="I3" t="s">
+        <v>82</v>
+      </c>
+      <c r="J3" t="s">
         <v>84</v>
       </c>
-      <c r="J3" t="s">
-        <v>86</v>
-      </c>
       <c r="K3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="L3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" t="s">
         <v>15</v>
       </c>
-      <c r="M3" t="s">
-        <v>16</v>
-      </c>
       <c r="N3" t="s">
+        <v>36</v>
+      </c>
+      <c r="O3" t="s">
+        <v>15</v>
+      </c>
+      <c r="P3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q3" t="s">
         <v>38</v>
       </c>
-      <c r="O3" t="s">
-        <v>16</v>
-      </c>
-      <c r="P3" t="s">
+      <c r="R3" t="s">
         <v>39</v>
       </c>
-      <c r="Q3" t="s">
-        <v>40</v>
-      </c>
-      <c r="R3" t="s">
-        <v>41</v>
-      </c>
       <c r="S3" t="s">
-        <v>972</v>
+        <v>962</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -4194,37 +4250,37 @@
         <v>3</v>
       </c>
       <c r="I4" t="s">
+        <v>82</v>
+      </c>
+      <c r="J4" t="s">
         <v>84</v>
       </c>
-      <c r="J4" t="s">
-        <v>86</v>
-      </c>
       <c r="K4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="L4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="O4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="R4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="S4" t="s">
-        <v>973</v>
+        <v>963</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -4232,37 +4288,37 @@
         <v>4</v>
       </c>
       <c r="I5" t="s">
+        <v>82</v>
+      </c>
+      <c r="J5" t="s">
         <v>84</v>
       </c>
-      <c r="J5" t="s">
-        <v>86</v>
-      </c>
       <c r="K5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="L5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N5" t="s">
+        <v>42</v>
+      </c>
+      <c r="O5" t="s">
+        <v>17</v>
+      </c>
+      <c r="P5" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q5" t="s">
         <v>44</v>
       </c>
-      <c r="O5" t="s">
-        <v>18</v>
-      </c>
-      <c r="P5" t="s">
+      <c r="R5" t="s">
         <v>45</v>
       </c>
-      <c r="Q5" t="s">
-        <v>46</v>
-      </c>
-      <c r="R5" t="s">
-        <v>47</v>
-      </c>
       <c r="S5" t="s">
-        <v>974</v>
+        <v>964</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -4270,37 +4326,37 @@
         <v>5</v>
       </c>
       <c r="I6" t="s">
+        <v>82</v>
+      </c>
+      <c r="J6" t="s">
         <v>84</v>
       </c>
-      <c r="J6" t="s">
-        <v>86</v>
-      </c>
       <c r="K6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="L6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N6" t="s">
+        <v>46</v>
+      </c>
+      <c r="O6" t="s">
+        <v>18</v>
+      </c>
+      <c r="P6" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q6" t="s">
         <v>48</v>
       </c>
-      <c r="O6" t="s">
-        <v>19</v>
-      </c>
-      <c r="P6" t="s">
+      <c r="R6" t="s">
         <v>49</v>
       </c>
-      <c r="Q6" t="s">
-        <v>50</v>
-      </c>
-      <c r="R6" t="s">
-        <v>51</v>
-      </c>
       <c r="S6" t="s">
-        <v>975</v>
+        <v>965</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -4308,37 +4364,37 @@
         <v>6</v>
       </c>
       <c r="I7" t="s">
+        <v>82</v>
+      </c>
+      <c r="J7" t="s">
         <v>84</v>
       </c>
-      <c r="J7" t="s">
-        <v>86</v>
-      </c>
       <c r="K7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="L7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N7" t="s">
+        <v>50</v>
+      </c>
+      <c r="O7" t="s">
+        <v>21</v>
+      </c>
+      <c r="P7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>51</v>
+      </c>
+      <c r="R7" t="s">
         <v>52</v>
       </c>
-      <c r="O7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P7" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>53</v>
-      </c>
-      <c r="R7" t="s">
-        <v>54</v>
-      </c>
       <c r="S7" t="s">
-        <v>976</v>
+        <v>966</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -4346,37 +4402,37 @@
         <v>7</v>
       </c>
       <c r="I8" t="s">
+        <v>82</v>
+      </c>
+      <c r="J8" t="s">
         <v>84</v>
       </c>
-      <c r="J8" t="s">
-        <v>86</v>
-      </c>
       <c r="K8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="L8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N8" t="s">
+        <v>53</v>
+      </c>
+      <c r="O8" t="s">
+        <v>22</v>
+      </c>
+      <c r="P8" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q8" t="s">
         <v>55</v>
       </c>
-      <c r="O8" t="s">
-        <v>24</v>
-      </c>
-      <c r="P8" t="s">
+      <c r="R8" t="s">
         <v>56</v>
       </c>
-      <c r="Q8" t="s">
-        <v>57</v>
-      </c>
-      <c r="R8" t="s">
-        <v>58</v>
-      </c>
       <c r="S8" t="s">
-        <v>977</v>
+        <v>967</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -4384,37 +4440,37 @@
         <v>8</v>
       </c>
       <c r="I9" t="s">
+        <v>82</v>
+      </c>
+      <c r="J9" t="s">
         <v>84</v>
       </c>
-      <c r="J9" t="s">
-        <v>86</v>
-      </c>
       <c r="K9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="L9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N9" t="s">
+        <v>57</v>
+      </c>
+      <c r="O9" t="s">
+        <v>23</v>
+      </c>
+      <c r="P9" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q9" t="s">
         <v>59</v>
       </c>
-      <c r="O9" t="s">
-        <v>25</v>
-      </c>
-      <c r="P9" t="s">
+      <c r="R9" t="s">
         <v>60</v>
       </c>
-      <c r="Q9" t="s">
-        <v>61</v>
-      </c>
-      <c r="R9" t="s">
-        <v>62</v>
-      </c>
       <c r="S9" t="s">
-        <v>978</v>
+        <v>968</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -4422,37 +4478,37 @@
         <v>9</v>
       </c>
       <c r="I10" t="s">
+        <v>82</v>
+      </c>
+      <c r="J10" t="s">
         <v>84</v>
       </c>
-      <c r="J10" t="s">
-        <v>86</v>
-      </c>
       <c r="K10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="L10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N10" t="s">
+        <v>61</v>
+      </c>
+      <c r="O10" t="s">
+        <v>24</v>
+      </c>
+      <c r="P10" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q10" t="s">
         <v>63</v>
       </c>
-      <c r="O10" t="s">
-        <v>26</v>
-      </c>
-      <c r="P10" t="s">
+      <c r="R10" t="s">
         <v>64</v>
       </c>
-      <c r="Q10" t="s">
-        <v>65</v>
-      </c>
-      <c r="R10" t="s">
-        <v>66</v>
-      </c>
       <c r="S10" t="s">
-        <v>979</v>
+        <v>969</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -4460,37 +4516,37 @@
         <v>10</v>
       </c>
       <c r="I11" t="s">
+        <v>82</v>
+      </c>
+      <c r="J11" t="s">
         <v>84</v>
       </c>
-      <c r="J11" t="s">
-        <v>86</v>
-      </c>
       <c r="K11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="L11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N11" t="s">
+        <v>65</v>
+      </c>
+      <c r="O11" t="s">
+        <v>25</v>
+      </c>
+      <c r="P11" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q11" t="s">
         <v>67</v>
       </c>
-      <c r="O11" t="s">
-        <v>27</v>
-      </c>
-      <c r="P11" t="s">
+      <c r="R11" t="s">
         <v>68</v>
       </c>
-      <c r="Q11" t="s">
-        <v>69</v>
-      </c>
-      <c r="R11" t="s">
-        <v>70</v>
-      </c>
       <c r="S11" t="s">
-        <v>980</v>
+        <v>970</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -4498,37 +4554,37 @@
         <v>11</v>
       </c>
       <c r="I12" t="s">
+        <v>82</v>
+      </c>
+      <c r="J12" t="s">
         <v>84</v>
       </c>
-      <c r="J12" t="s">
-        <v>86</v>
-      </c>
       <c r="K12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="L12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="O12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="P12" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>70</v>
+      </c>
+      <c r="R12" t="s">
         <v>71</v>
       </c>
-      <c r="Q12" t="s">
-        <v>72</v>
-      </c>
-      <c r="R12" t="s">
-        <v>73</v>
-      </c>
       <c r="S12" t="s">
-        <v>981</v>
+        <v>971</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -4536,37 +4592,37 @@
         <v>12</v>
       </c>
       <c r="I13" t="s">
+        <v>82</v>
+      </c>
+      <c r="J13" t="s">
         <v>84</v>
       </c>
-      <c r="J13" t="s">
-        <v>86</v>
-      </c>
       <c r="K13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="L13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N13" t="s">
+        <v>72</v>
+      </c>
+      <c r="O13" t="s">
+        <v>27</v>
+      </c>
+      <c r="P13" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q13" t="s">
         <v>74</v>
       </c>
-      <c r="O13" t="s">
-        <v>29</v>
-      </c>
-      <c r="P13" t="s">
+      <c r="R13" t="s">
         <v>75</v>
       </c>
-      <c r="Q13" t="s">
-        <v>76</v>
-      </c>
-      <c r="R13" t="s">
-        <v>77</v>
-      </c>
       <c r="S13" t="s">
-        <v>982</v>
+        <v>972</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -4574,37 +4630,37 @@
         <v>13</v>
       </c>
       <c r="I14" t="s">
+        <v>82</v>
+      </c>
+      <c r="J14" t="s">
         <v>84</v>
       </c>
-      <c r="J14" t="s">
-        <v>86</v>
-      </c>
       <c r="K14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="L14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M14" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N14" t="s">
+        <v>76</v>
+      </c>
+      <c r="O14" t="s">
+        <v>28</v>
+      </c>
+      <c r="P14" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q14" t="s">
         <v>78</v>
       </c>
-      <c r="O14" t="s">
-        <v>30</v>
-      </c>
-      <c r="P14" t="s">
+      <c r="R14" t="s">
         <v>79</v>
       </c>
-      <c r="Q14" t="s">
-        <v>80</v>
-      </c>
-      <c r="R14" t="s">
-        <v>81</v>
-      </c>
       <c r="S14" t="s">
-        <v>983</v>
+        <v>973</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -4612,52 +4668,52 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="D15" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="E15" t="s">
-        <v>1177</v>
+        <v>1159</v>
       </c>
       <c r="F15" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="G15" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="I15" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K15" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="L15" t="s">
+        <v>86</v>
+      </c>
+      <c r="M15" t="s">
         <v>88</v>
       </c>
-      <c r="M15" t="s">
-        <v>90</v>
-      </c>
       <c r="N15" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="O15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="P15" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>274</v>
+      </c>
+      <c r="R15" t="s">
         <v>275</v>
       </c>
-      <c r="Q15" t="s">
-        <v>276</v>
-      </c>
-      <c r="R15" t="s">
-        <v>277</v>
-      </c>
       <c r="S15" t="s">
-        <v>984</v>
+        <v>974</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -4665,52 +4721,52 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="D16" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="E16" t="s">
-        <v>1177</v>
+        <v>1159</v>
       </c>
       <c r="F16" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="G16" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="I16" t="s">
+        <v>180</v>
+      </c>
+      <c r="J16" t="s">
+        <v>87</v>
+      </c>
+      <c r="K16" t="s">
+        <v>926</v>
+      </c>
+      <c r="L16" t="s">
+        <v>86</v>
+      </c>
+      <c r="M16" t="s">
+        <v>89</v>
+      </c>
+      <c r="N16" t="s">
         <v>182</v>
       </c>
-      <c r="J16" t="s">
+      <c r="O16" t="s">
         <v>89</v>
       </c>
-      <c r="K16" t="s">
-        <v>928</v>
-      </c>
-      <c r="L16" t="s">
-        <v>88</v>
-      </c>
-      <c r="M16" t="s">
-        <v>91</v>
-      </c>
-      <c r="N16" t="s">
-        <v>184</v>
-      </c>
-      <c r="O16" t="s">
-        <v>91</v>
-      </c>
       <c r="P16" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>277</v>
+      </c>
+      <c r="R16" t="s">
         <v>278</v>
       </c>
-      <c r="Q16" t="s">
-        <v>279</v>
-      </c>
-      <c r="R16" t="s">
-        <v>280</v>
-      </c>
       <c r="S16" t="s">
-        <v>985</v>
+        <v>975</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -4718,52 +4774,52 @@
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="D17" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="E17" t="s">
-        <v>1177</v>
+        <v>1159</v>
       </c>
       <c r="F17" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="G17" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="I17" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J17" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K17" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="L17" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M17" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="N17" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="O17" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="P17" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>280</v>
+      </c>
+      <c r="R17" t="s">
         <v>281</v>
       </c>
-      <c r="Q17" t="s">
-        <v>282</v>
-      </c>
-      <c r="R17" t="s">
-        <v>283</v>
-      </c>
       <c r="S17" t="s">
-        <v>986</v>
+        <v>976</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -4771,52 +4827,52 @@
         <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="D18" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="E18" t="s">
-        <v>1177</v>
+        <v>1159</v>
       </c>
       <c r="F18" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="G18" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="I18" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J18" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K18" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="L18" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M18" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="N18" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="O18" t="s">
+        <v>282</v>
+      </c>
+      <c r="P18" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q18" t="s">
         <v>284</v>
       </c>
-      <c r="P18" t="s">
+      <c r="R18" t="s">
         <v>285</v>
       </c>
-      <c r="Q18" t="s">
-        <v>286</v>
-      </c>
-      <c r="R18" t="s">
-        <v>287</v>
-      </c>
       <c r="S18" t="s">
-        <v>987</v>
+        <v>977</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -4824,52 +4880,52 @@
         <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="D19" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="E19" t="s">
-        <v>1178</v>
+        <v>1160</v>
       </c>
       <c r="F19" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="G19" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="I19" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J19" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K19" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="L19" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M19" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="N19" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="O19" t="s">
+        <v>286</v>
+      </c>
+      <c r="P19" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q19" t="s">
         <v>288</v>
       </c>
-      <c r="P19" t="s">
+      <c r="R19" t="s">
         <v>289</v>
       </c>
-      <c r="Q19" t="s">
-        <v>290</v>
-      </c>
-      <c r="R19" t="s">
-        <v>291</v>
-      </c>
       <c r="S19" t="s">
-        <v>988</v>
+        <v>978</v>
       </c>
     </row>
     <row r="20" spans="1:19">
@@ -4877,52 +4933,52 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="D20" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="E20" t="s">
-        <v>1178</v>
+        <v>1160</v>
       </c>
       <c r="F20" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="G20" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="I20" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J20" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K20" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="L20" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M20" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="N20" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="O20" t="s">
+        <v>290</v>
+      </c>
+      <c r="P20" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q20" t="s">
         <v>292</v>
       </c>
-      <c r="P20" t="s">
+      <c r="R20" t="s">
         <v>293</v>
       </c>
-      <c r="Q20" t="s">
-        <v>294</v>
-      </c>
-      <c r="R20" t="s">
-        <v>295</v>
-      </c>
       <c r="S20" t="s">
-        <v>989</v>
+        <v>979</v>
       </c>
     </row>
     <row r="21" spans="1:19">
@@ -4930,52 +4986,52 @@
         <v>7</v>
       </c>
       <c r="B21" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="D21" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="E21" t="s">
-        <v>1178</v>
+        <v>1160</v>
       </c>
       <c r="F21" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="G21" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="I21" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J21" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K21" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="L21" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M21" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="N21" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="O21" t="s">
+        <v>294</v>
+      </c>
+      <c r="P21" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q21" t="s">
         <v>296</v>
       </c>
-      <c r="P21" t="s">
+      <c r="R21" t="s">
         <v>297</v>
       </c>
-      <c r="Q21" t="s">
-        <v>298</v>
-      </c>
-      <c r="R21" t="s">
-        <v>299</v>
-      </c>
       <c r="S21" t="s">
-        <v>990</v>
+        <v>980</v>
       </c>
     </row>
     <row r="22" spans="1:19">
@@ -4983,52 +5039,52 @@
         <v>8</v>
       </c>
       <c r="B22" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="D22" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="E22" t="s">
-        <v>1178</v>
+        <v>1160</v>
       </c>
       <c r="F22" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="G22" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="I22" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J22" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K22" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="L22" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M22" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="N22" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="O22" t="s">
+        <v>298</v>
+      </c>
+      <c r="P22" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q22" t="s">
         <v>300</v>
       </c>
-      <c r="P22" t="s">
+      <c r="R22" t="s">
         <v>301</v>
       </c>
-      <c r="Q22" t="s">
-        <v>302</v>
-      </c>
-      <c r="R22" t="s">
-        <v>303</v>
-      </c>
       <c r="S22" t="s">
-        <v>991</v>
+        <v>981</v>
       </c>
     </row>
     <row r="23" spans="1:19">
@@ -5036,52 +5092,52 @@
         <v>9</v>
       </c>
       <c r="B23" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="D23" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="E23" t="s">
-        <v>1179</v>
+        <v>1161</v>
       </c>
       <c r="F23" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="G23" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="I23" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J23" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K23" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="L23" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M23" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="N23" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="O23" t="s">
+        <v>302</v>
+      </c>
+      <c r="P23" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q23" t="s">
         <v>304</v>
       </c>
-      <c r="P23" t="s">
+      <c r="R23" t="s">
         <v>305</v>
       </c>
-      <c r="Q23" t="s">
-        <v>306</v>
-      </c>
-      <c r="R23" t="s">
-        <v>307</v>
-      </c>
       <c r="S23" t="s">
-        <v>992</v>
+        <v>982</v>
       </c>
     </row>
     <row r="24" spans="1:19">
@@ -5089,52 +5145,52 @@
         <v>10</v>
       </c>
       <c r="B24" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="D24" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="E24" t="s">
-        <v>1179</v>
+        <v>1161</v>
       </c>
       <c r="F24" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="G24" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="I24" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J24" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K24" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="L24" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M24" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="N24" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="O24" t="s">
+        <v>306</v>
+      </c>
+      <c r="P24" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q24" t="s">
         <v>308</v>
       </c>
-      <c r="P24" t="s">
+      <c r="R24" t="s">
         <v>309</v>
       </c>
-      <c r="Q24" t="s">
-        <v>310</v>
-      </c>
-      <c r="R24" t="s">
-        <v>311</v>
-      </c>
       <c r="S24" t="s">
-        <v>993</v>
+        <v>983</v>
       </c>
     </row>
     <row r="25" spans="1:19">
@@ -5142,52 +5198,52 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="D25" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="E25" t="s">
-        <v>1179</v>
+        <v>1161</v>
       </c>
       <c r="F25" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="G25" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="I25" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J25" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K25" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="L25" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M25" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="N25" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="O25" t="s">
+        <v>310</v>
+      </c>
+      <c r="P25" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q25" t="s">
         <v>312</v>
       </c>
-      <c r="P25" t="s">
+      <c r="R25" t="s">
         <v>313</v>
       </c>
-      <c r="Q25" t="s">
-        <v>314</v>
-      </c>
-      <c r="R25" t="s">
-        <v>315</v>
-      </c>
       <c r="S25" t="s">
-        <v>994</v>
+        <v>984</v>
       </c>
     </row>
     <row r="26" spans="1:19">
@@ -5195,52 +5251,52 @@
         <v>12</v>
       </c>
       <c r="B26" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="D26" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="E26" t="s">
-        <v>1179</v>
+        <v>1161</v>
       </c>
       <c r="F26" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="G26" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="I26" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J26" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K26" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="L26" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M26" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="N26" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="O26" t="s">
+        <v>314</v>
+      </c>
+      <c r="P26" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q26" t="s">
         <v>316</v>
       </c>
-      <c r="P26" t="s">
+      <c r="R26" t="s">
         <v>317</v>
       </c>
-      <c r="Q26" t="s">
-        <v>318</v>
-      </c>
-      <c r="R26" t="s">
-        <v>319</v>
-      </c>
       <c r="S26" t="s">
-        <v>995</v>
+        <v>985</v>
       </c>
     </row>
     <row r="27" spans="1:19">
@@ -5248,52 +5304,52 @@
         <v>13</v>
       </c>
       <c r="B27" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="D27" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="E27" t="s">
-        <v>1180</v>
+        <v>1162</v>
       </c>
       <c r="F27" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="G27" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="I27" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J27" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K27" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="L27" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M27" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="N27" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="O27" t="s">
+        <v>318</v>
+      </c>
+      <c r="P27" t="s">
+        <v>319</v>
+      </c>
+      <c r="Q27" t="s">
         <v>320</v>
       </c>
-      <c r="P27" t="s">
+      <c r="R27" t="s">
         <v>321</v>
       </c>
-      <c r="Q27" t="s">
-        <v>322</v>
-      </c>
-      <c r="R27" t="s">
-        <v>323</v>
-      </c>
       <c r="S27" t="s">
-        <v>996</v>
+        <v>986</v>
       </c>
     </row>
     <row r="28" spans="1:19">
@@ -5301,52 +5357,52 @@
         <v>14</v>
       </c>
       <c r="B28" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="D28" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="E28" t="s">
-        <v>1180</v>
+        <v>1162</v>
       </c>
       <c r="F28" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="G28" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="I28" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J28" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K28" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="L28" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M28" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="N28" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="O28" t="s">
+        <v>322</v>
+      </c>
+      <c r="P28" t="s">
+        <v>323</v>
+      </c>
+      <c r="Q28" t="s">
         <v>324</v>
       </c>
-      <c r="P28" t="s">
+      <c r="R28" t="s">
         <v>325</v>
       </c>
-      <c r="Q28" t="s">
-        <v>326</v>
-      </c>
-      <c r="R28" t="s">
-        <v>327</v>
-      </c>
       <c r="S28" t="s">
-        <v>997</v>
+        <v>987</v>
       </c>
     </row>
     <row r="29" spans="1:19">
@@ -5354,52 +5410,52 @@
         <v>15</v>
       </c>
       <c r="B29" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="D29" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="E29" t="s">
-        <v>1180</v>
+        <v>1162</v>
       </c>
       <c r="F29" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="G29" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="I29" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J29" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K29" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="L29" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M29" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="N29" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="O29" t="s">
+        <v>326</v>
+      </c>
+      <c r="P29" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q29" t="s">
         <v>328</v>
       </c>
-      <c r="P29" t="s">
+      <c r="R29" t="s">
         <v>329</v>
       </c>
-      <c r="Q29" t="s">
-        <v>330</v>
-      </c>
-      <c r="R29" t="s">
-        <v>331</v>
-      </c>
       <c r="S29" t="s">
-        <v>998</v>
+        <v>988</v>
       </c>
     </row>
     <row r="30" spans="1:19">
@@ -5407,52 +5463,52 @@
         <v>16</v>
       </c>
       <c r="B30" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="D30" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="E30" t="s">
-        <v>1180</v>
+        <v>1162</v>
       </c>
       <c r="F30" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="G30" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="I30" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J30" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K30" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="L30" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M30" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="N30" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="O30" t="s">
+        <v>330</v>
+      </c>
+      <c r="P30" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q30" t="s">
         <v>332</v>
       </c>
-      <c r="P30" t="s">
+      <c r="R30" t="s">
         <v>333</v>
       </c>
-      <c r="Q30" t="s">
-        <v>334</v>
-      </c>
-      <c r="R30" t="s">
-        <v>335</v>
-      </c>
       <c r="S30" t="s">
-        <v>999</v>
+        <v>989</v>
       </c>
     </row>
     <row r="31" spans="1:19">
@@ -5460,52 +5516,52 @@
         <v>17</v>
       </c>
       <c r="B31" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="D31" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="E31" t="s">
-        <v>1181</v>
+        <v>1163</v>
       </c>
       <c r="F31" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="G31" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="I31" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J31" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K31" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="L31" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M31" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="N31" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="O31" t="s">
+        <v>334</v>
+      </c>
+      <c r="P31" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q31" t="s">
         <v>336</v>
       </c>
-      <c r="P31" t="s">
+      <c r="R31" t="s">
         <v>337</v>
       </c>
-      <c r="Q31" t="s">
-        <v>338</v>
-      </c>
-      <c r="R31" t="s">
-        <v>339</v>
-      </c>
       <c r="S31" t="s">
-        <v>1000</v>
+        <v>990</v>
       </c>
     </row>
     <row r="32" spans="1:19">
@@ -5513,52 +5569,52 @@
         <v>18</v>
       </c>
       <c r="B32" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="D32" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="E32" t="s">
-        <v>1181</v>
+        <v>1163</v>
       </c>
       <c r="F32" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="G32" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="I32" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J32" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K32" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="L32" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M32" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="N32" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="O32" t="s">
+        <v>338</v>
+      </c>
+      <c r="P32" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q32" t="s">
         <v>340</v>
       </c>
-      <c r="P32" t="s">
+      <c r="R32" t="s">
         <v>341</v>
       </c>
-      <c r="Q32" t="s">
-        <v>342</v>
-      </c>
-      <c r="R32" t="s">
-        <v>343</v>
-      </c>
       <c r="S32" t="s">
-        <v>1001</v>
+        <v>991</v>
       </c>
     </row>
     <row r="33" spans="1:19">
@@ -5566,52 +5622,52 @@
         <v>19</v>
       </c>
       <c r="B33" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="D33" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="E33" t="s">
-        <v>1181</v>
+        <v>1163</v>
       </c>
       <c r="F33" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="G33" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="I33" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J33" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K33" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="L33" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M33" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="N33" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="O33" t="s">
+        <v>342</v>
+      </c>
+      <c r="P33" t="s">
+        <v>343</v>
+      </c>
+      <c r="Q33" t="s">
         <v>344</v>
       </c>
-      <c r="P33" t="s">
+      <c r="R33" t="s">
         <v>345</v>
       </c>
-      <c r="Q33" t="s">
-        <v>346</v>
-      </c>
-      <c r="R33" t="s">
-        <v>347</v>
-      </c>
       <c r="S33" t="s">
-        <v>1002</v>
+        <v>992</v>
       </c>
     </row>
     <row r="34" spans="1:19">
@@ -5619,52 +5675,52 @@
         <v>20</v>
       </c>
       <c r="B34" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="D34" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="E34" t="s">
-        <v>1181</v>
+        <v>1163</v>
       </c>
       <c r="F34" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="G34" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="I34" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J34" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K34" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="L34" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M34" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="N34" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="O34" t="s">
+        <v>346</v>
+      </c>
+      <c r="P34" t="s">
+        <v>347</v>
+      </c>
+      <c r="Q34" t="s">
         <v>348</v>
       </c>
-      <c r="P34" t="s">
+      <c r="R34" t="s">
         <v>349</v>
       </c>
-      <c r="Q34" t="s">
-        <v>350</v>
-      </c>
-      <c r="R34" t="s">
-        <v>351</v>
-      </c>
       <c r="S34" t="s">
-        <v>1003</v>
+        <v>993</v>
       </c>
     </row>
     <row r="35" spans="1:19">
@@ -5672,52 +5728,52 @@
         <v>21</v>
       </c>
       <c r="B35" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="D35" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="E35" t="s">
-        <v>1182</v>
+        <v>1164</v>
       </c>
       <c r="F35" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="G35" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="I35" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J35" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K35" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="L35" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M35" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="N35" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="O35" t="s">
+        <v>350</v>
+      </c>
+      <c r="P35" t="s">
+        <v>351</v>
+      </c>
+      <c r="Q35" t="s">
         <v>352</v>
       </c>
-      <c r="P35" t="s">
+      <c r="R35" t="s">
         <v>353</v>
       </c>
-      <c r="Q35" t="s">
-        <v>354</v>
-      </c>
-      <c r="R35" t="s">
-        <v>355</v>
-      </c>
       <c r="S35" t="s">
-        <v>1004</v>
+        <v>994</v>
       </c>
     </row>
     <row r="36" spans="1:19">
@@ -5725,52 +5781,52 @@
         <v>22</v>
       </c>
       <c r="B36" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="D36" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="E36" t="s">
-        <v>1182</v>
+        <v>1164</v>
       </c>
       <c r="F36" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="G36" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="I36" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J36" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K36" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="L36" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M36" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="N36" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="O36" t="s">
+        <v>354</v>
+      </c>
+      <c r="P36" t="s">
+        <v>355</v>
+      </c>
+      <c r="Q36" t="s">
         <v>356</v>
       </c>
-      <c r="P36" t="s">
+      <c r="R36" t="s">
         <v>357</v>
       </c>
-      <c r="Q36" t="s">
-        <v>358</v>
-      </c>
-      <c r="R36" t="s">
-        <v>359</v>
-      </c>
       <c r="S36" t="s">
-        <v>1005</v>
+        <v>995</v>
       </c>
     </row>
     <row r="37" spans="1:19">
@@ -5778,52 +5834,52 @@
         <v>23</v>
       </c>
       <c r="B37" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="D37" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="E37" t="s">
-        <v>1182</v>
+        <v>1164</v>
       </c>
       <c r="F37" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="G37" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="I37" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J37" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K37" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="L37" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M37" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="N37" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="O37" t="s">
+        <v>358</v>
+      </c>
+      <c r="P37" t="s">
+        <v>359</v>
+      </c>
+      <c r="Q37" t="s">
         <v>360</v>
       </c>
-      <c r="P37" t="s">
+      <c r="R37" t="s">
         <v>361</v>
       </c>
-      <c r="Q37" t="s">
-        <v>362</v>
-      </c>
-      <c r="R37" t="s">
-        <v>363</v>
-      </c>
       <c r="S37" t="s">
-        <v>1006</v>
+        <v>996</v>
       </c>
     </row>
     <row r="38" spans="1:19">
@@ -5831,52 +5887,52 @@
         <v>24</v>
       </c>
       <c r="B38" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="D38" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="E38" t="s">
-        <v>1182</v>
+        <v>1164</v>
       </c>
       <c r="F38" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="G38" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="I38" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J38" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K38" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="L38" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M38" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="N38" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="O38" t="s">
+        <v>362</v>
+      </c>
+      <c r="P38" t="s">
+        <v>363</v>
+      </c>
+      <c r="Q38" t="s">
         <v>364</v>
       </c>
-      <c r="P38" t="s">
+      <c r="R38" t="s">
         <v>365</v>
       </c>
-      <c r="Q38" t="s">
-        <v>366</v>
-      </c>
-      <c r="R38" t="s">
-        <v>367</v>
-      </c>
       <c r="S38" t="s">
-        <v>1007</v>
+        <v>997</v>
       </c>
     </row>
     <row r="39" spans="1:19">
@@ -5884,52 +5940,52 @@
         <v>25</v>
       </c>
       <c r="B39" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="D39" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="E39" t="s">
-        <v>1183</v>
+        <v>1165</v>
       </c>
       <c r="F39" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="G39" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="I39" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J39" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K39" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="L39" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M39" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="N39" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="O39" t="s">
+        <v>366</v>
+      </c>
+      <c r="P39" t="s">
+        <v>367</v>
+      </c>
+      <c r="Q39" t="s">
         <v>368</v>
       </c>
-      <c r="P39" t="s">
+      <c r="R39" t="s">
         <v>369</v>
       </c>
-      <c r="Q39" t="s">
-        <v>370</v>
-      </c>
-      <c r="R39" t="s">
-        <v>371</v>
-      </c>
       <c r="S39" t="s">
-        <v>1008</v>
+        <v>998</v>
       </c>
     </row>
     <row r="40" spans="1:19">
@@ -5937,52 +5993,52 @@
         <v>26</v>
       </c>
       <c r="B40" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="D40" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="E40" t="s">
-        <v>1183</v>
+        <v>1165</v>
       </c>
       <c r="F40" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="G40" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="I40" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J40" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K40" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="L40" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M40" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="N40" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="O40" t="s">
+        <v>370</v>
+      </c>
+      <c r="P40" t="s">
+        <v>371</v>
+      </c>
+      <c r="Q40" t="s">
         <v>372</v>
       </c>
-      <c r="P40" t="s">
+      <c r="R40" t="s">
         <v>373</v>
       </c>
-      <c r="Q40" t="s">
-        <v>374</v>
-      </c>
-      <c r="R40" t="s">
-        <v>375</v>
-      </c>
       <c r="S40" t="s">
-        <v>1009</v>
+        <v>999</v>
       </c>
     </row>
     <row r="41" spans="1:19">
@@ -5990,52 +6046,52 @@
         <v>27</v>
       </c>
       <c r="B41" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="D41" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="E41" t="s">
-        <v>1183</v>
+        <v>1165</v>
       </c>
       <c r="F41" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="G41" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="I41" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J41" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K41" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="L41" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M41" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="N41" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="O41" t="s">
+        <v>374</v>
+      </c>
+      <c r="P41" t="s">
+        <v>375</v>
+      </c>
+      <c r="Q41" t="s">
         <v>376</v>
       </c>
-      <c r="P41" t="s">
+      <c r="R41" t="s">
         <v>377</v>
       </c>
-      <c r="Q41" t="s">
-        <v>378</v>
-      </c>
-      <c r="R41" t="s">
-        <v>379</v>
-      </c>
       <c r="S41" t="s">
-        <v>1010</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="42" spans="1:19">
@@ -6043,52 +6099,52 @@
         <v>28</v>
       </c>
       <c r="B42" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="D42" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="E42" t="s">
-        <v>1183</v>
+        <v>1165</v>
       </c>
       <c r="F42" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="G42" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="I42" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J42" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K42" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="L42" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M42" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N42" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="O42" t="s">
+        <v>378</v>
+      </c>
+      <c r="P42" t="s">
+        <v>379</v>
+      </c>
+      <c r="Q42" t="s">
         <v>380</v>
       </c>
-      <c r="P42" t="s">
+      <c r="R42" t="s">
         <v>381</v>
       </c>
-      <c r="Q42" t="s">
-        <v>382</v>
-      </c>
-      <c r="R42" t="s">
-        <v>383</v>
-      </c>
       <c r="S42" t="s">
-        <v>1011</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="43" spans="1:19">
@@ -6096,52 +6152,52 @@
         <v>29</v>
       </c>
       <c r="B43" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="D43" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="E43" t="s">
-        <v>1184</v>
+        <v>1166</v>
       </c>
       <c r="F43" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="G43" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="I43" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J43" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K43" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="L43" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M43" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="N43" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="O43" t="s">
+        <v>382</v>
+      </c>
+      <c r="P43" t="s">
+        <v>383</v>
+      </c>
+      <c r="Q43" t="s">
         <v>384</v>
       </c>
-      <c r="P43" t="s">
+      <c r="R43" t="s">
         <v>385</v>
       </c>
-      <c r="Q43" t="s">
-        <v>386</v>
-      </c>
-      <c r="R43" t="s">
-        <v>387</v>
-      </c>
       <c r="S43" t="s">
-        <v>1012</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="44" spans="1:19">
@@ -6149,52 +6205,52 @@
         <v>30</v>
       </c>
       <c r="B44" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="D44">
         <v>0</v>
       </c>
       <c r="E44" t="s">
-        <v>1184</v>
+        <v>1166</v>
       </c>
       <c r="F44" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="G44" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="I44" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J44" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K44" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="L44" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M44" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="N44" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O44" t="s">
+        <v>386</v>
+      </c>
+      <c r="P44" t="s">
+        <v>387</v>
+      </c>
+      <c r="Q44" t="s">
         <v>388</v>
       </c>
-      <c r="P44" t="s">
+      <c r="R44" t="s">
         <v>389</v>
       </c>
-      <c r="Q44" t="s">
-        <v>390</v>
-      </c>
-      <c r="R44" t="s">
-        <v>391</v>
-      </c>
       <c r="S44" t="s">
-        <v>1013</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="45" spans="1:19">
@@ -6202,52 +6258,52 @@
         <v>31</v>
       </c>
       <c r="B45" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="D45" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="E45" t="s">
-        <v>1184</v>
+        <v>1166</v>
       </c>
       <c r="F45" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="G45" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="I45" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J45" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K45" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="L45" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M45" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="N45" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="O45" t="s">
+        <v>390</v>
+      </c>
+      <c r="P45" t="s">
+        <v>391</v>
+      </c>
+      <c r="Q45" t="s">
         <v>392</v>
       </c>
-      <c r="P45" t="s">
+      <c r="R45" t="s">
         <v>393</v>
       </c>
-      <c r="Q45" t="s">
-        <v>394</v>
-      </c>
-      <c r="R45" t="s">
-        <v>395</v>
-      </c>
       <c r="S45" t="s">
-        <v>1014</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="46" spans="1:19">
@@ -6255,52 +6311,52 @@
         <v>32</v>
       </c>
       <c r="B46" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="D46" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="E46" t="s">
-        <v>1184</v>
+        <v>1166</v>
       </c>
       <c r="F46" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="G46" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="I46" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J46" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K46" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="L46" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M46" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="N46" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="O46" t="s">
+        <v>394</v>
+      </c>
+      <c r="P46" t="s">
+        <v>395</v>
+      </c>
+      <c r="Q46" t="s">
         <v>396</v>
       </c>
-      <c r="P46" t="s">
+      <c r="R46" t="s">
         <v>397</v>
       </c>
-      <c r="Q46" t="s">
-        <v>398</v>
-      </c>
-      <c r="R46" t="s">
-        <v>399</v>
-      </c>
       <c r="S46" t="s">
-        <v>1015</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="47" spans="1:19">
@@ -6308,52 +6364,52 @@
         <v>33</v>
       </c>
       <c r="B47" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="D47" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="E47" t="s">
-        <v>1185</v>
+        <v>1167</v>
       </c>
       <c r="F47" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="G47" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="I47" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J47" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K47" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="L47" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M47" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="N47" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="O47" t="s">
+        <v>398</v>
+      </c>
+      <c r="P47" t="s">
+        <v>399</v>
+      </c>
+      <c r="Q47" t="s">
         <v>400</v>
       </c>
-      <c r="P47" t="s">
+      <c r="R47" t="s">
         <v>401</v>
       </c>
-      <c r="Q47" t="s">
-        <v>402</v>
-      </c>
-      <c r="R47" t="s">
-        <v>403</v>
-      </c>
       <c r="S47" t="s">
-        <v>1016</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="48" spans="1:19">
@@ -6361,52 +6417,52 @@
         <v>34</v>
       </c>
       <c r="B48" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="D48" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="E48" t="s">
-        <v>1185</v>
+        <v>1167</v>
       </c>
       <c r="F48" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="G48" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="I48" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J48" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K48" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="L48" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M48" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="N48" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="O48" t="s">
+        <v>402</v>
+      </c>
+      <c r="P48" t="s">
+        <v>403</v>
+      </c>
+      <c r="Q48" t="s">
         <v>404</v>
       </c>
-      <c r="P48" t="s">
+      <c r="R48" t="s">
         <v>405</v>
       </c>
-      <c r="Q48" t="s">
-        <v>406</v>
-      </c>
-      <c r="R48" t="s">
-        <v>407</v>
-      </c>
       <c r="S48" t="s">
-        <v>1017</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="49" spans="1:19">
@@ -6414,52 +6470,52 @@
         <v>35</v>
       </c>
       <c r="B49" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="D49" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="E49" t="s">
-        <v>1185</v>
+        <v>1167</v>
       </c>
       <c r="F49" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="G49" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="I49" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J49" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K49" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="L49" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M49" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N49" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="O49" t="s">
+        <v>406</v>
+      </c>
+      <c r="P49" t="s">
+        <v>407</v>
+      </c>
+      <c r="Q49" t="s">
         <v>408</v>
       </c>
-      <c r="P49" t="s">
+      <c r="R49" t="s">
         <v>409</v>
       </c>
-      <c r="Q49" t="s">
-        <v>410</v>
-      </c>
-      <c r="R49" t="s">
-        <v>411</v>
-      </c>
       <c r="S49" t="s">
-        <v>1018</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="50" spans="1:19">
@@ -6467,52 +6523,52 @@
         <v>36</v>
       </c>
       <c r="B50" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="D50" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="E50" t="s">
-        <v>1185</v>
+        <v>1167</v>
       </c>
       <c r="F50" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="G50" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="I50" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J50" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K50" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="L50" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M50" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="N50" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="O50" t="s">
+        <v>410</v>
+      </c>
+      <c r="P50" t="s">
+        <v>411</v>
+      </c>
+      <c r="Q50" t="s">
         <v>412</v>
       </c>
-      <c r="P50" t="s">
+      <c r="R50" t="s">
         <v>413</v>
       </c>
-      <c r="Q50" t="s">
-        <v>414</v>
-      </c>
-      <c r="R50" t="s">
-        <v>415</v>
-      </c>
       <c r="S50" t="s">
-        <v>1019</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="51" spans="1:19">
@@ -6520,52 +6576,52 @@
         <v>37</v>
       </c>
       <c r="B51" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="D51" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="E51" t="s">
-        <v>1186</v>
+        <v>1168</v>
       </c>
       <c r="F51" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="G51" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="I51" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J51" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K51" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="L51" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M51" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N51" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="O51" t="s">
+        <v>414</v>
+      </c>
+      <c r="P51" t="s">
+        <v>415</v>
+      </c>
+      <c r="Q51" t="s">
         <v>416</v>
       </c>
-      <c r="P51" t="s">
+      <c r="R51" t="s">
         <v>417</v>
       </c>
-      <c r="Q51" t="s">
-        <v>418</v>
-      </c>
-      <c r="R51" t="s">
-        <v>419</v>
-      </c>
       <c r="S51" t="s">
-        <v>1020</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="52" spans="1:19">
@@ -6573,52 +6629,52 @@
         <v>38</v>
       </c>
       <c r="B52" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="D52" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="E52" t="s">
-        <v>1186</v>
+        <v>1168</v>
       </c>
       <c r="F52" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="G52" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="I52" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J52" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K52" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="L52" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M52" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="N52" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="O52" t="s">
+        <v>418</v>
+      </c>
+      <c r="P52" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q52" t="s">
         <v>420</v>
       </c>
-      <c r="P52" t="s">
+      <c r="R52" t="s">
         <v>421</v>
       </c>
-      <c r="Q52" t="s">
-        <v>422</v>
-      </c>
-      <c r="R52" t="s">
-        <v>423</v>
-      </c>
       <c r="S52" t="s">
-        <v>1021</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="53" spans="1:19">
@@ -6626,52 +6682,52 @@
         <v>39</v>
       </c>
       <c r="B53" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="D53" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="E53" t="s">
-        <v>1186</v>
+        <v>1168</v>
       </c>
       <c r="F53" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="G53" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="I53" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J53" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K53" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="L53" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M53" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="N53" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="O53" t="s">
+        <v>422</v>
+      </c>
+      <c r="P53" t="s">
+        <v>423</v>
+      </c>
+      <c r="Q53" t="s">
         <v>424</v>
       </c>
-      <c r="P53" t="s">
+      <c r="R53" t="s">
         <v>425</v>
       </c>
-      <c r="Q53" t="s">
-        <v>426</v>
-      </c>
-      <c r="R53" t="s">
-        <v>427</v>
-      </c>
       <c r="S53" t="s">
-        <v>1022</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="54" spans="1:19">
@@ -6679,52 +6735,52 @@
         <v>40</v>
       </c>
       <c r="B54" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="D54" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="E54" t="s">
-        <v>1186</v>
+        <v>1168</v>
       </c>
       <c r="F54" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="G54" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="I54" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J54" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K54" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="L54" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M54" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="N54" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="O54" t="s">
+        <v>426</v>
+      </c>
+      <c r="P54" t="s">
+        <v>427</v>
+      </c>
+      <c r="Q54" t="s">
         <v>428</v>
       </c>
-      <c r="P54" t="s">
+      <c r="R54" t="s">
         <v>429</v>
       </c>
-      <c r="Q54" t="s">
-        <v>430</v>
-      </c>
-      <c r="R54" t="s">
-        <v>431</v>
-      </c>
       <c r="S54" t="s">
-        <v>1023</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="55" spans="1:19">
@@ -6732,52 +6788,52 @@
         <v>41</v>
       </c>
       <c r="B55" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="D55" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="E55" t="s">
-        <v>1187</v>
+        <v>1169</v>
       </c>
       <c r="F55" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="G55" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="I55" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J55" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K55" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="L55" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M55" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="N55" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="O55" t="s">
+        <v>430</v>
+      </c>
+      <c r="P55" t="s">
+        <v>431</v>
+      </c>
+      <c r="Q55" t="s">
         <v>432</v>
       </c>
-      <c r="P55" t="s">
+      <c r="R55" t="s">
         <v>433</v>
       </c>
-      <c r="Q55" t="s">
-        <v>434</v>
-      </c>
-      <c r="R55" t="s">
-        <v>435</v>
-      </c>
       <c r="S55" t="s">
-        <v>1024</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="56" spans="1:19">
@@ -6785,52 +6841,52 @@
         <v>42</v>
       </c>
       <c r="B56" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="D56" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="E56" t="s">
-        <v>1187</v>
+        <v>1169</v>
       </c>
       <c r="F56" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="G56" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="I56" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J56" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K56" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="L56" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M56" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="N56" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="O56" t="s">
+        <v>434</v>
+      </c>
+      <c r="P56" t="s">
+        <v>435</v>
+      </c>
+      <c r="Q56" t="s">
         <v>436</v>
       </c>
-      <c r="P56" t="s">
+      <c r="R56" t="s">
         <v>437</v>
       </c>
-      <c r="Q56" t="s">
-        <v>438</v>
-      </c>
-      <c r="R56" t="s">
-        <v>439</v>
-      </c>
       <c r="S56" t="s">
-        <v>1025</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="57" spans="1:19">
@@ -6838,52 +6894,52 @@
         <v>43</v>
       </c>
       <c r="B57" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="D57" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="E57" t="s">
-        <v>1187</v>
+        <v>1169</v>
       </c>
       <c r="F57" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="G57" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="I57" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J57" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K57" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="L57" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M57" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="N57" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="O57" t="s">
+        <v>438</v>
+      </c>
+      <c r="P57" t="s">
+        <v>439</v>
+      </c>
+      <c r="Q57" t="s">
         <v>440</v>
       </c>
-      <c r="P57" t="s">
+      <c r="R57" t="s">
         <v>441</v>
       </c>
-      <c r="Q57" t="s">
-        <v>442</v>
-      </c>
-      <c r="R57" t="s">
-        <v>443</v>
-      </c>
       <c r="S57" t="s">
-        <v>1026</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="58" spans="1:19">
@@ -6891,52 +6947,52 @@
         <v>44</v>
       </c>
       <c r="B58" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="D58" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="E58" t="s">
-        <v>1187</v>
+        <v>1169</v>
       </c>
       <c r="F58" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="G58" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="I58" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J58" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K58" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="L58" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M58" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="N58" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="O58" t="s">
+        <v>442</v>
+      </c>
+      <c r="P58" t="s">
+        <v>443</v>
+      </c>
+      <c r="Q58" t="s">
         <v>444</v>
       </c>
-      <c r="P58" t="s">
+      <c r="R58" t="s">
         <v>445</v>
       </c>
-      <c r="Q58" t="s">
-        <v>446</v>
-      </c>
-      <c r="R58" t="s">
-        <v>447</v>
-      </c>
       <c r="S58" t="s">
-        <v>1027</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="59" spans="1:19">
@@ -6944,52 +7000,52 @@
         <v>45</v>
       </c>
       <c r="B59" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="D59" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="E59" t="s">
-        <v>1188</v>
+        <v>1170</v>
       </c>
       <c r="F59" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="G59" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="I59" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J59" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K59" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="L59" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M59" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="N59" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="O59" t="s">
+        <v>446</v>
+      </c>
+      <c r="P59" t="s">
+        <v>447</v>
+      </c>
+      <c r="Q59" t="s">
         <v>448</v>
       </c>
-      <c r="P59" t="s">
+      <c r="R59" t="s">
         <v>449</v>
       </c>
-      <c r="Q59" t="s">
-        <v>450</v>
-      </c>
-      <c r="R59" t="s">
-        <v>451</v>
-      </c>
       <c r="S59" t="s">
-        <v>1028</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="60" spans="1:19">
@@ -6997,52 +7053,52 @@
         <v>46</v>
       </c>
       <c r="B60" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="D60" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="E60" t="s">
-        <v>1188</v>
+        <v>1170</v>
       </c>
       <c r="F60" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="G60" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="I60" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J60" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K60" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="L60" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M60" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="N60" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="O60" t="s">
+        <v>450</v>
+      </c>
+      <c r="P60" t="s">
+        <v>451</v>
+      </c>
+      <c r="Q60" t="s">
         <v>452</v>
       </c>
-      <c r="P60" t="s">
+      <c r="R60" t="s">
         <v>453</v>
       </c>
-      <c r="Q60" t="s">
-        <v>454</v>
-      </c>
-      <c r="R60" t="s">
-        <v>455</v>
-      </c>
       <c r="S60" t="s">
-        <v>1029</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="61" spans="1:19">
@@ -7050,52 +7106,52 @@
         <v>47</v>
       </c>
       <c r="B61" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="D61" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="E61" t="s">
-        <v>1188</v>
+        <v>1170</v>
       </c>
       <c r="F61" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="G61" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="I61" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J61" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K61" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="L61" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M61" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="N61" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="O61" t="s">
+        <v>454</v>
+      </c>
+      <c r="P61" t="s">
+        <v>455</v>
+      </c>
+      <c r="Q61" t="s">
         <v>456</v>
       </c>
-      <c r="P61" t="s">
+      <c r="R61" t="s">
         <v>457</v>
       </c>
-      <c r="Q61" t="s">
-        <v>458</v>
-      </c>
-      <c r="R61" t="s">
-        <v>459</v>
-      </c>
       <c r="S61" t="s">
-        <v>1030</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="62" spans="1:19">
@@ -7103,52 +7159,52 @@
         <v>48</v>
       </c>
       <c r="B62" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="D62" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="E62" t="s">
-        <v>1188</v>
+        <v>1170</v>
       </c>
       <c r="F62" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="G62" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="I62" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J62" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K62" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="L62" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M62" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="N62" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="O62" t="s">
+        <v>458</v>
+      </c>
+      <c r="P62" t="s">
+        <v>459</v>
+      </c>
+      <c r="Q62" t="s">
         <v>460</v>
       </c>
-      <c r="P62" t="s">
+      <c r="R62" t="s">
         <v>461</v>
       </c>
-      <c r="Q62" t="s">
-        <v>462</v>
-      </c>
-      <c r="R62" t="s">
-        <v>463</v>
-      </c>
       <c r="S62" t="s">
-        <v>1031</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="63" spans="1:19">
@@ -7156,52 +7212,52 @@
         <v>49</v>
       </c>
       <c r="B63" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="D63" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="E63" t="s">
-        <v>1189</v>
+        <v>1171</v>
       </c>
       <c r="F63" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="G63" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="I63" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J63" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K63" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="L63" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M63" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="N63" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="O63" t="s">
+        <v>462</v>
+      </c>
+      <c r="P63" t="s">
+        <v>463</v>
+      </c>
+      <c r="Q63" t="s">
         <v>464</v>
       </c>
-      <c r="P63" t="s">
+      <c r="R63" t="s">
         <v>465</v>
       </c>
-      <c r="Q63" t="s">
-        <v>466</v>
-      </c>
-      <c r="R63" t="s">
-        <v>467</v>
-      </c>
       <c r="S63" t="s">
-        <v>1032</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="64" spans="1:19">
@@ -7209,52 +7265,52 @@
         <v>50</v>
       </c>
       <c r="B64" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="D64" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="E64" t="s">
-        <v>1189</v>
+        <v>1171</v>
       </c>
       <c r="F64" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="G64" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="I64" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J64" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K64" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="L64" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M64" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="N64" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="O64" t="s">
+        <v>466</v>
+      </c>
+      <c r="P64" t="s">
+        <v>467</v>
+      </c>
+      <c r="Q64" t="s">
         <v>468</v>
       </c>
-      <c r="P64" t="s">
+      <c r="R64" t="s">
         <v>469</v>
       </c>
-      <c r="Q64" t="s">
-        <v>470</v>
-      </c>
-      <c r="R64" t="s">
-        <v>471</v>
-      </c>
       <c r="S64" t="s">
-        <v>1033</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="65" spans="1:19">
@@ -7262,52 +7318,52 @@
         <v>51</v>
       </c>
       <c r="B65" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="D65" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="E65" t="s">
-        <v>1189</v>
+        <v>1171</v>
       </c>
       <c r="F65" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="G65" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="I65" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J65" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K65" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="L65" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M65" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="N65" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="O65" t="s">
+        <v>470</v>
+      </c>
+      <c r="P65" t="s">
+        <v>471</v>
+      </c>
+      <c r="Q65" t="s">
         <v>472</v>
       </c>
-      <c r="P65" t="s">
+      <c r="R65" t="s">
         <v>473</v>
       </c>
-      <c r="Q65" t="s">
-        <v>474</v>
-      </c>
-      <c r="R65" t="s">
-        <v>475</v>
-      </c>
       <c r="S65" t="s">
-        <v>1034</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="66" spans="1:19">
@@ -7315,52 +7371,52 @@
         <v>52</v>
       </c>
       <c r="B66" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="D66" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E66" t="s">
-        <v>1189</v>
+        <v>1171</v>
       </c>
       <c r="F66" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="G66" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="I66" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J66" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K66" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="L66" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M66" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="N66" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="O66" t="s">
+        <v>474</v>
+      </c>
+      <c r="P66" t="s">
+        <v>475</v>
+      </c>
+      <c r="Q66" t="s">
         <v>476</v>
       </c>
-      <c r="P66" t="s">
+      <c r="R66" t="s">
         <v>477</v>
       </c>
-      <c r="Q66" t="s">
-        <v>478</v>
-      </c>
-      <c r="R66" t="s">
-        <v>479</v>
-      </c>
       <c r="S66" t="s">
-        <v>1035</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="67" spans="1:19">
@@ -7368,52 +7424,52 @@
         <v>53</v>
       </c>
       <c r="B67" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="D67" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="E67" t="s">
-        <v>1190</v>
+        <v>1172</v>
       </c>
       <c r="F67" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="G67" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="I67" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J67" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K67" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="L67" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M67" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="N67" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="O67" t="s">
+        <v>478</v>
+      </c>
+      <c r="P67" t="s">
+        <v>479</v>
+      </c>
+      <c r="Q67" t="s">
         <v>480</v>
       </c>
-      <c r="P67" t="s">
+      <c r="R67" t="s">
         <v>481</v>
       </c>
-      <c r="Q67" t="s">
-        <v>482</v>
-      </c>
-      <c r="R67" t="s">
-        <v>483</v>
-      </c>
       <c r="S67" t="s">
-        <v>1036</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="68" spans="1:19">
@@ -7421,52 +7477,52 @@
         <v>54</v>
       </c>
       <c r="B68" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="D68" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="E68" t="s">
-        <v>1190</v>
+        <v>1172</v>
       </c>
       <c r="F68" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="G68" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="I68" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J68" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K68" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="L68" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M68" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="N68" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="O68" t="s">
+        <v>482</v>
+      </c>
+      <c r="P68" t="s">
+        <v>483</v>
+      </c>
+      <c r="Q68" t="s">
         <v>484</v>
       </c>
-      <c r="P68" t="s">
+      <c r="R68" t="s">
         <v>485</v>
       </c>
-      <c r="Q68" t="s">
-        <v>486</v>
-      </c>
-      <c r="R68" t="s">
-        <v>487</v>
-      </c>
       <c r="S68" t="s">
-        <v>1037</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="69" spans="1:19">
@@ -7474,52 +7530,52 @@
         <v>55</v>
       </c>
       <c r="B69" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="D69" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="E69" t="s">
-        <v>1190</v>
+        <v>1172</v>
       </c>
       <c r="F69" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="G69" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="I69" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J69" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K69" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="L69" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M69" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="N69" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="O69" t="s">
+        <v>486</v>
+      </c>
+      <c r="P69" t="s">
+        <v>487</v>
+      </c>
+      <c r="Q69" t="s">
         <v>488</v>
       </c>
-      <c r="P69" t="s">
+      <c r="R69" t="s">
         <v>489</v>
       </c>
-      <c r="Q69" t="s">
-        <v>490</v>
-      </c>
-      <c r="R69" t="s">
-        <v>491</v>
-      </c>
       <c r="S69" t="s">
-        <v>1038</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="70" spans="1:19">
@@ -7527,52 +7583,52 @@
         <v>56</v>
       </c>
       <c r="B70" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="D70" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="E70" t="s">
-        <v>1190</v>
+        <v>1172</v>
       </c>
       <c r="F70" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="G70" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="I70" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J70" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K70" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="L70" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M70" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="N70" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="O70" t="s">
+        <v>490</v>
+      </c>
+      <c r="P70" t="s">
+        <v>491</v>
+      </c>
+      <c r="Q70" t="s">
         <v>492</v>
       </c>
-      <c r="P70" t="s">
+      <c r="R70" t="s">
         <v>493</v>
       </c>
-      <c r="Q70" t="s">
-        <v>494</v>
-      </c>
-      <c r="R70" t="s">
-        <v>495</v>
-      </c>
       <c r="S70" t="s">
-        <v>1039</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="71" spans="1:19">
@@ -7580,52 +7636,52 @@
         <v>57</v>
       </c>
       <c r="B71" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="D71" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="E71" t="s">
-        <v>1191</v>
+        <v>1173</v>
       </c>
       <c r="F71" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="G71" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="I71" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J71" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K71" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="L71" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M71" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="N71" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="O71" t="s">
+        <v>494</v>
+      </c>
+      <c r="P71" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q71" t="s">
         <v>496</v>
       </c>
-      <c r="P71" t="s">
+      <c r="R71" t="s">
         <v>497</v>
       </c>
-      <c r="Q71" t="s">
-        <v>498</v>
-      </c>
-      <c r="R71" t="s">
-        <v>499</v>
-      </c>
       <c r="S71" t="s">
-        <v>1040</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="72" spans="1:19">
@@ -7633,52 +7689,52 @@
         <v>58</v>
       </c>
       <c r="B72" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="D72" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="E72" t="s">
-        <v>1191</v>
+        <v>1173</v>
       </c>
       <c r="F72" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="G72" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="I72" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J72" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K72" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="L72" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M72" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="N72" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="O72" t="s">
+        <v>498</v>
+      </c>
+      <c r="P72" t="s">
+        <v>499</v>
+      </c>
+      <c r="Q72" t="s">
         <v>500</v>
       </c>
-      <c r="P72" t="s">
+      <c r="R72" t="s">
         <v>501</v>
       </c>
-      <c r="Q72" t="s">
-        <v>502</v>
-      </c>
-      <c r="R72" t="s">
-        <v>503</v>
-      </c>
       <c r="S72" t="s">
-        <v>1041</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="73" spans="1:19">
@@ -7686,52 +7742,52 @@
         <v>59</v>
       </c>
       <c r="B73" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="D73" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="E73" t="s">
-        <v>1191</v>
+        <v>1173</v>
       </c>
       <c r="F73" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="G73" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="I73" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J73" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K73" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="L73" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M73" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="N73" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="O73" t="s">
+        <v>502</v>
+      </c>
+      <c r="P73" t="s">
+        <v>503</v>
+      </c>
+      <c r="Q73" t="s">
         <v>504</v>
       </c>
-      <c r="P73" t="s">
+      <c r="R73" t="s">
         <v>505</v>
       </c>
-      <c r="Q73" t="s">
-        <v>506</v>
-      </c>
-      <c r="R73" t="s">
-        <v>507</v>
-      </c>
       <c r="S73" t="s">
-        <v>1042</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="74" spans="1:19">
@@ -7739,52 +7795,52 @@
         <v>60</v>
       </c>
       <c r="B74" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="D74" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="E74" t="s">
-        <v>1191</v>
+        <v>1173</v>
       </c>
       <c r="F74" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="G74" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="I74" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J74" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K74" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="L74" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M74" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="N74" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="O74" t="s">
+        <v>506</v>
+      </c>
+      <c r="P74" t="s">
+        <v>507</v>
+      </c>
+      <c r="Q74" t="s">
         <v>508</v>
       </c>
-      <c r="P74" t="s">
+      <c r="R74" t="s">
         <v>509</v>
       </c>
-      <c r="Q74" t="s">
-        <v>510</v>
-      </c>
-      <c r="R74" t="s">
-        <v>511</v>
-      </c>
       <c r="S74" t="s">
-        <v>1043</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="75" spans="1:19" ht="45">
@@ -7792,52 +7848,52 @@
         <v>61</v>
       </c>
       <c r="B75" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="D75" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="E75" t="s">
-        <v>1192</v>
+        <v>1174</v>
       </c>
       <c r="F75" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="G75" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="I75" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J75" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K75" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="L75" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M75" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="N75" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="O75" t="s">
+        <v>510</v>
+      </c>
+      <c r="P75" t="s">
+        <v>511</v>
+      </c>
+      <c r="Q75" t="s">
         <v>512</v>
       </c>
-      <c r="P75" t="s">
+      <c r="R75" t="s">
         <v>513</v>
       </c>
-      <c r="Q75" t="s">
-        <v>514</v>
-      </c>
-      <c r="R75" t="s">
-        <v>515</v>
-      </c>
       <c r="S75" t="s">
-        <v>1044</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="76" spans="1:19" ht="30">
@@ -7845,52 +7901,52 @@
         <v>62</v>
       </c>
       <c r="B76" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="D76" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="E76" t="s">
-        <v>1192</v>
+        <v>1174</v>
       </c>
       <c r="F76" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="G76" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="I76" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J76" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K76" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="L76" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M76" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="N76" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="O76" t="s">
+        <v>514</v>
+      </c>
+      <c r="P76" t="s">
+        <v>515</v>
+      </c>
+      <c r="Q76" t="s">
         <v>516</v>
       </c>
-      <c r="P76" t="s">
+      <c r="R76" t="s">
         <v>517</v>
       </c>
-      <c r="Q76" t="s">
-        <v>518</v>
-      </c>
-      <c r="R76" t="s">
-        <v>519</v>
-      </c>
       <c r="S76" t="s">
-        <v>1045</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="77" spans="1:19" ht="30">
@@ -7898,52 +7954,52 @@
         <v>63</v>
       </c>
       <c r="B77" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="D77" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="E77" t="s">
-        <v>1192</v>
+        <v>1174</v>
       </c>
       <c r="F77" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="G77" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="I77" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J77" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K77" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="L77" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M77" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="N77" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="O77" t="s">
+        <v>518</v>
+      </c>
+      <c r="P77" t="s">
+        <v>519</v>
+      </c>
+      <c r="Q77" t="s">
         <v>520</v>
       </c>
-      <c r="P77" t="s">
+      <c r="R77" t="s">
         <v>521</v>
       </c>
-      <c r="Q77" t="s">
-        <v>522</v>
-      </c>
-      <c r="R77" t="s">
-        <v>523</v>
-      </c>
       <c r="S77" t="s">
-        <v>1046</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="78" spans="1:19" ht="30">
@@ -7951,52 +8007,52 @@
         <v>64</v>
       </c>
       <c r="B78" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="D78" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="E78" t="s">
-        <v>1192</v>
+        <v>1174</v>
       </c>
       <c r="F78" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="G78" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="I78" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J78" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K78" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="L78" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M78" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="N78" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="O78" t="s">
+        <v>522</v>
+      </c>
+      <c r="P78" t="s">
+        <v>523</v>
+      </c>
+      <c r="Q78" t="s">
         <v>524</v>
       </c>
-      <c r="P78" t="s">
+      <c r="R78" t="s">
         <v>525</v>
       </c>
-      <c r="Q78" t="s">
-        <v>526</v>
-      </c>
-      <c r="R78" t="s">
-        <v>527</v>
-      </c>
       <c r="S78" t="s">
-        <v>1047</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="79" spans="1:19" ht="30">
@@ -8004,52 +8060,52 @@
         <v>65</v>
       </c>
       <c r="B79" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="D79" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="E79" t="s">
-        <v>1193</v>
+        <v>1175</v>
       </c>
       <c r="F79" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="G79" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="I79" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J79" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K79" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="L79" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M79" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="N79" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="O79" t="s">
+        <v>526</v>
+      </c>
+      <c r="P79" t="s">
+        <v>527</v>
+      </c>
+      <c r="Q79" t="s">
         <v>528</v>
       </c>
-      <c r="P79" t="s">
+      <c r="R79" t="s">
         <v>529</v>
       </c>
-      <c r="Q79" t="s">
-        <v>530</v>
-      </c>
-      <c r="R79" t="s">
-        <v>531</v>
-      </c>
       <c r="S79" t="s">
-        <v>1048</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="80" spans="1:19" ht="30">
@@ -8057,52 +8113,52 @@
         <v>66</v>
       </c>
       <c r="B80" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="D80" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="E80" t="s">
-        <v>1193</v>
+        <v>1175</v>
       </c>
       <c r="F80" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="G80" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="I80" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J80" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K80" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="L80" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M80" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="N80" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="O80" t="s">
+        <v>530</v>
+      </c>
+      <c r="P80" t="s">
+        <v>531</v>
+      </c>
+      <c r="Q80" t="s">
         <v>532</v>
       </c>
-      <c r="P80" t="s">
+      <c r="R80" t="s">
         <v>533</v>
       </c>
-      <c r="Q80" t="s">
-        <v>534</v>
-      </c>
-      <c r="R80" t="s">
-        <v>535</v>
-      </c>
       <c r="S80" t="s">
-        <v>1049</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="81" spans="1:19" ht="30">
@@ -8110,52 +8166,52 @@
         <v>67</v>
       </c>
       <c r="B81" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="D81" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="E81" t="s">
-        <v>1193</v>
+        <v>1175</v>
       </c>
       <c r="F81" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="G81" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="I81" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J81" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K81" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="L81" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M81" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="N81" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="O81" t="s">
+        <v>534</v>
+      </c>
+      <c r="P81" t="s">
+        <v>535</v>
+      </c>
+      <c r="Q81" t="s">
         <v>536</v>
       </c>
-      <c r="P81" t="s">
+      <c r="R81" t="s">
         <v>537</v>
       </c>
-      <c r="Q81" t="s">
-        <v>538</v>
-      </c>
-      <c r="R81" t="s">
-        <v>539</v>
-      </c>
       <c r="S81" t="s">
-        <v>1050</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="82" spans="1:19" ht="45">
@@ -8163,52 +8219,52 @@
         <v>68</v>
       </c>
       <c r="B82" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="D82" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="E82" t="s">
-        <v>1193</v>
+        <v>1175</v>
       </c>
       <c r="F82" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="G82" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="I82" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J82" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K82" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="L82" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M82" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="N82" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="O82" t="s">
+        <v>538</v>
+      </c>
+      <c r="P82" t="s">
+        <v>539</v>
+      </c>
+      <c r="Q82" t="s">
         <v>540</v>
       </c>
-      <c r="P82" t="s">
+      <c r="R82" t="s">
         <v>541</v>
       </c>
-      <c r="Q82" t="s">
-        <v>542</v>
-      </c>
-      <c r="R82" t="s">
-        <v>543</v>
-      </c>
       <c r="S82" t="s">
-        <v>1051</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="83" spans="1:19" ht="45">
@@ -8216,52 +8272,52 @@
         <v>69</v>
       </c>
       <c r="B83" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="D83" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="E83" t="s">
-        <v>1194</v>
+        <v>1176</v>
       </c>
       <c r="F83" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="G83" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="I83" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J83" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K83" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="L83" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M83" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="N83" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="O83" t="s">
+        <v>542</v>
+      </c>
+      <c r="P83" t="s">
+        <v>543</v>
+      </c>
+      <c r="Q83" t="s">
         <v>544</v>
       </c>
-      <c r="P83" t="s">
+      <c r="R83" t="s">
         <v>545</v>
       </c>
-      <c r="Q83" t="s">
-        <v>546</v>
-      </c>
-      <c r="R83" t="s">
-        <v>547</v>
-      </c>
       <c r="S83" t="s">
-        <v>1052</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="84" spans="1:19" ht="30">
@@ -8269,52 +8325,52 @@
         <v>70</v>
       </c>
       <c r="B84" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="D84" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="E84" t="s">
-        <v>1194</v>
+        <v>1176</v>
       </c>
       <c r="F84" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="G84" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="I84" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J84" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K84" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="L84" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M84" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="N84" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="O84" t="s">
+        <v>546</v>
+      </c>
+      <c r="P84" t="s">
+        <v>547</v>
+      </c>
+      <c r="Q84" t="s">
         <v>548</v>
       </c>
-      <c r="P84" t="s">
+      <c r="R84" t="s">
         <v>549</v>
       </c>
-      <c r="Q84" t="s">
-        <v>550</v>
-      </c>
-      <c r="R84" t="s">
-        <v>551</v>
-      </c>
       <c r="S84" t="s">
-        <v>1053</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="85" spans="1:19" ht="30">
@@ -8322,52 +8378,52 @@
         <v>71</v>
       </c>
       <c r="B85" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="D85" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="E85" t="s">
-        <v>1194</v>
+        <v>1176</v>
       </c>
       <c r="F85" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G85" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="I85" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J85" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K85" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="L85" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M85" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="N85" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="O85" t="s">
+        <v>550</v>
+      </c>
+      <c r="P85" t="s">
+        <v>551</v>
+      </c>
+      <c r="Q85" t="s">
         <v>552</v>
       </c>
-      <c r="P85" t="s">
+      <c r="R85" t="s">
         <v>553</v>
       </c>
-      <c r="Q85" t="s">
-        <v>554</v>
-      </c>
-      <c r="R85" t="s">
-        <v>555</v>
-      </c>
       <c r="S85" t="s">
-        <v>1054</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="86" spans="1:19" ht="30">
@@ -8375,52 +8431,52 @@
         <v>72</v>
       </c>
       <c r="B86" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="D86" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="E86" t="s">
-        <v>1194</v>
+        <v>1176</v>
       </c>
       <c r="F86" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="G86" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="I86" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J86" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K86" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="L86" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M86" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="N86" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="O86" t="s">
+        <v>554</v>
+      </c>
+      <c r="P86" t="s">
+        <v>555</v>
+      </c>
+      <c r="Q86" t="s">
         <v>556</v>
       </c>
-      <c r="P86" t="s">
+      <c r="R86" t="s">
         <v>557</v>
       </c>
-      <c r="Q86" t="s">
-        <v>558</v>
-      </c>
-      <c r="R86" t="s">
-        <v>559</v>
-      </c>
       <c r="S86" t="s">
-        <v>1055</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="87" spans="1:19" ht="30">
@@ -8428,52 +8484,52 @@
         <v>73</v>
       </c>
       <c r="B87" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="D87" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="E87" t="s">
-        <v>1195</v>
+        <v>1177</v>
       </c>
       <c r="F87" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="G87" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="I87" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J87" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K87" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="L87" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M87" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="N87" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="O87" t="s">
+        <v>558</v>
+      </c>
+      <c r="P87" t="s">
+        <v>559</v>
+      </c>
+      <c r="Q87" t="s">
         <v>560</v>
       </c>
-      <c r="P87" t="s">
+      <c r="R87" t="s">
         <v>561</v>
       </c>
-      <c r="Q87" t="s">
-        <v>562</v>
-      </c>
-      <c r="R87" t="s">
-        <v>563</v>
-      </c>
       <c r="S87" t="s">
-        <v>1056</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="88" spans="1:19" ht="30">
@@ -8481,52 +8537,52 @@
         <v>74</v>
       </c>
       <c r="B88" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="D88" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="E88" t="s">
-        <v>1195</v>
+        <v>1177</v>
       </c>
       <c r="F88" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="G88" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="I88" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J88" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K88" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="L88" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M88" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="N88" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="O88" t="s">
+        <v>562</v>
+      </c>
+      <c r="P88" t="s">
+        <v>563</v>
+      </c>
+      <c r="Q88" t="s">
         <v>564</v>
       </c>
-      <c r="P88" t="s">
+      <c r="R88" t="s">
         <v>565</v>
       </c>
-      <c r="Q88" t="s">
-        <v>566</v>
-      </c>
-      <c r="R88" t="s">
-        <v>567</v>
-      </c>
       <c r="S88" t="s">
-        <v>1057</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="89" spans="1:19" ht="30">
@@ -8534,52 +8590,52 @@
         <v>75</v>
       </c>
       <c r="B89" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="D89" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="E89" t="s">
-        <v>1195</v>
+        <v>1177</v>
       </c>
       <c r="F89" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="G89" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="I89" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J89" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K89" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="L89" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M89" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="N89" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="O89" t="s">
+        <v>566</v>
+      </c>
+      <c r="P89" t="s">
+        <v>567</v>
+      </c>
+      <c r="Q89" t="s">
         <v>568</v>
       </c>
-      <c r="P89" t="s">
+      <c r="R89" t="s">
         <v>569</v>
       </c>
-      <c r="Q89" t="s">
-        <v>570</v>
-      </c>
-      <c r="R89" t="s">
-        <v>571</v>
-      </c>
       <c r="S89" t="s">
-        <v>1058</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="90" spans="1:19" ht="30">
@@ -8587,52 +8643,52 @@
         <v>76</v>
       </c>
       <c r="B90" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="D90" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="E90" t="s">
-        <v>1195</v>
+        <v>1177</v>
       </c>
       <c r="F90" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="G90" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="I90" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J90" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K90" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="L90" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M90" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="N90" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="O90" t="s">
+        <v>570</v>
+      </c>
+      <c r="P90" t="s">
+        <v>571</v>
+      </c>
+      <c r="Q90" t="s">
         <v>572</v>
       </c>
-      <c r="P90" t="s">
+      <c r="R90" t="s">
         <v>573</v>
       </c>
-      <c r="Q90" t="s">
-        <v>574</v>
-      </c>
-      <c r="R90" t="s">
-        <v>575</v>
-      </c>
       <c r="S90" t="s">
-        <v>1059</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="91" spans="1:19" ht="45">
@@ -8640,52 +8696,52 @@
         <v>77</v>
       </c>
       <c r="B91" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="D91" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="E91" t="s">
-        <v>1196</v>
+        <v>1178</v>
       </c>
       <c r="F91" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="G91" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="I91" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J91" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K91" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="L91" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M91" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="N91" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="O91" t="s">
+        <v>574</v>
+      </c>
+      <c r="P91" t="s">
+        <v>575</v>
+      </c>
+      <c r="Q91" t="s">
         <v>576</v>
       </c>
-      <c r="P91" t="s">
+      <c r="R91" t="s">
         <v>577</v>
       </c>
-      <c r="Q91" t="s">
-        <v>578</v>
-      </c>
-      <c r="R91" t="s">
-        <v>579</v>
-      </c>
       <c r="S91" t="s">
-        <v>1060</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="92" spans="1:19" ht="30">
@@ -8693,52 +8749,52 @@
         <v>78</v>
       </c>
       <c r="B92" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="D92" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="E92" t="s">
-        <v>1196</v>
+        <v>1178</v>
       </c>
       <c r="F92" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="G92" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="I92" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J92" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K92" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="L92" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M92" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="N92" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="O92" t="s">
+        <v>578</v>
+      </c>
+      <c r="P92" t="s">
+        <v>579</v>
+      </c>
+      <c r="Q92" t="s">
         <v>580</v>
       </c>
-      <c r="P92" t="s">
+      <c r="R92" t="s">
         <v>581</v>
       </c>
-      <c r="Q92" t="s">
-        <v>582</v>
-      </c>
-      <c r="R92" t="s">
-        <v>583</v>
-      </c>
       <c r="S92" t="s">
-        <v>1061</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="93" spans="1:19" ht="30">
@@ -8746,52 +8802,52 @@
         <v>79</v>
       </c>
       <c r="B93" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="D93" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="E93" t="s">
-        <v>1196</v>
+        <v>1178</v>
       </c>
       <c r="F93" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="G93" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="I93" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J93" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K93" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="L93" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M93" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="N93" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="O93" t="s">
+        <v>582</v>
+      </c>
+      <c r="P93" t="s">
+        <v>583</v>
+      </c>
+      <c r="Q93" t="s">
         <v>584</v>
       </c>
-      <c r="P93" t="s">
+      <c r="R93" t="s">
         <v>585</v>
       </c>
-      <c r="Q93" t="s">
-        <v>586</v>
-      </c>
-      <c r="R93" t="s">
-        <v>587</v>
-      </c>
       <c r="S93" t="s">
-        <v>1062</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="94" spans="1:19" ht="45">
@@ -8799,52 +8855,52 @@
         <v>80</v>
       </c>
       <c r="B94" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="D94" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="E94" t="s">
-        <v>1196</v>
+        <v>1178</v>
       </c>
       <c r="F94" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="G94" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="I94" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J94" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K94" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="L94" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M94" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="N94" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="O94" t="s">
+        <v>586</v>
+      </c>
+      <c r="P94" t="s">
+        <v>587</v>
+      </c>
+      <c r="Q94" t="s">
         <v>588</v>
       </c>
-      <c r="P94" t="s">
+      <c r="R94" t="s">
         <v>589</v>
       </c>
-      <c r="Q94" t="s">
-        <v>590</v>
-      </c>
-      <c r="R94" t="s">
-        <v>591</v>
-      </c>
       <c r="S94" t="s">
-        <v>1063</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="95" spans="1:19" ht="30">
@@ -8852,52 +8908,52 @@
         <v>81</v>
       </c>
       <c r="B95" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="D95" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="E95" t="s">
-        <v>1197</v>
+        <v>1179</v>
       </c>
       <c r="F95" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="G95" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="I95" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J95" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K95" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="L95" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M95" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="N95" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="O95" t="s">
+        <v>590</v>
+      </c>
+      <c r="P95" t="s">
+        <v>591</v>
+      </c>
+      <c r="Q95" t="s">
         <v>592</v>
       </c>
-      <c r="P95" t="s">
+      <c r="R95" t="s">
         <v>593</v>
       </c>
-      <c r="Q95" t="s">
-        <v>594</v>
-      </c>
-      <c r="R95" t="s">
-        <v>595</v>
-      </c>
       <c r="S95" t="s">
-        <v>1064</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="96" spans="1:19" ht="30">
@@ -8905,52 +8961,52 @@
         <v>82</v>
       </c>
       <c r="B96" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="D96" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="E96" t="s">
-        <v>1197</v>
+        <v>1179</v>
       </c>
       <c r="F96" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="G96" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="I96" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J96" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K96" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="L96" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M96" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="N96" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="O96" t="s">
+        <v>594</v>
+      </c>
+      <c r="P96" t="s">
+        <v>595</v>
+      </c>
+      <c r="Q96" t="s">
         <v>596</v>
       </c>
-      <c r="P96" t="s">
+      <c r="R96" t="s">
         <v>597</v>
       </c>
-      <c r="Q96" t="s">
-        <v>598</v>
-      </c>
-      <c r="R96" t="s">
-        <v>599</v>
-      </c>
       <c r="S96" t="s">
-        <v>1065</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="97" spans="1:19" ht="30">
@@ -8958,52 +9014,52 @@
         <v>83</v>
       </c>
       <c r="B97" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="D97" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="E97" t="s">
-        <v>1197</v>
+        <v>1179</v>
       </c>
       <c r="F97" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="G97" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="I97" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J97" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K97" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="L97" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M97" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="N97" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="O97" t="s">
+        <v>598</v>
+      </c>
+      <c r="P97" t="s">
+        <v>599</v>
+      </c>
+      <c r="Q97" t="s">
         <v>600</v>
       </c>
-      <c r="P97" t="s">
+      <c r="R97" t="s">
         <v>601</v>
       </c>
-      <c r="Q97" t="s">
-        <v>602</v>
-      </c>
-      <c r="R97" t="s">
-        <v>603</v>
-      </c>
       <c r="S97" t="s">
-        <v>1066</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="98" spans="1:19" ht="30">
@@ -9011,52 +9067,52 @@
         <v>84</v>
       </c>
       <c r="B98" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="D98" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="E98" t="s">
-        <v>1197</v>
+        <v>1179</v>
       </c>
       <c r="F98" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="G98" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="I98" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J98" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K98" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="L98" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M98" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="N98" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="O98" t="s">
+        <v>602</v>
+      </c>
+      <c r="P98" t="s">
+        <v>603</v>
+      </c>
+      <c r="Q98" t="s">
         <v>604</v>
       </c>
-      <c r="P98" t="s">
+      <c r="R98" t="s">
         <v>605</v>
       </c>
-      <c r="Q98" t="s">
-        <v>606</v>
-      </c>
-      <c r="R98" t="s">
-        <v>607</v>
-      </c>
       <c r="S98" t="s">
-        <v>1067</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="99" spans="1:19" ht="30">
@@ -9064,52 +9120,52 @@
         <v>85</v>
       </c>
       <c r="B99" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="D99" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="E99" t="s">
-        <v>1198</v>
+        <v>1180</v>
       </c>
       <c r="F99" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="G99" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="I99" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J99" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K99" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="L99" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M99" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="N99" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="O99" t="s">
+        <v>606</v>
+      </c>
+      <c r="P99" t="s">
+        <v>607</v>
+      </c>
+      <c r="Q99" t="s">
         <v>608</v>
       </c>
-      <c r="P99" t="s">
+      <c r="R99" t="s">
         <v>609</v>
       </c>
-      <c r="Q99" t="s">
-        <v>610</v>
-      </c>
-      <c r="R99" t="s">
-        <v>611</v>
-      </c>
       <c r="S99" t="s">
-        <v>1068</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="100" spans="1:19" ht="30">
@@ -9117,52 +9173,52 @@
         <v>86</v>
       </c>
       <c r="B100" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="D100" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="E100" t="s">
-        <v>1198</v>
+        <v>1180</v>
       </c>
       <c r="F100" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="G100" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="I100" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J100" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K100" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="L100" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M100" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="N100" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="O100" t="s">
+        <v>610</v>
+      </c>
+      <c r="P100" t="s">
+        <v>611</v>
+      </c>
+      <c r="Q100" t="s">
         <v>612</v>
       </c>
-      <c r="P100" t="s">
+      <c r="R100" t="s">
         <v>613</v>
       </c>
-      <c r="Q100" t="s">
-        <v>614</v>
-      </c>
-      <c r="R100" t="s">
-        <v>615</v>
-      </c>
       <c r="S100" t="s">
-        <v>1069</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="101" spans="1:19" ht="30">
@@ -9170,52 +9226,52 @@
         <v>87</v>
       </c>
       <c r="B101" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="D101" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="E101" t="s">
-        <v>1198</v>
+        <v>1180</v>
       </c>
       <c r="F101" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G101" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="I101" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J101" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K101" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="L101" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M101" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="N101" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="O101" t="s">
+        <v>614</v>
+      </c>
+      <c r="P101" t="s">
+        <v>615</v>
+      </c>
+      <c r="Q101" t="s">
         <v>616</v>
       </c>
-      <c r="P101" t="s">
+      <c r="R101" t="s">
         <v>617</v>
       </c>
-      <c r="Q101" t="s">
-        <v>618</v>
-      </c>
-      <c r="R101" t="s">
-        <v>619</v>
-      </c>
       <c r="S101" t="s">
-        <v>1070</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="102" spans="1:19" ht="30">
@@ -9223,52 +9279,52 @@
         <v>88</v>
       </c>
       <c r="B102" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="D102" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="E102" t="s">
-        <v>1198</v>
+        <v>1180</v>
       </c>
       <c r="F102" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="G102" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="I102" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J102" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K102" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="L102" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M102" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="N102" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="O102" t="s">
+        <v>618</v>
+      </c>
+      <c r="P102" t="s">
+        <v>619</v>
+      </c>
+      <c r="Q102" t="s">
         <v>620</v>
       </c>
-      <c r="P102" t="s">
+      <c r="R102" t="s">
         <v>621</v>
       </c>
-      <c r="Q102" t="s">
-        <v>622</v>
-      </c>
-      <c r="R102" t="s">
-        <v>623</v>
-      </c>
       <c r="S102" t="s">
-        <v>1071</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="103" spans="1:19" ht="45">
@@ -9276,52 +9332,52 @@
         <v>89</v>
       </c>
       <c r="B103" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="D103" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="E103" t="s">
-        <v>1199</v>
+        <v>1181</v>
       </c>
       <c r="F103" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="G103" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="I103" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J103" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K103" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="L103" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M103" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="N103" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="O103" t="s">
+        <v>622</v>
+      </c>
+      <c r="P103" t="s">
+        <v>623</v>
+      </c>
+      <c r="Q103" t="s">
         <v>624</v>
       </c>
-      <c r="P103" t="s">
+      <c r="R103" t="s">
         <v>625</v>
       </c>
-      <c r="Q103" t="s">
-        <v>626</v>
-      </c>
-      <c r="R103" t="s">
-        <v>627</v>
-      </c>
       <c r="S103" t="s">
-        <v>1072</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="104" spans="1:19" ht="30">
@@ -9329,52 +9385,52 @@
         <v>90</v>
       </c>
       <c r="B104" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="D104" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="E104" t="s">
-        <v>1199</v>
+        <v>1181</v>
       </c>
       <c r="F104" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G104" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="I104" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J104" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K104" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="L104" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M104" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="N104" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="O104" t="s">
+        <v>626</v>
+      </c>
+      <c r="P104" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q104" t="s">
         <v>628</v>
       </c>
-      <c r="P104" t="s">
+      <c r="R104" t="s">
         <v>629</v>
       </c>
-      <c r="Q104" t="s">
-        <v>630</v>
-      </c>
-      <c r="R104" t="s">
-        <v>631</v>
-      </c>
       <c r="S104" t="s">
-        <v>1073</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="105" spans="1:19" ht="45">
@@ -9382,52 +9438,52 @@
         <v>91</v>
       </c>
       <c r="B105" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="D105" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="E105" t="s">
-        <v>1199</v>
+        <v>1181</v>
       </c>
       <c r="F105" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G105" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="I105" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J105" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K105" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="L105" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M105" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="N105" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="O105" t="s">
+        <v>630</v>
+      </c>
+      <c r="P105" t="s">
+        <v>631</v>
+      </c>
+      <c r="Q105" t="s">
         <v>632</v>
       </c>
-      <c r="P105" t="s">
+      <c r="R105" t="s">
         <v>633</v>
       </c>
-      <c r="Q105" t="s">
-        <v>634</v>
-      </c>
-      <c r="R105" t="s">
-        <v>635</v>
-      </c>
       <c r="S105" t="s">
-        <v>1074</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="106" spans="1:19" ht="30">
@@ -9435,52 +9491,52 @@
         <v>92</v>
       </c>
       <c r="B106" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="D106" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="E106" t="s">
-        <v>1199</v>
+        <v>1181</v>
       </c>
       <c r="F106" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="G106" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="I106" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J106" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K106" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="L106" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M106" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="N106" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="O106" t="s">
+        <v>634</v>
+      </c>
+      <c r="P106" t="s">
+        <v>635</v>
+      </c>
+      <c r="Q106" t="s">
         <v>636</v>
       </c>
-      <c r="P106" t="s">
+      <c r="R106" t="s">
         <v>637</v>
       </c>
-      <c r="Q106" t="s">
-        <v>638</v>
-      </c>
-      <c r="R106" t="s">
-        <v>639</v>
-      </c>
       <c r="S106" t="s">
-        <v>1075</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="107" spans="1:19">
@@ -9488,37 +9544,37 @@
         <v>1</v>
       </c>
       <c r="I107" t="s">
+        <v>82</v>
+      </c>
+      <c r="J107" t="s">
         <v>84</v>
       </c>
-      <c r="J107" t="s">
-        <v>86</v>
-      </c>
       <c r="K107" t="s">
-        <v>969</v>
+        <v>959</v>
       </c>
       <c r="L107" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M107" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="N107" t="s">
-        <v>1108</v>
+        <v>1098</v>
       </c>
       <c r="O107" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="P107" t="s">
-        <v>1109</v>
+        <v>1099</v>
       </c>
       <c r="Q107" t="s">
-        <v>1110</v>
+        <v>1100</v>
       </c>
       <c r="R107" t="s">
-        <v>1111</v>
+        <v>1101</v>
       </c>
       <c r="S107" t="s">
-        <v>1076</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="108" spans="1:19">
@@ -9526,37 +9582,37 @@
         <v>2</v>
       </c>
       <c r="I108" t="s">
+        <v>82</v>
+      </c>
+      <c r="J108" t="s">
         <v>84</v>
       </c>
-      <c r="J108" t="s">
-        <v>86</v>
-      </c>
       <c r="K108" t="s">
-        <v>969</v>
+        <v>959</v>
       </c>
       <c r="L108" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M108" t="s">
-        <v>1091</v>
+        <v>1081</v>
       </c>
       <c r="N108" t="s">
-        <v>1112</v>
+        <v>1102</v>
       </c>
       <c r="O108" t="s">
-        <v>1092</v>
+        <v>1082</v>
       </c>
       <c r="P108" t="s">
-        <v>1113</v>
+        <v>1103</v>
       </c>
       <c r="Q108" t="s">
-        <v>1114</v>
+        <v>1104</v>
       </c>
       <c r="R108" t="s">
-        <v>1115</v>
+        <v>1105</v>
       </c>
       <c r="S108" t="s">
-        <v>1077</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="109" spans="1:19">
@@ -9564,37 +9620,37 @@
         <v>3</v>
       </c>
       <c r="I109" t="s">
+        <v>82</v>
+      </c>
+      <c r="J109" t="s">
         <v>84</v>
       </c>
-      <c r="J109" t="s">
-        <v>86</v>
-      </c>
       <c r="K109" t="s">
-        <v>969</v>
+        <v>959</v>
       </c>
       <c r="L109" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M109" t="s">
-        <v>1093</v>
+        <v>1083</v>
       </c>
       <c r="N109" t="s">
-        <v>1116</v>
+        <v>1106</v>
       </c>
       <c r="O109" t="s">
-        <v>1094</v>
+        <v>1084</v>
       </c>
       <c r="P109" t="s">
-        <v>1117</v>
+        <v>1107</v>
       </c>
       <c r="Q109" t="s">
-        <v>1118</v>
+        <v>1108</v>
       </c>
       <c r="R109" t="s">
-        <v>1119</v>
+        <v>1109</v>
       </c>
       <c r="S109" t="s">
-        <v>1078</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="110" spans="1:19">
@@ -9602,37 +9658,37 @@
         <v>4</v>
       </c>
       <c r="I110" t="s">
+        <v>82</v>
+      </c>
+      <c r="J110" t="s">
         <v>84</v>
       </c>
-      <c r="J110" t="s">
-        <v>86</v>
-      </c>
       <c r="K110" t="s">
-        <v>969</v>
+        <v>959</v>
       </c>
       <c r="L110" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M110" t="s">
-        <v>958</v>
+        <v>953</v>
       </c>
       <c r="N110" t="s">
-        <v>1120</v>
+        <v>1110</v>
       </c>
       <c r="O110" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="P110" t="s">
-        <v>1121</v>
+        <v>1111</v>
       </c>
       <c r="Q110" t="s">
-        <v>1122</v>
+        <v>1112</v>
       </c>
       <c r="R110" t="s">
-        <v>1123</v>
+        <v>1113</v>
       </c>
       <c r="S110" t="s">
-        <v>1079</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="111" spans="1:19">
@@ -9640,37 +9696,37 @@
         <v>5</v>
       </c>
       <c r="I111" t="s">
+        <v>82</v>
+      </c>
+      <c r="J111" t="s">
         <v>84</v>
       </c>
-      <c r="J111" t="s">
-        <v>86</v>
-      </c>
       <c r="K111" t="s">
-        <v>969</v>
+        <v>959</v>
       </c>
       <c r="L111" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M111" t="s">
-        <v>959</v>
+        <v>954</v>
       </c>
       <c r="N111" t="s">
-        <v>1124</v>
+        <v>1114</v>
       </c>
       <c r="O111" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="P111" t="s">
-        <v>1125</v>
+        <v>1115</v>
       </c>
       <c r="Q111" t="s">
-        <v>1126</v>
+        <v>1116</v>
       </c>
       <c r="R111" t="s">
-        <v>1127</v>
+        <v>1117</v>
       </c>
       <c r="S111" t="s">
-        <v>1080</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="112" spans="1:19">
@@ -9678,37 +9734,37 @@
         <v>6</v>
       </c>
       <c r="I112" t="s">
+        <v>82</v>
+      </c>
+      <c r="J112" t="s">
         <v>84</v>
       </c>
-      <c r="J112" t="s">
-        <v>86</v>
-      </c>
       <c r="K112" t="s">
-        <v>969</v>
+        <v>959</v>
       </c>
       <c r="L112" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M112" t="s">
-        <v>960</v>
+        <v>955</v>
       </c>
       <c r="N112" t="s">
-        <v>1128</v>
+        <v>1118</v>
       </c>
       <c r="O112" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="P112" t="s">
-        <v>1129</v>
+        <v>1119</v>
       </c>
       <c r="Q112" t="s">
-        <v>1130</v>
+        <v>1120</v>
       </c>
       <c r="R112" t="s">
-        <v>1131</v>
+        <v>1121</v>
       </c>
       <c r="S112" t="s">
-        <v>1081</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="113" spans="1:19">
@@ -9716,37 +9772,37 @@
         <v>7</v>
       </c>
       <c r="I113" t="s">
+        <v>82</v>
+      </c>
+      <c r="J113" t="s">
         <v>84</v>
       </c>
-      <c r="J113" t="s">
-        <v>86</v>
-      </c>
       <c r="K113" t="s">
-        <v>969</v>
+        <v>959</v>
       </c>
       <c r="L113" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M113" t="s">
-        <v>961</v>
+        <v>956</v>
       </c>
       <c r="N113" t="s">
-        <v>1132</v>
+        <v>1122</v>
       </c>
       <c r="O113" t="s">
-        <v>1095</v>
+        <v>1085</v>
       </c>
       <c r="P113" t="s">
-        <v>1133</v>
+        <v>1123</v>
       </c>
       <c r="Q113" t="s">
-        <v>1134</v>
+        <v>1124</v>
       </c>
       <c r="R113" t="s">
-        <v>1135</v>
+        <v>1125</v>
       </c>
       <c r="S113" t="s">
-        <v>1082</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="114" spans="1:19">
@@ -9754,37 +9810,37 @@
         <v>8</v>
       </c>
       <c r="I114" t="s">
+        <v>82</v>
+      </c>
+      <c r="J114" t="s">
         <v>84</v>
       </c>
-      <c r="J114" t="s">
-        <v>86</v>
-      </c>
       <c r="K114" t="s">
-        <v>969</v>
+        <v>959</v>
       </c>
       <c r="L114" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M114" t="s">
-        <v>1096</v>
+        <v>1086</v>
       </c>
       <c r="N114" t="s">
-        <v>1136</v>
+        <v>1126</v>
       </c>
       <c r="O114" t="s">
-        <v>1097</v>
+        <v>1087</v>
       </c>
       <c r="P114" t="s">
-        <v>1137</v>
+        <v>1127</v>
       </c>
       <c r="Q114" t="s">
-        <v>1138</v>
+        <v>1128</v>
       </c>
       <c r="R114" t="s">
-        <v>1139</v>
+        <v>1129</v>
       </c>
       <c r="S114" t="s">
-        <v>1083</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="115" spans="1:19">
@@ -9792,37 +9848,37 @@
         <v>9</v>
       </c>
       <c r="I115" t="s">
+        <v>82</v>
+      </c>
+      <c r="J115" t="s">
         <v>84</v>
       </c>
-      <c r="J115" t="s">
-        <v>86</v>
-      </c>
       <c r="K115" t="s">
-        <v>969</v>
+        <v>959</v>
       </c>
       <c r="L115" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M115" t="s">
-        <v>963</v>
+        <v>957</v>
       </c>
       <c r="N115" t="s">
-        <v>1140</v>
+        <v>1130</v>
       </c>
       <c r="O115" t="s">
-        <v>1098</v>
+        <v>1088</v>
       </c>
       <c r="P115" t="s">
-        <v>1141</v>
+        <v>1131</v>
       </c>
       <c r="Q115" t="s">
-        <v>1142</v>
+        <v>1132</v>
       </c>
       <c r="R115" t="s">
-        <v>1143</v>
+        <v>1133</v>
       </c>
       <c r="S115" t="s">
-        <v>1084</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="116" spans="1:19">
@@ -9830,37 +9886,37 @@
         <v>10</v>
       </c>
       <c r="I116" t="s">
+        <v>82</v>
+      </c>
+      <c r="J116" t="s">
         <v>84</v>
       </c>
-      <c r="J116" t="s">
-        <v>86</v>
-      </c>
       <c r="K116" t="s">
-        <v>969</v>
+        <v>959</v>
       </c>
       <c r="L116" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M116" t="s">
-        <v>1099</v>
+        <v>1089</v>
       </c>
       <c r="N116" t="s">
-        <v>1144</v>
+        <v>1134</v>
       </c>
       <c r="O116" t="s">
-        <v>1100</v>
+        <v>1090</v>
       </c>
       <c r="P116" t="s">
-        <v>1145</v>
+        <v>1135</v>
       </c>
       <c r="Q116" t="s">
-        <v>1146</v>
+        <v>1136</v>
       </c>
       <c r="R116" t="s">
-        <v>1147</v>
+        <v>1137</v>
       </c>
       <c r="S116" t="s">
-        <v>1085</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="117" spans="1:19">
@@ -9868,37 +9924,37 @@
         <v>11</v>
       </c>
       <c r="I117" t="s">
+        <v>82</v>
+      </c>
+      <c r="J117" t="s">
         <v>84</v>
       </c>
-      <c r="J117" t="s">
-        <v>86</v>
-      </c>
       <c r="K117" t="s">
-        <v>969</v>
+        <v>959</v>
       </c>
       <c r="L117" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M117" t="s">
-        <v>1101</v>
+        <v>1091</v>
       </c>
       <c r="N117" t="s">
-        <v>1148</v>
+        <v>1138</v>
       </c>
       <c r="O117" t="s">
-        <v>1102</v>
+        <v>1092</v>
       </c>
       <c r="P117" t="s">
-        <v>1103</v>
+        <v>1093</v>
       </c>
       <c r="Q117" t="s">
-        <v>1149</v>
+        <v>1139</v>
       </c>
       <c r="R117" t="s">
-        <v>1150</v>
+        <v>1140</v>
       </c>
       <c r="S117" t="s">
-        <v>1086</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="118" spans="1:19">
@@ -9906,37 +9962,37 @@
         <v>12</v>
       </c>
       <c r="I118" t="s">
+        <v>82</v>
+      </c>
+      <c r="J118" t="s">
         <v>84</v>
       </c>
-      <c r="J118" t="s">
-        <v>86</v>
-      </c>
       <c r="K118" t="s">
-        <v>969</v>
+        <v>959</v>
       </c>
       <c r="L118" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M118" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
       <c r="N118" t="s">
-        <v>1151</v>
+        <v>1141</v>
       </c>
       <c r="O118" t="s">
-        <v>1105</v>
+        <v>1095</v>
       </c>
       <c r="P118" t="s">
-        <v>1152</v>
+        <v>1142</v>
       </c>
       <c r="Q118" t="s">
-        <v>1153</v>
+        <v>1143</v>
       </c>
       <c r="R118" t="s">
-        <v>1154</v>
+        <v>1144</v>
       </c>
       <c r="S118" t="s">
-        <v>1087</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="119" spans="1:19">
@@ -9944,37 +10000,37 @@
         <v>13</v>
       </c>
       <c r="I119" t="s">
+        <v>82</v>
+      </c>
+      <c r="J119" t="s">
         <v>84</v>
       </c>
-      <c r="J119" t="s">
-        <v>86</v>
-      </c>
       <c r="K119" t="s">
-        <v>969</v>
+        <v>959</v>
       </c>
       <c r="L119" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M119" t="s">
-        <v>967</v>
+        <v>958</v>
       </c>
       <c r="N119" t="s">
-        <v>1155</v>
+        <v>1145</v>
       </c>
       <c r="O119" t="s">
-        <v>1106</v>
+        <v>1096</v>
       </c>
       <c r="P119" t="s">
-        <v>1156</v>
+        <v>1146</v>
       </c>
       <c r="Q119" t="s">
-        <v>1157</v>
+        <v>1147</v>
       </c>
       <c r="R119" t="s">
-        <v>1158</v>
+        <v>1148</v>
       </c>
       <c r="S119" t="s">
-        <v>1088</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="120" spans="1:19">
@@ -9982,37 +10038,37 @@
         <v>14</v>
       </c>
       <c r="I120" t="s">
+        <v>82</v>
+      </c>
+      <c r="J120" t="s">
         <v>84</v>
       </c>
-      <c r="J120" t="s">
-        <v>86</v>
-      </c>
       <c r="K120" t="s">
-        <v>969</v>
+        <v>959</v>
       </c>
       <c r="L120" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M120" t="s">
-        <v>1107</v>
+        <v>1097</v>
       </c>
       <c r="N120" t="s">
-        <v>1159</v>
+        <v>1149</v>
       </c>
       <c r="O120" t="s">
-        <v>1107</v>
+        <v>1097</v>
       </c>
       <c r="P120" t="s">
-        <v>1167</v>
+        <v>1155</v>
       </c>
       <c r="Q120" t="s">
-        <v>1168</v>
+        <v>1156</v>
       </c>
       <c r="R120" t="s">
-        <v>1169</v>
+        <v>1157</v>
       </c>
       <c r="S120" t="s">
-        <v>1089</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="121" spans="1:19">
@@ -10020,1024 +10076,317 @@
         <v>15</v>
       </c>
       <c r="I121" t="s">
+        <v>82</v>
+      </c>
+      <c r="J121" t="s">
         <v>84</v>
       </c>
-      <c r="J121" t="s">
-        <v>86</v>
-      </c>
       <c r="K121" t="s">
-        <v>969</v>
+        <v>959</v>
       </c>
       <c r="L121" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M121" t="s">
-        <v>1161</v>
+        <v>1150</v>
       </c>
       <c r="N121" t="s">
-        <v>1162</v>
+        <v>1151</v>
       </c>
       <c r="O121" t="s">
-        <v>1161</v>
+        <v>1150</v>
       </c>
       <c r="P121" t="s">
-        <v>1163</v>
+        <v>1152</v>
       </c>
       <c r="Q121" t="s">
-        <v>1164</v>
+        <v>1153</v>
       </c>
       <c r="R121" t="s">
-        <v>1165</v>
+        <v>1154</v>
       </c>
       <c r="S121" t="s">
-        <v>1090</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A9:Q79"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="B74" sqref="B74"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="9" spans="1:8">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="122" spans="1:19">
+      <c r="A122" s="1">
+        <v>1</v>
+      </c>
+      <c r="I122" t="s">
+        <v>82</v>
+      </c>
+      <c r="J122" t="s">
+        <v>1182</v>
+      </c>
+      <c r="K122" t="s">
+        <v>1184</v>
+      </c>
+      <c r="L122" t="s">
+        <v>14</v>
+      </c>
+      <c r="M122" t="s">
+        <v>1183</v>
+      </c>
+      <c r="N122" t="s">
+        <v>1194</v>
+      </c>
+      <c r="O122" t="s">
+        <v>1195</v>
+      </c>
+      <c r="P122" t="s">
+        <v>1196</v>
+      </c>
+      <c r="Q122" t="s">
+        <v>1197</v>
+      </c>
+      <c r="R122" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="123" spans="1:19">
+      <c r="A123" s="1">
+        <v>2</v>
+      </c>
+      <c r="I123" t="s">
+        <v>82</v>
+      </c>
+      <c r="J123" t="s">
+        <v>1182</v>
+      </c>
+      <c r="K123" t="s">
+        <v>1184</v>
+      </c>
+      <c r="L123" t="s">
+        <v>14</v>
+      </c>
+      <c r="M123" t="s">
+        <v>1185</v>
+      </c>
+      <c r="N123" t="s">
+        <v>1199</v>
+      </c>
+      <c r="O123" t="s">
+        <v>1200</v>
+      </c>
+      <c r="P123" t="s">
+        <v>1201</v>
+      </c>
+      <c r="Q123" t="s">
+        <v>1202</v>
+      </c>
+      <c r="R123" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="124" spans="1:19">
+      <c r="A124" s="1">
         <v>3</v>
       </c>
-      <c r="B12" t="s">
+      <c r="I124" t="s">
+        <v>82</v>
+      </c>
+      <c r="J124" t="s">
+        <v>1182</v>
+      </c>
+      <c r="K124" t="s">
+        <v>1186</v>
+      </c>
+      <c r="L124" t="s">
+        <v>14</v>
+      </c>
+      <c r="M124" t="s">
+        <v>1188</v>
+      </c>
+      <c r="N124" t="s">
+        <v>1204</v>
+      </c>
+      <c r="O124" t="s">
+        <v>1205</v>
+      </c>
+      <c r="P124" t="s">
+        <v>1206</v>
+      </c>
+      <c r="Q124" t="s">
+        <v>1207</v>
+      </c>
+      <c r="R124" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="125" spans="1:19">
+      <c r="A125" s="1">
         <v>4</v>
       </c>
-      <c r="C12" t="s">
+      <c r="I125" t="s">
+        <v>82</v>
+      </c>
+      <c r="J125" t="s">
+        <v>1182</v>
+      </c>
+      <c r="K125" t="s">
+        <v>1186</v>
+      </c>
+      <c r="L125" t="s">
+        <v>14</v>
+      </c>
+      <c r="M125" t="s">
+        <v>1187</v>
+      </c>
+      <c r="N125" t="s">
+        <v>1209</v>
+      </c>
+      <c r="O125" t="s">
+        <v>1210</v>
+      </c>
+      <c r="P125" t="s">
+        <v>1211</v>
+      </c>
+      <c r="Q125" t="s">
+        <v>1212</v>
+      </c>
+      <c r="R125" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="126" spans="1:19">
+      <c r="A126" s="1">
         <v>5</v>
       </c>
-      <c r="D12" t="s">
+      <c r="I126" t="s">
+        <v>82</v>
+      </c>
+      <c r="J126" t="s">
+        <v>1182</v>
+      </c>
+      <c r="K126" t="s">
+        <v>1189</v>
+      </c>
+      <c r="L126" t="s">
+        <v>14</v>
+      </c>
+      <c r="M126" t="s">
+        <v>1190</v>
+      </c>
+      <c r="N126" t="s">
+        <v>1214</v>
+      </c>
+      <c r="O126" t="s">
+        <v>1215</v>
+      </c>
+      <c r="P126" t="s">
+        <v>1216</v>
+      </c>
+      <c r="Q126" t="s">
+        <v>1217</v>
+      </c>
+      <c r="R126" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="127" spans="1:19">
+      <c r="A127" s="1">
         <v>6</v>
       </c>
-      <c r="E12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" t="s">
+      <c r="I127" t="s">
+        <v>82</v>
+      </c>
+      <c r="J127" t="s">
+        <v>1182</v>
+      </c>
+      <c r="K127" t="s">
+        <v>1189</v>
+      </c>
+      <c r="L127" t="s">
         <v>14</v>
       </c>
-      <c r="B13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" t="s">
-        <v>35</v>
-      </c>
-      <c r="G13" t="s">
-        <v>36</v>
-      </c>
-      <c r="H13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" t="s">
+      <c r="M127" t="s">
+        <v>1234</v>
+      </c>
+      <c r="N127" t="s">
+        <v>1219</v>
+      </c>
+      <c r="O127" t="s">
+        <v>1220</v>
+      </c>
+      <c r="P127" t="s">
+        <v>1221</v>
+      </c>
+      <c r="Q127" t="s">
+        <v>1222</v>
+      </c>
+      <c r="R127" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="128" spans="1:19">
+      <c r="A128" s="1">
+        <v>7</v>
+      </c>
+      <c r="I128" t="s">
+        <v>82</v>
+      </c>
+      <c r="J128" t="s">
+        <v>1182</v>
+      </c>
+      <c r="K128" t="s">
+        <v>1191</v>
+      </c>
+      <c r="L128" t="s">
         <v>14</v>
       </c>
-      <c r="B14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" t="s">
-        <v>38</v>
-      </c>
-      <c r="E14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F14" t="s">
-        <v>39</v>
-      </c>
-      <c r="G14" t="s">
-        <v>40</v>
-      </c>
-      <c r="H14" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" t="s">
+      <c r="M128" t="s">
+        <v>1192</v>
+      </c>
+      <c r="N128" t="s">
+        <v>1224</v>
+      </c>
+      <c r="O128" t="s">
+        <v>1225</v>
+      </c>
+      <c r="P128" t="s">
+        <v>1226</v>
+      </c>
+      <c r="Q128" t="s">
+        <v>1227</v>
+      </c>
+      <c r="R128" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="129" spans="1:18">
+      <c r="A129" s="1">
+        <v>8</v>
+      </c>
+      <c r="I129" t="s">
+        <v>82</v>
+      </c>
+      <c r="J129" t="s">
+        <v>1182</v>
+      </c>
+      <c r="K129" t="s">
+        <v>1191</v>
+      </c>
+      <c r="L129" t="s">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" t="s">
-        <v>31</v>
-      </c>
-      <c r="E15" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" t="s">
-        <v>42</v>
-      </c>
-      <c r="H15" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" t="s">
-        <v>44</v>
-      </c>
-      <c r="E16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F16" t="s">
-        <v>45</v>
-      </c>
-      <c r="G16" t="s">
-        <v>46</v>
-      </c>
-      <c r="H16" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
-      <c r="A17" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" t="s">
-        <v>48</v>
-      </c>
-      <c r="E17" t="s">
-        <v>19</v>
-      </c>
-      <c r="F17" t="s">
-        <v>49</v>
-      </c>
-      <c r="G17" t="s">
-        <v>50</v>
-      </c>
-      <c r="H17" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
-      <c r="A18" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18" t="s">
-        <v>52</v>
-      </c>
-      <c r="E18" t="s">
-        <v>23</v>
-      </c>
-      <c r="F18" t="s">
-        <v>32</v>
-      </c>
-      <c r="G18" t="s">
-        <v>53</v>
-      </c>
-      <c r="H18" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
-      <c r="A19" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" t="s">
-        <v>55</v>
-      </c>
-      <c r="E19" t="s">
-        <v>24</v>
-      </c>
-      <c r="F19" t="s">
-        <v>56</v>
-      </c>
-      <c r="G19" t="s">
-        <v>57</v>
-      </c>
-      <c r="H19" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
-      <c r="A20" t="s">
-        <v>14</v>
-      </c>
-      <c r="B20" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" t="s">
-        <v>59</v>
-      </c>
-      <c r="E20" t="s">
-        <v>25</v>
-      </c>
-      <c r="F20" t="s">
-        <v>60</v>
-      </c>
-      <c r="G20" t="s">
-        <v>61</v>
-      </c>
-      <c r="H20" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="A21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B21" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
-        <v>63</v>
-      </c>
-      <c r="E21" t="s">
-        <v>26</v>
-      </c>
-      <c r="F21" t="s">
-        <v>64</v>
-      </c>
-      <c r="G21" t="s">
-        <v>65</v>
-      </c>
-      <c r="H21" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
-      <c r="A22" t="s">
-        <v>14</v>
-      </c>
-      <c r="B22" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" t="s">
-        <v>67</v>
-      </c>
-      <c r="E22" t="s">
-        <v>27</v>
-      </c>
-      <c r="F22" t="s">
-        <v>68</v>
-      </c>
-      <c r="G22" t="s">
-        <v>69</v>
-      </c>
-      <c r="H22" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
-      <c r="A23" t="s">
-        <v>14</v>
-      </c>
-      <c r="B23" t="s">
-        <v>15</v>
-      </c>
-      <c r="C23" t="s">
-        <v>28</v>
-      </c>
-      <c r="D23" t="s">
-        <v>33</v>
-      </c>
-      <c r="E23" t="s">
-        <v>28</v>
-      </c>
-      <c r="F23" t="s">
-        <v>71</v>
-      </c>
-      <c r="G23" t="s">
-        <v>72</v>
-      </c>
-      <c r="H23" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
-      <c r="A24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B24" t="s">
-        <v>15</v>
-      </c>
-      <c r="C24" t="s">
-        <v>29</v>
-      </c>
-      <c r="D24" t="s">
-        <v>74</v>
-      </c>
-      <c r="E24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F24" t="s">
-        <v>75</v>
-      </c>
-      <c r="G24" t="s">
-        <v>76</v>
-      </c>
-      <c r="H24" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="A25" t="s">
-        <v>14</v>
-      </c>
-      <c r="B25" t="s">
-        <v>15</v>
-      </c>
-      <c r="C25" t="s">
-        <v>30</v>
-      </c>
-      <c r="D25" t="s">
-        <v>78</v>
-      </c>
-      <c r="E25" t="s">
-        <v>30</v>
-      </c>
-      <c r="F25" t="s">
-        <v>79</v>
-      </c>
-      <c r="G25" t="s">
-        <v>80</v>
-      </c>
-      <c r="H25" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
-      <c r="A28" t="s">
-        <v>955</v>
-      </c>
-      <c r="D28" t="s">
-        <v>956</v>
-      </c>
-      <c r="E28" t="s">
-        <v>957</v>
-      </c>
-      <c r="F28" t="s">
-        <v>958</v>
-      </c>
-      <c r="G28" t="s">
-        <v>959</v>
-      </c>
-      <c r="H28" t="s">
-        <v>960</v>
-      </c>
-      <c r="I28" t="s">
-        <v>961</v>
-      </c>
-      <c r="J28" t="s">
-        <v>962</v>
-      </c>
-      <c r="K28" t="s">
-        <v>963</v>
-      </c>
-      <c r="L28" t="s">
-        <v>964</v>
-      </c>
-      <c r="M28" t="s">
-        <v>965</v>
-      </c>
-      <c r="N28" t="s">
-        <v>966</v>
-      </c>
-      <c r="O28" t="s">
-        <v>967</v>
-      </c>
-      <c r="P28" t="s">
-        <v>968</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
-      <c r="A30" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="A31" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
-      <c r="A32" t="s">
-        <v>957</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" t="s">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" t="s">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" t="s">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" t="s">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" t="s">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="A41" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="A42" t="s">
-        <v>967</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="A43" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="A47" t="s">
-        <v>3</v>
-      </c>
-      <c r="B47" t="s">
-        <v>4</v>
-      </c>
-      <c r="C47" t="s">
-        <v>5</v>
-      </c>
-      <c r="D47" t="s">
-        <v>6</v>
-      </c>
-      <c r="E47" t="s">
-        <v>10</v>
-      </c>
-      <c r="F47" t="s">
-        <v>11</v>
-      </c>
-      <c r="G47" t="s">
-        <v>12</v>
-      </c>
-      <c r="H47" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="A48" t="s">
-        <v>969</v>
-      </c>
-      <c r="B48" t="s">
-        <v>15</v>
-      </c>
-      <c r="C48" t="s">
-        <v>1166</v>
-      </c>
-      <c r="D48" t="s">
-        <v>1159</v>
-      </c>
-      <c r="E48" t="s">
-        <v>1107</v>
-      </c>
-      <c r="F48" t="s">
-        <v>1167</v>
-      </c>
-      <c r="G48" t="s">
-        <v>1168</v>
-      </c>
-      <c r="H48" t="s">
-        <v>1169</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
-      <c r="A49" t="s">
-        <v>969</v>
-      </c>
-      <c r="B49" t="s">
-        <v>15</v>
-      </c>
-      <c r="C49" t="s">
-        <v>952</v>
-      </c>
-      <c r="D49" t="s">
-        <v>1170</v>
-      </c>
-      <c r="E49" t="s">
-        <v>1161</v>
-      </c>
-      <c r="F49" t="s">
-        <v>1171</v>
-      </c>
-      <c r="G49" t="s">
-        <v>1172</v>
-      </c>
-      <c r="H49" t="s">
-        <v>1173</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
-      <c r="A50" t="s">
-        <v>969</v>
-      </c>
-      <c r="B50" t="s">
-        <v>15</v>
-      </c>
-      <c r="C50" t="s">
-        <v>1093</v>
-      </c>
-      <c r="D50" t="s">
-        <v>1116</v>
-      </c>
-      <c r="E50" t="s">
-        <v>1094</v>
-      </c>
-      <c r="F50" t="s">
-        <v>1117</v>
-      </c>
-      <c r="G50" t="s">
-        <v>1118</v>
-      </c>
-      <c r="H50" t="s">
-        <v>1119</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
-      <c r="A51" t="s">
-        <v>969</v>
-      </c>
-      <c r="B51" t="s">
-        <v>15</v>
-      </c>
-      <c r="C51" t="s">
-        <v>958</v>
-      </c>
-      <c r="D51" t="s">
-        <v>1120</v>
-      </c>
-      <c r="E51" t="s">
-        <v>951</v>
-      </c>
-      <c r="F51" t="s">
-        <v>1121</v>
-      </c>
-      <c r="G51" t="s">
-        <v>1122</v>
-      </c>
-      <c r="H51" t="s">
-        <v>1123</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
-      <c r="A52" t="s">
-        <v>969</v>
-      </c>
-      <c r="B52" t="s">
-        <v>15</v>
-      </c>
-      <c r="C52" t="s">
-        <v>959</v>
-      </c>
-      <c r="D52" t="s">
-        <v>1124</v>
-      </c>
-      <c r="E52" t="s">
-        <v>953</v>
-      </c>
-      <c r="F52" t="s">
-        <v>1125</v>
-      </c>
-      <c r="G52" t="s">
-        <v>1126</v>
-      </c>
-      <c r="H52" t="s">
-        <v>1127</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
-      <c r="A53" t="s">
-        <v>969</v>
-      </c>
-      <c r="B53" t="s">
-        <v>15</v>
-      </c>
-      <c r="C53" t="s">
-        <v>960</v>
-      </c>
-      <c r="D53" t="s">
-        <v>1128</v>
-      </c>
-      <c r="E53" t="s">
-        <v>954</v>
-      </c>
-      <c r="F53" t="s">
-        <v>1129</v>
-      </c>
-      <c r="G53" t="s">
-        <v>1130</v>
-      </c>
-      <c r="H53" t="s">
-        <v>1131</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
-      <c r="A54" t="s">
-        <v>969</v>
-      </c>
-      <c r="B54" t="s">
-        <v>15</v>
-      </c>
-      <c r="C54" t="s">
-        <v>961</v>
-      </c>
-      <c r="D54" t="s">
-        <v>1132</v>
-      </c>
-      <c r="E54" t="s">
-        <v>1095</v>
-      </c>
-      <c r="F54" t="s">
-        <v>1133</v>
-      </c>
-      <c r="G54" t="s">
-        <v>1134</v>
-      </c>
-      <c r="H54" t="s">
-        <v>1135</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
-      <c r="A55" t="s">
-        <v>969</v>
-      </c>
-      <c r="B55" t="s">
-        <v>15</v>
-      </c>
-      <c r="C55" t="s">
-        <v>1096</v>
-      </c>
-      <c r="D55" t="s">
-        <v>1136</v>
-      </c>
-      <c r="E55" t="s">
-        <v>1097</v>
-      </c>
-      <c r="F55" t="s">
-        <v>1137</v>
-      </c>
-      <c r="G55" t="s">
-        <v>1138</v>
-      </c>
-      <c r="H55" t="s">
-        <v>1139</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
-      <c r="A56" t="s">
-        <v>969</v>
-      </c>
-      <c r="B56" t="s">
-        <v>15</v>
-      </c>
-      <c r="C56" t="s">
-        <v>963</v>
-      </c>
-      <c r="D56" t="s">
-        <v>1140</v>
-      </c>
-      <c r="E56" t="s">
-        <v>1098</v>
-      </c>
-      <c r="F56" t="s">
-        <v>1141</v>
-      </c>
-      <c r="G56" t="s">
-        <v>1142</v>
-      </c>
-      <c r="H56" t="s">
-        <v>1143</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
-      <c r="A57" t="s">
-        <v>969</v>
-      </c>
-      <c r="B57" t="s">
-        <v>15</v>
-      </c>
-      <c r="C57" t="s">
-        <v>1099</v>
-      </c>
-      <c r="D57" t="s">
-        <v>1144</v>
-      </c>
-      <c r="E57" t="s">
-        <v>1100</v>
-      </c>
-      <c r="F57" t="s">
-        <v>1145</v>
-      </c>
-      <c r="G57" t="s">
-        <v>1146</v>
-      </c>
-      <c r="H57" t="s">
-        <v>1147</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
-      <c r="A58" t="s">
-        <v>969</v>
-      </c>
-      <c r="B58" t="s">
-        <v>15</v>
-      </c>
-      <c r="C58" t="s">
-        <v>1101</v>
-      </c>
-      <c r="D58" t="s">
-        <v>1148</v>
-      </c>
-      <c r="E58" t="s">
-        <v>1102</v>
-      </c>
-      <c r="F58" t="s">
-        <v>1103</v>
-      </c>
-      <c r="G58" t="s">
-        <v>1149</v>
-      </c>
-      <c r="H58" t="s">
-        <v>1150</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
-      <c r="A59" t="s">
-        <v>969</v>
-      </c>
-      <c r="B59" t="s">
-        <v>15</v>
-      </c>
-      <c r="C59" t="s">
-        <v>1104</v>
-      </c>
-      <c r="D59" t="s">
-        <v>1151</v>
-      </c>
-      <c r="E59" t="s">
-        <v>1105</v>
-      </c>
-      <c r="F59" t="s">
-        <v>1152</v>
-      </c>
-      <c r="G59" t="s">
-        <v>1153</v>
-      </c>
-      <c r="H59" t="s">
-        <v>1154</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
-      <c r="A60" t="s">
-        <v>969</v>
-      </c>
-      <c r="B60" t="s">
-        <v>15</v>
-      </c>
-      <c r="C60" t="s">
-        <v>967</v>
-      </c>
-      <c r="D60" t="s">
-        <v>1155</v>
-      </c>
-      <c r="E60" t="s">
-        <v>1106</v>
-      </c>
-      <c r="F60" t="s">
-        <v>1156</v>
-      </c>
-      <c r="G60" t="s">
-        <v>1157</v>
-      </c>
-      <c r="H60" t="s">
-        <v>1158</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
-      <c r="A61" t="s">
-        <v>969</v>
-      </c>
-      <c r="B61" t="s">
-        <v>15</v>
-      </c>
-      <c r="C61" t="s">
-        <v>1107</v>
-      </c>
-      <c r="D61" t="s">
-        <v>1159</v>
-      </c>
-      <c r="E61" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
-      <c r="A63" t="s">
-        <v>1175</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
-      <c r="A64" t="s">
-        <v>1174</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" t="s">
-        <v>1206</v>
-      </c>
-      <c r="B67" t="s">
-        <v>1210</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" t="s">
-        <v>1206</v>
-      </c>
-      <c r="B68" t="s">
-        <v>1209</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="B69" t="s">
-        <v>1207</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="B70" t="s">
-        <v>1211</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="B71" t="s">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="B72" t="s">
-        <v>1212</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="B73" t="s">
-        <v>1213</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74" t="s">
-        <v>1215</v>
-      </c>
-      <c r="B74" t="s">
-        <v>1214</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75" t="s">
-        <v>1215</v>
-      </c>
-      <c r="B75" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="A76" t="s">
-        <v>1208</v>
-      </c>
-      <c r="B76" t="s">
-        <v>1202</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
-      <c r="A77" t="s">
-        <v>1208</v>
-      </c>
-      <c r="B77" t="s">
-        <v>1203</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
-      <c r="A78" t="s">
-        <v>1208</v>
-      </c>
-      <c r="B78" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
-      <c r="A79" t="s">
-        <v>1208</v>
-      </c>
-      <c r="B79" t="s">
-        <v>1205</v>
+      <c r="M129" t="s">
+        <v>1193</v>
+      </c>
+      <c r="N129" t="s">
+        <v>1229</v>
+      </c>
+      <c r="O129" t="s">
+        <v>1230</v>
+      </c>
+      <c r="P129" t="s">
+        <v>1231</v>
+      </c>
+      <c r="Q129" t="s">
+        <v>1232</v>
+      </c>
+      <c r="R129" t="s">
+        <v>1233</v>
       </c>
     </row>
   </sheetData>

--- a/public/import.xlsx
+++ b/public/import.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1118" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="363">
   <si>
     <t>STT</t>
   </si>
@@ -1024,100 +1024,88 @@
     <t>Làm ơn đặt nó vào tủ bếp.</t>
   </si>
   <si>
-    <t>Unit 2</t>
-  </si>
-  <si>
-    <t>Birth</t>
-  </si>
-  <si>
-    <t>Marriage</t>
-  </si>
-  <si>
-    <t>Death</t>
-  </si>
-  <si>
-    <t>Expressions</t>
-  </si>
-  <si>
-    <t>Unit 5</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Age</t>
-  </si>
-  <si>
-    <t>Unit 6</t>
-  </si>
-  <si>
-    <t>General</t>
-  </si>
-  <si>
-    <t>Common illnesses</t>
-  </si>
-  <si>
-    <t>Chronic conditions</t>
-  </si>
-  <si>
-    <t>Serious illness</t>
-  </si>
-  <si>
-    <t>Tropical illness</t>
-  </si>
-  <si>
-    <t>Unit 7</t>
-  </si>
-  <si>
-    <t>Like/Dislike</t>
-  </si>
-  <si>
-    <t>Feelings</t>
-  </si>
-  <si>
-    <t>Hope/Prefer/Want</t>
-  </si>
-  <si>
-    <t>Unit 8</t>
-  </si>
-  <si>
-    <t>Greetings &amp; Wishes</t>
-  </si>
-  <si>
-    <t>Unit 9</t>
-  </si>
-  <si>
-    <t>Useful Expressions</t>
-  </si>
-  <si>
-    <t>Unit 10</t>
-  </si>
-  <si>
-    <t>Everyday food</t>
-  </si>
-  <si>
-    <t>Fast food</t>
-  </si>
-  <si>
-    <t>Fruit and vegetables</t>
-  </si>
-  <si>
-    <t>Drinks</t>
-  </si>
-  <si>
-    <t>Unit 11</t>
-  </si>
-  <si>
-    <t>Kitchen layout</t>
-  </si>
-  <si>
-    <t>Kitchen tools</t>
-  </si>
-  <si>
-    <t>Eating utensils</t>
-  </si>
-  <si>
     <t>Vocabulary in use_Elementary</t>
+  </si>
+  <si>
+    <t>Unit 2_Birth</t>
+  </si>
+  <si>
+    <t>Unit 2_Marriage</t>
+  </si>
+  <si>
+    <t>Unit 2_Death</t>
+  </si>
+  <si>
+    <t>Unit 2_Expressions</t>
+  </si>
+  <si>
+    <t>Unit 5_Description</t>
+  </si>
+  <si>
+    <t>Unit 5_Age</t>
+  </si>
+  <si>
+    <t>Unit 5_Expressions</t>
+  </si>
+  <si>
+    <t>Unit 6_General</t>
+  </si>
+  <si>
+    <t>Unit 6_Common illnesses</t>
+  </si>
+  <si>
+    <t>Unit 6_Chronic conditions</t>
+  </si>
+  <si>
+    <t>Unit 6_Serious illness</t>
+  </si>
+  <si>
+    <t>Unit 6_Tropical illness</t>
+  </si>
+  <si>
+    <t>Unit 6_Expressions</t>
+  </si>
+  <si>
+    <t>Unit 7_Like/Dislike</t>
+  </si>
+  <si>
+    <t>Unit 7_Feelings</t>
+  </si>
+  <si>
+    <t>Unit 7_Hope/Prefer/Want</t>
+  </si>
+  <si>
+    <t>Unit 7_Expressions</t>
+  </si>
+  <si>
+    <t>Unit 8_Greetings &amp; Wishes</t>
+  </si>
+  <si>
+    <t>Unit 9_Useful Expressions</t>
+  </si>
+  <si>
+    <t>Unit 10_Everyday food</t>
+  </si>
+  <si>
+    <t>Unit 10_Fast food</t>
+  </si>
+  <si>
+    <t>Unit 10_Fruit and vegetables</t>
+  </si>
+  <si>
+    <t>Unit 10_Drinks</t>
+  </si>
+  <si>
+    <t>Unit 11_Kitchen layout</t>
+  </si>
+  <si>
+    <t>Unit 11_Kitchen tools</t>
+  </si>
+  <si>
+    <t>Unit 11_Eating utensils</t>
+  </si>
+  <si>
+    <t>Unit 11_Expressions</t>
   </si>
 </sst>
 </file>
@@ -1164,13 +1152,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1479,22 +1473,17 @@
       <pane xSplit="7" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2:A158"/>
+      <selection pane="bottomRight" activeCell="K2" sqref="K2:K158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
-    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="6.140625" customWidth="1"/>
     <col min="8" max="8" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" customWidth="1"/>
+    <col min="9" max="9" width="7.7109375" customWidth="1"/>
     <col min="10" max="10" width="13.5703125" customWidth="1"/>
-    <col min="11" max="11" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.85546875" customWidth="1"/>
+    <col min="11" max="11" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5703125" customWidth="1"/>
     <col min="13" max="13" width="37.140625" customWidth="1"/>
     <col min="14" max="14" width="31.5703125" customWidth="1"/>
     <col min="19" max="19" width="17.7109375" bestFit="1" customWidth="1"/>
@@ -1503,62 +1492,62 @@
     <col min="22" max="22" width="31.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:19" s="3" customFormat="1" ht="165">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="3" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1566,17 +1555,14 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
+        <v>335</v>
+      </c>
+      <c r="J2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" t="s">
         <v>336</v>
-      </c>
-      <c r="I2" t="s">
-        <v>366</v>
-      </c>
-      <c r="J2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" t="s">
-        <v>335</v>
       </c>
       <c r="L2" t="s">
         <v>17</v>
@@ -1592,17 +1578,14 @@
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
+        <v>335</v>
+      </c>
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" t="s">
         <v>336</v>
-      </c>
-      <c r="I3" t="s">
-        <v>366</v>
-      </c>
-      <c r="J3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3" t="s">
-        <v>335</v>
       </c>
       <c r="L3" t="s">
         <v>17</v>
@@ -1618,17 +1601,14 @@
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
+        <v>335</v>
+      </c>
+      <c r="J4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" t="s">
         <v>336</v>
-      </c>
-      <c r="I4" t="s">
-        <v>366</v>
-      </c>
-      <c r="J4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K4" t="s">
-        <v>335</v>
       </c>
       <c r="L4" t="s">
         <v>17</v>
@@ -1644,17 +1624,14 @@
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
+        <v>335</v>
+      </c>
+      <c r="J5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" t="s">
         <v>336</v>
-      </c>
-      <c r="I5" t="s">
-        <v>366</v>
-      </c>
-      <c r="J5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K5" t="s">
-        <v>335</v>
       </c>
       <c r="L5" t="s">
         <v>17</v>
@@ -1670,17 +1647,14 @@
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
+        <v>335</v>
+      </c>
+      <c r="J6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6" t="s">
         <v>336</v>
-      </c>
-      <c r="I6" t="s">
-        <v>366</v>
-      </c>
-      <c r="J6" t="s">
-        <v>18</v>
-      </c>
-      <c r="K6" t="s">
-        <v>335</v>
       </c>
       <c r="L6" t="s">
         <v>17</v>
@@ -1696,17 +1670,14 @@
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
+        <v>335</v>
+      </c>
+      <c r="J7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7" t="s">
         <v>337</v>
-      </c>
-      <c r="I7" t="s">
-        <v>366</v>
-      </c>
-      <c r="J7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K7" t="s">
-        <v>335</v>
       </c>
       <c r="L7" t="s">
         <v>17</v>
@@ -1722,17 +1693,14 @@
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
+        <v>335</v>
+      </c>
+      <c r="J8" t="s">
+        <v>18</v>
+      </c>
+      <c r="K8" t="s">
         <v>337</v>
-      </c>
-      <c r="I8" t="s">
-        <v>366</v>
-      </c>
-      <c r="J8" t="s">
-        <v>18</v>
-      </c>
-      <c r="K8" t="s">
-        <v>335</v>
       </c>
       <c r="L8" t="s">
         <v>17</v>
@@ -1748,17 +1716,14 @@
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
+        <v>335</v>
+      </c>
+      <c r="J9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K9" t="s">
         <v>337</v>
-      </c>
-      <c r="I9" t="s">
-        <v>366</v>
-      </c>
-      <c r="J9" t="s">
-        <v>18</v>
-      </c>
-      <c r="K9" t="s">
-        <v>335</v>
       </c>
       <c r="L9" t="s">
         <v>17</v>
@@ -1774,17 +1739,14 @@
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
+        <v>335</v>
+      </c>
+      <c r="J10" t="s">
+        <v>18</v>
+      </c>
+      <c r="K10" t="s">
         <v>337</v>
-      </c>
-      <c r="I10" t="s">
-        <v>366</v>
-      </c>
-      <c r="J10" t="s">
-        <v>18</v>
-      </c>
-      <c r="K10" t="s">
-        <v>335</v>
       </c>
       <c r="L10" t="s">
         <v>17</v>
@@ -1800,17 +1762,14 @@
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
+        <v>335</v>
+      </c>
+      <c r="J11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K11" t="s">
         <v>337</v>
-      </c>
-      <c r="I11" t="s">
-        <v>366</v>
-      </c>
-      <c r="J11" t="s">
-        <v>18</v>
-      </c>
-      <c r="K11" t="s">
-        <v>335</v>
       </c>
       <c r="L11" t="s">
         <v>17</v>
@@ -1826,17 +1785,14 @@
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
+        <v>335</v>
+      </c>
+      <c r="J12" t="s">
+        <v>18</v>
+      </c>
+      <c r="K12" t="s">
         <v>337</v>
-      </c>
-      <c r="I12" t="s">
-        <v>366</v>
-      </c>
-      <c r="J12" t="s">
-        <v>18</v>
-      </c>
-      <c r="K12" t="s">
-        <v>335</v>
       </c>
       <c r="L12" t="s">
         <v>17</v>
@@ -1852,17 +1808,14 @@
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
+        <v>335</v>
+      </c>
+      <c r="J13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K13" t="s">
         <v>337</v>
-      </c>
-      <c r="I13" t="s">
-        <v>366</v>
-      </c>
-      <c r="J13" t="s">
-        <v>18</v>
-      </c>
-      <c r="K13" t="s">
-        <v>335</v>
       </c>
       <c r="L13" t="s">
         <v>17</v>
@@ -1878,17 +1831,14 @@
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
+        <v>335</v>
+      </c>
+      <c r="J14" t="s">
+        <v>18</v>
+      </c>
+      <c r="K14" t="s">
         <v>337</v>
-      </c>
-      <c r="I14" t="s">
-        <v>366</v>
-      </c>
-      <c r="J14" t="s">
-        <v>18</v>
-      </c>
-      <c r="K14" t="s">
-        <v>335</v>
       </c>
       <c r="L14" t="s">
         <v>17</v>
@@ -1904,17 +1854,14 @@
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
+        <v>335</v>
+      </c>
+      <c r="J15" t="s">
+        <v>18</v>
+      </c>
+      <c r="K15" t="s">
         <v>338</v>
-      </c>
-      <c r="I15" t="s">
-        <v>366</v>
-      </c>
-      <c r="J15" t="s">
-        <v>18</v>
-      </c>
-      <c r="K15" t="s">
-        <v>335</v>
       </c>
       <c r="L15" t="s">
         <v>17</v>
@@ -1930,17 +1877,14 @@
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
+        <v>335</v>
+      </c>
+      <c r="J16" t="s">
+        <v>18</v>
+      </c>
+      <c r="K16" t="s">
         <v>338</v>
-      </c>
-      <c r="I16" t="s">
-        <v>366</v>
-      </c>
-      <c r="J16" t="s">
-        <v>18</v>
-      </c>
-      <c r="K16" t="s">
-        <v>335</v>
       </c>
       <c r="L16" t="s">
         <v>17</v>
@@ -1956,17 +1900,14 @@
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
+        <v>335</v>
+      </c>
+      <c r="J17" t="s">
+        <v>18</v>
+      </c>
+      <c r="K17" t="s">
         <v>338</v>
-      </c>
-      <c r="I17" t="s">
-        <v>366</v>
-      </c>
-      <c r="J17" t="s">
-        <v>18</v>
-      </c>
-      <c r="K17" t="s">
-        <v>335</v>
       </c>
       <c r="L17" t="s">
         <v>17</v>
@@ -1982,17 +1923,14 @@
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
+        <v>335</v>
+      </c>
+      <c r="J18" t="s">
+        <v>18</v>
+      </c>
+      <c r="K18" t="s">
         <v>339</v>
-      </c>
-      <c r="I18" t="s">
-        <v>366</v>
-      </c>
-      <c r="J18" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" t="s">
-        <v>335</v>
       </c>
       <c r="L18" t="s">
         <v>17</v>
@@ -2008,17 +1946,14 @@
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
+        <v>335</v>
+      </c>
+      <c r="J19" t="s">
+        <v>18</v>
+      </c>
+      <c r="K19" t="s">
         <v>339</v>
-      </c>
-      <c r="I19" t="s">
-        <v>366</v>
-      </c>
-      <c r="J19" t="s">
-        <v>18</v>
-      </c>
-      <c r="K19" t="s">
-        <v>335</v>
       </c>
       <c r="L19" t="s">
         <v>17</v>
@@ -2034,11 +1969,8 @@
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="H20" t="s">
-        <v>341</v>
-      </c>
       <c r="I20" t="s">
-        <v>366</v>
+        <v>335</v>
       </c>
       <c r="J20" t="s">
         <v>18</v>
@@ -2060,11 +1992,8 @@
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="H21" t="s">
-        <v>341</v>
-      </c>
       <c r="I21" t="s">
-        <v>366</v>
+        <v>335</v>
       </c>
       <c r="J21" t="s">
         <v>18</v>
@@ -2086,11 +2015,8 @@
       <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="H22" t="s">
-        <v>341</v>
-      </c>
       <c r="I22" t="s">
-        <v>366</v>
+        <v>335</v>
       </c>
       <c r="J22" t="s">
         <v>18</v>
@@ -2112,11 +2038,8 @@
       <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="H23" t="s">
-        <v>341</v>
-      </c>
       <c r="I23" t="s">
-        <v>366</v>
+        <v>335</v>
       </c>
       <c r="J23" t="s">
         <v>18</v>
@@ -2138,11 +2061,8 @@
       <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="H24" t="s">
-        <v>341</v>
-      </c>
       <c r="I24" t="s">
-        <v>366</v>
+        <v>335</v>
       </c>
       <c r="J24" t="s">
         <v>18</v>
@@ -2164,11 +2084,8 @@
       <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="H25" t="s">
-        <v>341</v>
-      </c>
       <c r="I25" t="s">
-        <v>366</v>
+        <v>335</v>
       </c>
       <c r="J25" t="s">
         <v>18</v>
@@ -2190,11 +2107,8 @@
       <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="H26" t="s">
-        <v>341</v>
-      </c>
       <c r="I26" t="s">
-        <v>366</v>
+        <v>335</v>
       </c>
       <c r="J26" t="s">
         <v>18</v>
@@ -2216,11 +2130,8 @@
       <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="H27" t="s">
-        <v>341</v>
-      </c>
       <c r="I27" t="s">
-        <v>366</v>
+        <v>335</v>
       </c>
       <c r="J27" t="s">
         <v>18</v>
@@ -2242,11 +2153,8 @@
       <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="H28" t="s">
-        <v>341</v>
-      </c>
       <c r="I28" t="s">
-        <v>366</v>
+        <v>335</v>
       </c>
       <c r="J28" t="s">
         <v>18</v>
@@ -2268,11 +2176,8 @@
       <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="H29" t="s">
-        <v>341</v>
-      </c>
       <c r="I29" t="s">
-        <v>366</v>
+        <v>335</v>
       </c>
       <c r="J29" t="s">
         <v>18</v>
@@ -2294,11 +2199,8 @@
       <c r="A30" s="1">
         <v>29</v>
       </c>
-      <c r="H30" t="s">
-        <v>341</v>
-      </c>
       <c r="I30" t="s">
-        <v>366</v>
+        <v>335</v>
       </c>
       <c r="J30" t="s">
         <v>18</v>
@@ -2320,11 +2222,8 @@
       <c r="A31" s="1">
         <v>30</v>
       </c>
-      <c r="H31" t="s">
-        <v>341</v>
-      </c>
       <c r="I31" t="s">
-        <v>366</v>
+        <v>335</v>
       </c>
       <c r="J31" t="s">
         <v>18</v>
@@ -2346,11 +2245,8 @@
       <c r="A32" s="1">
         <v>31</v>
       </c>
-      <c r="H32" t="s">
-        <v>341</v>
-      </c>
       <c r="I32" t="s">
-        <v>366</v>
+        <v>335</v>
       </c>
       <c r="J32" t="s">
         <v>18</v>
@@ -2372,17 +2268,14 @@
       <c r="A33" s="1">
         <v>32</v>
       </c>
-      <c r="H33" t="s">
-        <v>342</v>
-      </c>
       <c r="I33" t="s">
-        <v>366</v>
+        <v>335</v>
       </c>
       <c r="J33" t="s">
         <v>18</v>
       </c>
       <c r="K33" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="L33" t="s">
         <v>17</v>
@@ -2398,17 +2291,14 @@
       <c r="A34" s="1">
         <v>33</v>
       </c>
-      <c r="H34" t="s">
-        <v>342</v>
-      </c>
       <c r="I34" t="s">
-        <v>366</v>
+        <v>335</v>
       </c>
       <c r="J34" t="s">
         <v>18</v>
       </c>
       <c r="K34" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="L34" t="s">
         <v>17</v>
@@ -2424,17 +2314,14 @@
       <c r="A35" s="1">
         <v>34</v>
       </c>
-      <c r="H35" t="s">
-        <v>342</v>
-      </c>
       <c r="I35" t="s">
-        <v>366</v>
+        <v>335</v>
       </c>
       <c r="J35" t="s">
         <v>18</v>
       </c>
       <c r="K35" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="L35" t="s">
         <v>17</v>
@@ -2450,17 +2337,14 @@
       <c r="A36" s="1">
         <v>35</v>
       </c>
-      <c r="H36" t="s">
-        <v>339</v>
-      </c>
       <c r="I36" t="s">
-        <v>366</v>
+        <v>335</v>
       </c>
       <c r="J36" t="s">
         <v>18</v>
       </c>
       <c r="K36" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="L36" t="s">
         <v>17</v>
@@ -2476,17 +2360,14 @@
       <c r="A37" s="1">
         <v>36</v>
       </c>
-      <c r="H37" t="s">
-        <v>339</v>
-      </c>
       <c r="I37" t="s">
-        <v>366</v>
+        <v>335</v>
       </c>
       <c r="J37" t="s">
         <v>18</v>
       </c>
       <c r="K37" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="L37" t="s">
         <v>17</v>
@@ -2502,17 +2383,14 @@
       <c r="A38" s="1">
         <v>37</v>
       </c>
-      <c r="H38" t="s">
-        <v>339</v>
-      </c>
       <c r="I38" t="s">
-        <v>366</v>
+        <v>335</v>
       </c>
       <c r="J38" t="s">
         <v>18</v>
       </c>
       <c r="K38" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="L38" t="s">
         <v>17</v>
@@ -2528,17 +2406,14 @@
       <c r="A39" s="1">
         <v>38</v>
       </c>
-      <c r="H39" t="s">
-        <v>339</v>
-      </c>
       <c r="I39" t="s">
-        <v>366</v>
+        <v>335</v>
       </c>
       <c r="J39" t="s">
         <v>18</v>
       </c>
       <c r="K39" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="L39" t="s">
         <v>17</v>
@@ -2554,17 +2429,14 @@
       <c r="A40" s="1">
         <v>39</v>
       </c>
-      <c r="H40" t="s">
-        <v>339</v>
-      </c>
       <c r="I40" t="s">
-        <v>366</v>
+        <v>335</v>
       </c>
       <c r="J40" t="s">
         <v>18</v>
       </c>
       <c r="K40" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="L40" t="s">
         <v>17</v>
@@ -2580,17 +2452,14 @@
       <c r="A41" s="1">
         <v>40</v>
       </c>
-      <c r="H41" t="s">
-        <v>339</v>
-      </c>
       <c r="I41" t="s">
-        <v>366</v>
+        <v>335</v>
       </c>
       <c r="J41" t="s">
         <v>18</v>
       </c>
       <c r="K41" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="L41" t="s">
         <v>17</v>
@@ -2606,17 +2475,14 @@
       <c r="A42" s="1">
         <v>41</v>
       </c>
-      <c r="H42" t="s">
-        <v>339</v>
-      </c>
       <c r="I42" t="s">
-        <v>366</v>
+        <v>335</v>
       </c>
       <c r="J42" t="s">
         <v>18</v>
       </c>
       <c r="K42" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="L42" t="s">
         <v>17</v>
@@ -2632,11 +2498,8 @@
       <c r="A43" s="1">
         <v>42</v>
       </c>
-      <c r="H43" t="s">
-        <v>344</v>
-      </c>
       <c r="I43" t="s">
-        <v>366</v>
+        <v>335</v>
       </c>
       <c r="J43" t="s">
         <v>18</v>
@@ -2658,11 +2521,8 @@
       <c r="A44" s="1">
         <v>43</v>
       </c>
-      <c r="H44" t="s">
-        <v>344</v>
-      </c>
       <c r="I44" t="s">
-        <v>366</v>
+        <v>335</v>
       </c>
       <c r="J44" t="s">
         <v>18</v>
@@ -2684,11 +2544,8 @@
       <c r="A45" s="1">
         <v>44</v>
       </c>
-      <c r="H45" t="s">
-        <v>344</v>
-      </c>
       <c r="I45" t="s">
-        <v>366</v>
+        <v>335</v>
       </c>
       <c r="J45" t="s">
         <v>18</v>
@@ -2710,11 +2567,8 @@
       <c r="A46" s="1">
         <v>45</v>
       </c>
-      <c r="H46" t="s">
-        <v>344</v>
-      </c>
       <c r="I46" t="s">
-        <v>366</v>
+        <v>335</v>
       </c>
       <c r="J46" t="s">
         <v>18</v>
@@ -2736,11 +2590,8 @@
       <c r="A47" s="1">
         <v>46</v>
       </c>
-      <c r="H47" t="s">
-        <v>344</v>
-      </c>
       <c r="I47" t="s">
-        <v>366</v>
+        <v>335</v>
       </c>
       <c r="J47" t="s">
         <v>18</v>
@@ -2762,11 +2613,8 @@
       <c r="A48" s="1">
         <v>47</v>
       </c>
-      <c r="H48" t="s">
-        <v>344</v>
-      </c>
       <c r="I48" t="s">
-        <v>366</v>
+        <v>335</v>
       </c>
       <c r="J48" t="s">
         <v>18</v>
@@ -2788,17 +2636,14 @@
       <c r="A49" s="1">
         <v>48</v>
       </c>
-      <c r="H49" t="s">
-        <v>345</v>
-      </c>
       <c r="I49" t="s">
-        <v>366</v>
+        <v>335</v>
       </c>
       <c r="J49" t="s">
         <v>18</v>
       </c>
       <c r="K49" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="L49" t="s">
         <v>17</v>
@@ -2814,17 +2659,14 @@
       <c r="A50" s="1">
         <v>49</v>
       </c>
-      <c r="H50" t="s">
-        <v>345</v>
-      </c>
       <c r="I50" t="s">
-        <v>366</v>
+        <v>335</v>
       </c>
       <c r="J50" t="s">
         <v>18</v>
       </c>
       <c r="K50" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="L50" t="s">
         <v>17</v>
@@ -2840,17 +2682,14 @@
       <c r="A51" s="1">
         <v>50</v>
       </c>
-      <c r="H51" t="s">
-        <v>345</v>
-      </c>
       <c r="I51" t="s">
-        <v>366</v>
+        <v>335</v>
       </c>
       <c r="J51" t="s">
         <v>18</v>
       </c>
       <c r="K51" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="L51" t="s">
         <v>17</v>
@@ -2866,17 +2705,14 @@
       <c r="A52" s="1">
         <v>51</v>
       </c>
-      <c r="H52" t="s">
-        <v>346</v>
-      </c>
       <c r="I52" t="s">
-        <v>366</v>
+        <v>335</v>
       </c>
       <c r="J52" t="s">
         <v>18</v>
       </c>
       <c r="K52" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="L52" t="s">
         <v>17</v>
@@ -2892,17 +2728,14 @@
       <c r="A53" s="1">
         <v>52</v>
       </c>
-      <c r="H53" t="s">
-        <v>346</v>
-      </c>
       <c r="I53" t="s">
-        <v>366</v>
+        <v>335</v>
       </c>
       <c r="J53" t="s">
         <v>18</v>
       </c>
       <c r="K53" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="L53" t="s">
         <v>17</v>
@@ -2918,17 +2751,14 @@
       <c r="A54" s="1">
         <v>53</v>
       </c>
-      <c r="H54" t="s">
-        <v>347</v>
-      </c>
       <c r="I54" t="s">
-        <v>366</v>
+        <v>335</v>
       </c>
       <c r="J54" t="s">
         <v>18</v>
       </c>
       <c r="K54" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="L54" t="s">
         <v>17</v>
@@ -2944,17 +2774,14 @@
       <c r="A55" s="1">
         <v>54</v>
       </c>
-      <c r="H55" t="s">
-        <v>347</v>
-      </c>
       <c r="I55" t="s">
-        <v>366</v>
+        <v>335</v>
       </c>
       <c r="J55" t="s">
         <v>18</v>
       </c>
       <c r="K55" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="L55" t="s">
         <v>17</v>
@@ -2970,17 +2797,14 @@
       <c r="A56" s="1">
         <v>55</v>
       </c>
-      <c r="H56" t="s">
-        <v>348</v>
-      </c>
       <c r="I56" t="s">
-        <v>366</v>
+        <v>335</v>
       </c>
       <c r="J56" t="s">
         <v>18</v>
       </c>
       <c r="K56" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="L56" t="s">
         <v>17</v>
@@ -2996,17 +2820,14 @@
       <c r="A57" s="1">
         <v>56</v>
       </c>
-      <c r="H57" t="s">
-        <v>348</v>
-      </c>
       <c r="I57" t="s">
-        <v>366</v>
+        <v>335</v>
       </c>
       <c r="J57" t="s">
         <v>18</v>
       </c>
       <c r="K57" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="L57" t="s">
         <v>17</v>
@@ -3022,17 +2843,14 @@
       <c r="A58" s="1">
         <v>57</v>
       </c>
-      <c r="H58" t="s">
-        <v>339</v>
-      </c>
       <c r="I58" t="s">
-        <v>366</v>
+        <v>335</v>
       </c>
       <c r="J58" t="s">
         <v>18</v>
       </c>
       <c r="K58" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="L58" t="s">
         <v>17</v>
@@ -3048,17 +2866,14 @@
       <c r="A59" s="1">
         <v>58</v>
       </c>
-      <c r="H59" t="s">
-        <v>339</v>
-      </c>
       <c r="I59" t="s">
-        <v>366</v>
+        <v>335</v>
       </c>
       <c r="J59" t="s">
         <v>18</v>
       </c>
       <c r="K59" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="L59" t="s">
         <v>17</v>
@@ -3074,17 +2889,14 @@
       <c r="A60" s="1">
         <v>59</v>
       </c>
-      <c r="H60" t="s">
-        <v>339</v>
-      </c>
       <c r="I60" t="s">
-        <v>366</v>
+        <v>335</v>
       </c>
       <c r="J60" t="s">
         <v>18</v>
       </c>
       <c r="K60" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="L60" t="s">
         <v>17</v>
@@ -3100,17 +2912,14 @@
       <c r="A61" s="1">
         <v>60</v>
       </c>
-      <c r="H61" t="s">
-        <v>339</v>
-      </c>
       <c r="I61" t="s">
-        <v>366</v>
+        <v>335</v>
       </c>
       <c r="J61" t="s">
         <v>18</v>
       </c>
       <c r="K61" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="L61" t="s">
         <v>17</v>
@@ -3126,17 +2935,14 @@
       <c r="A62" s="1">
         <v>61</v>
       </c>
-      <c r="H62" t="s">
-        <v>339</v>
-      </c>
       <c r="I62" t="s">
-        <v>366</v>
+        <v>335</v>
       </c>
       <c r="J62" t="s">
         <v>18</v>
       </c>
       <c r="K62" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="L62" t="s">
         <v>17</v>
@@ -3152,17 +2958,14 @@
       <c r="A63" s="1">
         <v>62</v>
       </c>
-      <c r="H63" t="s">
-        <v>339</v>
-      </c>
       <c r="I63" t="s">
-        <v>366</v>
+        <v>335</v>
       </c>
       <c r="J63" t="s">
         <v>18</v>
       </c>
       <c r="K63" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="L63" t="s">
         <v>17</v>
@@ -3178,17 +2981,14 @@
       <c r="A64" s="1">
         <v>63</v>
       </c>
-      <c r="H64" t="s">
-        <v>339</v>
-      </c>
       <c r="I64" t="s">
-        <v>366</v>
+        <v>335</v>
       </c>
       <c r="J64" t="s">
         <v>18</v>
       </c>
       <c r="K64" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="L64" t="s">
         <v>17</v>
@@ -3204,11 +3004,8 @@
       <c r="A65" s="1">
         <v>64</v>
       </c>
-      <c r="H65" t="s">
-        <v>350</v>
-      </c>
       <c r="I65" t="s">
-        <v>366</v>
+        <v>335</v>
       </c>
       <c r="J65" t="s">
         <v>18</v>
@@ -3230,11 +3027,8 @@
       <c r="A66" s="1">
         <v>65</v>
       </c>
-      <c r="H66" t="s">
-        <v>350</v>
-      </c>
       <c r="I66" t="s">
-        <v>366</v>
+        <v>335</v>
       </c>
       <c r="J66" t="s">
         <v>18</v>
@@ -3256,11 +3050,8 @@
       <c r="A67" s="1">
         <v>66</v>
       </c>
-      <c r="H67" t="s">
-        <v>350</v>
-      </c>
       <c r="I67" t="s">
-        <v>366</v>
+        <v>335</v>
       </c>
       <c r="J67" t="s">
         <v>18</v>
@@ -3282,11 +3073,8 @@
       <c r="A68" s="1">
         <v>67</v>
       </c>
-      <c r="H68" t="s">
-        <v>350</v>
-      </c>
       <c r="I68" t="s">
-        <v>366</v>
+        <v>335</v>
       </c>
       <c r="J68" t="s">
         <v>18</v>
@@ -3308,17 +3096,14 @@
       <c r="A69" s="1">
         <v>68</v>
       </c>
-      <c r="H69" t="s">
-        <v>351</v>
-      </c>
       <c r="I69" t="s">
-        <v>366</v>
+        <v>335</v>
       </c>
       <c r="J69" t="s">
         <v>18</v>
       </c>
       <c r="K69" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="L69" t="s">
         <v>17</v>
@@ -3334,17 +3119,14 @@
       <c r="A70" s="1">
         <v>69</v>
       </c>
-      <c r="H70" t="s">
-        <v>351</v>
-      </c>
       <c r="I70" t="s">
-        <v>366</v>
+        <v>335</v>
       </c>
       <c r="J70" t="s">
         <v>18</v>
       </c>
       <c r="K70" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="L70" t="s">
         <v>17</v>
@@ -3360,17 +3142,14 @@
       <c r="A71" s="1">
         <v>70</v>
       </c>
-      <c r="H71" t="s">
-        <v>351</v>
-      </c>
       <c r="I71" t="s">
-        <v>366</v>
+        <v>335</v>
       </c>
       <c r="J71" t="s">
         <v>18</v>
       </c>
       <c r="K71" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="L71" t="s">
         <v>17</v>
@@ -3386,17 +3165,14 @@
       <c r="A72" s="1">
         <v>71</v>
       </c>
-      <c r="H72" t="s">
-        <v>351</v>
-      </c>
       <c r="I72" t="s">
-        <v>366</v>
+        <v>335</v>
       </c>
       <c r="J72" t="s">
         <v>18</v>
       </c>
       <c r="K72" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="L72" t="s">
         <v>17</v>
@@ -3412,17 +3188,14 @@
       <c r="A73" s="1">
         <v>72</v>
       </c>
-      <c r="H73" t="s">
-        <v>351</v>
-      </c>
       <c r="I73" t="s">
-        <v>366</v>
+        <v>335</v>
       </c>
       <c r="J73" t="s">
         <v>18</v>
       </c>
       <c r="K73" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="L73" t="s">
         <v>17</v>
@@ -3438,17 +3211,14 @@
       <c r="A74" s="1">
         <v>73</v>
       </c>
-      <c r="H74" t="s">
-        <v>351</v>
-      </c>
       <c r="I74" t="s">
-        <v>366</v>
+        <v>335</v>
       </c>
       <c r="J74" t="s">
         <v>18</v>
       </c>
       <c r="K74" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="L74" t="s">
         <v>17</v>
@@ -3464,17 +3234,14 @@
       <c r="A75" s="1">
         <v>74</v>
       </c>
-      <c r="H75" t="s">
-        <v>351</v>
-      </c>
       <c r="I75" t="s">
-        <v>366</v>
+        <v>335</v>
       </c>
       <c r="J75" t="s">
         <v>18</v>
       </c>
       <c r="K75" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="L75" t="s">
         <v>17</v>
@@ -3490,17 +3257,14 @@
       <c r="A76" s="1">
         <v>75</v>
       </c>
-      <c r="H76" t="s">
-        <v>351</v>
-      </c>
       <c r="I76" t="s">
-        <v>366</v>
+        <v>335</v>
       </c>
       <c r="J76" t="s">
         <v>18</v>
       </c>
       <c r="K76" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="L76" t="s">
         <v>17</v>
@@ -3516,17 +3280,14 @@
       <c r="A77" s="1">
         <v>76</v>
       </c>
-      <c r="H77" t="s">
-        <v>351</v>
-      </c>
       <c r="I77" t="s">
-        <v>366</v>
+        <v>335</v>
       </c>
       <c r="J77" t="s">
         <v>18</v>
       </c>
       <c r="K77" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="L77" t="s">
         <v>17</v>
@@ -3542,17 +3303,14 @@
       <c r="A78" s="1">
         <v>77</v>
       </c>
-      <c r="H78" t="s">
-        <v>351</v>
-      </c>
       <c r="I78" t="s">
-        <v>366</v>
+        <v>335</v>
       </c>
       <c r="J78" t="s">
         <v>18</v>
       </c>
       <c r="K78" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="L78" t="s">
         <v>17</v>
@@ -3568,17 +3326,14 @@
       <c r="A79" s="1">
         <v>78</v>
       </c>
-      <c r="H79" t="s">
-        <v>352</v>
-      </c>
       <c r="I79" t="s">
-        <v>366</v>
+        <v>335</v>
       </c>
       <c r="J79" t="s">
         <v>18</v>
       </c>
       <c r="K79" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="L79" t="s">
         <v>17</v>
@@ -3594,17 +3349,14 @@
       <c r="A80" s="1">
         <v>79</v>
       </c>
-      <c r="H80" t="s">
-        <v>352</v>
-      </c>
       <c r="I80" t="s">
-        <v>366</v>
+        <v>335</v>
       </c>
       <c r="J80" t="s">
         <v>18</v>
       </c>
       <c r="K80" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="L80" t="s">
         <v>17</v>
@@ -3620,17 +3372,14 @@
       <c r="A81" s="1">
         <v>80</v>
       </c>
-      <c r="H81" t="s">
-        <v>352</v>
-      </c>
       <c r="I81" t="s">
-        <v>366</v>
+        <v>335</v>
       </c>
       <c r="J81" t="s">
         <v>18</v>
       </c>
       <c r="K81" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="L81" t="s">
         <v>17</v>
@@ -3646,17 +3395,14 @@
       <c r="A82" s="1">
         <v>81</v>
       </c>
-      <c r="H82" t="s">
-        <v>352</v>
-      </c>
       <c r="I82" t="s">
-        <v>366</v>
+        <v>335</v>
       </c>
       <c r="J82" t="s">
         <v>18</v>
       </c>
       <c r="K82" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="L82" t="s">
         <v>17</v>
@@ -3672,17 +3418,14 @@
       <c r="A83" s="1">
         <v>82</v>
       </c>
-      <c r="H83" t="s">
-        <v>352</v>
-      </c>
       <c r="I83" t="s">
-        <v>366</v>
+        <v>335</v>
       </c>
       <c r="J83" t="s">
         <v>18</v>
       </c>
       <c r="K83" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="L83" t="s">
         <v>17</v>
@@ -3698,17 +3441,14 @@
       <c r="A84" s="1">
         <v>83</v>
       </c>
-      <c r="H84" t="s">
-        <v>352</v>
-      </c>
       <c r="I84" t="s">
-        <v>366</v>
+        <v>335</v>
       </c>
       <c r="J84" t="s">
         <v>18</v>
       </c>
       <c r="K84" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="L84" t="s">
         <v>17</v>
@@ -3724,17 +3464,14 @@
       <c r="A85" s="1">
         <v>84</v>
       </c>
-      <c r="H85" t="s">
-        <v>339</v>
-      </c>
       <c r="I85" t="s">
-        <v>366</v>
+        <v>335</v>
       </c>
       <c r="J85" t="s">
         <v>18</v>
       </c>
       <c r="K85" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="L85" t="s">
         <v>17</v>
@@ -3750,17 +3487,14 @@
       <c r="A86" s="1">
         <v>85</v>
       </c>
-      <c r="H86" t="s">
-        <v>339</v>
-      </c>
       <c r="I86" t="s">
-        <v>366</v>
+        <v>335</v>
       </c>
       <c r="J86" t="s">
         <v>18</v>
       </c>
       <c r="K86" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="L86" t="s">
         <v>17</v>
@@ -3776,17 +3510,14 @@
       <c r="A87" s="1">
         <v>86</v>
       </c>
-      <c r="H87" t="s">
-        <v>339</v>
-      </c>
       <c r="I87" t="s">
-        <v>366</v>
+        <v>335</v>
       </c>
       <c r="J87" t="s">
         <v>18</v>
       </c>
       <c r="K87" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="L87" t="s">
         <v>17</v>
@@ -3802,17 +3533,14 @@
       <c r="A88" s="1">
         <v>87</v>
       </c>
-      <c r="H88" t="s">
-        <v>339</v>
-      </c>
       <c r="I88" t="s">
-        <v>366</v>
+        <v>335</v>
       </c>
       <c r="J88" t="s">
         <v>18</v>
       </c>
       <c r="K88" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="L88" t="s">
         <v>17</v>
@@ -3828,17 +3556,14 @@
       <c r="A89" s="1">
         <v>88</v>
       </c>
-      <c r="H89" t="s">
-        <v>339</v>
-      </c>
       <c r="I89" t="s">
-        <v>366</v>
+        <v>335</v>
       </c>
       <c r="J89" t="s">
         <v>18</v>
       </c>
       <c r="K89" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="L89" t="s">
         <v>17</v>
@@ -3854,17 +3579,14 @@
       <c r="A90" s="1">
         <v>89</v>
       </c>
-      <c r="H90" t="s">
-        <v>339</v>
-      </c>
       <c r="I90" t="s">
-        <v>366</v>
+        <v>335</v>
       </c>
       <c r="J90" t="s">
         <v>18</v>
       </c>
       <c r="K90" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="L90" t="s">
         <v>17</v>
@@ -3880,11 +3602,8 @@
       <c r="A91" s="1">
         <v>90</v>
       </c>
-      <c r="H91" t="s">
-        <v>354</v>
-      </c>
       <c r="I91" t="s">
-        <v>366</v>
+        <v>335</v>
       </c>
       <c r="J91" t="s">
         <v>18</v>
@@ -3906,11 +3625,8 @@
       <c r="A92" s="1">
         <v>91</v>
       </c>
-      <c r="H92" t="s">
-        <v>354</v>
-      </c>
       <c r="I92" t="s">
-        <v>366</v>
+        <v>335</v>
       </c>
       <c r="J92" t="s">
         <v>18</v>
@@ -3932,11 +3648,8 @@
       <c r="A93" s="1">
         <v>92</v>
       </c>
-      <c r="H93" t="s">
-        <v>354</v>
-      </c>
       <c r="I93" t="s">
-        <v>366</v>
+        <v>335</v>
       </c>
       <c r="J93" t="s">
         <v>18</v>
@@ -3958,11 +3671,8 @@
       <c r="A94" s="1">
         <v>93</v>
       </c>
-      <c r="H94" t="s">
-        <v>354</v>
-      </c>
       <c r="I94" t="s">
-        <v>366</v>
+        <v>335</v>
       </c>
       <c r="J94" t="s">
         <v>18</v>
@@ -3984,11 +3694,8 @@
       <c r="A95" s="1">
         <v>94</v>
       </c>
-      <c r="H95" t="s">
-        <v>354</v>
-      </c>
       <c r="I95" t="s">
-        <v>366</v>
+        <v>335</v>
       </c>
       <c r="J95" t="s">
         <v>18</v>
@@ -4010,11 +3717,8 @@
       <c r="A96" s="1">
         <v>95</v>
       </c>
-      <c r="H96" t="s">
-        <v>354</v>
-      </c>
       <c r="I96" t="s">
-        <v>366</v>
+        <v>335</v>
       </c>
       <c r="J96" t="s">
         <v>18</v>
@@ -4036,11 +3740,8 @@
       <c r="A97" s="1">
         <v>96</v>
       </c>
-      <c r="H97" t="s">
-        <v>354</v>
-      </c>
       <c r="I97" t="s">
-        <v>366</v>
+        <v>335</v>
       </c>
       <c r="J97" t="s">
         <v>18</v>
@@ -4062,11 +3763,8 @@
       <c r="A98" s="1">
         <v>97</v>
       </c>
-      <c r="H98" t="s">
-        <v>354</v>
-      </c>
       <c r="I98" t="s">
-        <v>366</v>
+        <v>335</v>
       </c>
       <c r="J98" t="s">
         <v>18</v>
@@ -4088,11 +3786,8 @@
       <c r="A99" s="1">
         <v>98</v>
       </c>
-      <c r="H99" t="s">
-        <v>354</v>
-      </c>
       <c r="I99" t="s">
-        <v>366</v>
+        <v>335</v>
       </c>
       <c r="J99" t="s">
         <v>18</v>
@@ -4114,11 +3809,8 @@
       <c r="A100" s="1">
         <v>99</v>
       </c>
-      <c r="H100" t="s">
-        <v>354</v>
-      </c>
       <c r="I100" t="s">
-        <v>366</v>
+        <v>335</v>
       </c>
       <c r="J100" t="s">
         <v>18</v>
@@ -4140,11 +3832,8 @@
       <c r="A101" s="1">
         <v>100</v>
       </c>
-      <c r="H101" t="s">
-        <v>354</v>
-      </c>
       <c r="I101" t="s">
-        <v>366</v>
+        <v>335</v>
       </c>
       <c r="J101" t="s">
         <v>18</v>
@@ -4166,11 +3855,8 @@
       <c r="A102" s="1">
         <v>101</v>
       </c>
-      <c r="H102" t="s">
-        <v>354</v>
-      </c>
       <c r="I102" t="s">
-        <v>366</v>
+        <v>335</v>
       </c>
       <c r="J102" t="s">
         <v>18</v>
@@ -4192,11 +3878,8 @@
       <c r="A103" s="1">
         <v>102</v>
       </c>
-      <c r="H103" t="s">
-        <v>354</v>
-      </c>
       <c r="I103" t="s">
-        <v>366</v>
+        <v>335</v>
       </c>
       <c r="J103" t="s">
         <v>18</v>
@@ -4218,11 +3901,8 @@
       <c r="A104" s="1">
         <v>103</v>
       </c>
-      <c r="H104" t="s">
-        <v>354</v>
-      </c>
       <c r="I104" t="s">
-        <v>366</v>
+        <v>335</v>
       </c>
       <c r="J104" t="s">
         <v>18</v>
@@ -4244,11 +3924,8 @@
       <c r="A105" s="1">
         <v>104</v>
       </c>
-      <c r="H105" t="s">
-        <v>354</v>
-      </c>
       <c r="I105" t="s">
-        <v>366</v>
+        <v>335</v>
       </c>
       <c r="J105" t="s">
         <v>18</v>
@@ -4270,11 +3947,8 @@
       <c r="A106" s="1">
         <v>105</v>
       </c>
-      <c r="H106" t="s">
-        <v>354</v>
-      </c>
       <c r="I106" t="s">
-        <v>366</v>
+        <v>335</v>
       </c>
       <c r="J106" t="s">
         <v>18</v>
@@ -4296,11 +3970,8 @@
       <c r="A107" s="1">
         <v>106</v>
       </c>
-      <c r="H107" t="s">
-        <v>354</v>
-      </c>
       <c r="I107" t="s">
-        <v>366</v>
+        <v>335</v>
       </c>
       <c r="J107" t="s">
         <v>18</v>
@@ -4322,11 +3993,8 @@
       <c r="A108" s="1">
         <v>107</v>
       </c>
-      <c r="H108" t="s">
-        <v>354</v>
-      </c>
       <c r="I108" t="s">
-        <v>366</v>
+        <v>335</v>
       </c>
       <c r="J108" t="s">
         <v>18</v>
@@ -4348,17 +4016,14 @@
       <c r="A109" s="1">
         <v>108</v>
       </c>
-      <c r="H109" t="s">
-        <v>356</v>
-      </c>
       <c r="I109" t="s">
-        <v>366</v>
+        <v>335</v>
       </c>
       <c r="J109" t="s">
         <v>18</v>
       </c>
       <c r="K109" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="L109" t="s">
         <v>17</v>
@@ -4374,17 +4039,14 @@
       <c r="A110" s="1">
         <v>109</v>
       </c>
-      <c r="H110" t="s">
-        <v>356</v>
-      </c>
       <c r="I110" t="s">
-        <v>366</v>
+        <v>335</v>
       </c>
       <c r="J110" t="s">
         <v>18</v>
       </c>
       <c r="K110" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="L110" t="s">
         <v>17</v>
@@ -4400,17 +4062,14 @@
       <c r="A111" s="1">
         <v>110</v>
       </c>
-      <c r="H111" t="s">
-        <v>356</v>
-      </c>
       <c r="I111" t="s">
-        <v>366</v>
+        <v>335</v>
       </c>
       <c r="J111" t="s">
         <v>18</v>
       </c>
       <c r="K111" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="L111" t="s">
         <v>17</v>
@@ -4426,17 +4085,14 @@
       <c r="A112" s="1">
         <v>111</v>
       </c>
-      <c r="H112" t="s">
-        <v>356</v>
-      </c>
       <c r="I112" t="s">
-        <v>366</v>
+        <v>335</v>
       </c>
       <c r="J112" t="s">
         <v>18</v>
       </c>
       <c r="K112" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="L112" t="s">
         <v>17</v>
@@ -4452,17 +4108,14 @@
       <c r="A113" s="1">
         <v>112</v>
       </c>
-      <c r="H113" t="s">
-        <v>356</v>
-      </c>
       <c r="I113" t="s">
-        <v>366</v>
+        <v>335</v>
       </c>
       <c r="J113" t="s">
         <v>18</v>
       </c>
       <c r="K113" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="L113" t="s">
         <v>17</v>
@@ -4478,17 +4131,14 @@
       <c r="A114" s="1">
         <v>113</v>
       </c>
-      <c r="H114" t="s">
-        <v>356</v>
-      </c>
       <c r="I114" t="s">
-        <v>366</v>
+        <v>335</v>
       </c>
       <c r="J114" t="s">
         <v>18</v>
       </c>
       <c r="K114" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="L114" t="s">
         <v>17</v>
@@ -4504,17 +4154,14 @@
       <c r="A115" s="1">
         <v>114</v>
       </c>
-      <c r="H115" t="s">
-        <v>356</v>
-      </c>
       <c r="I115" t="s">
-        <v>366</v>
+        <v>335</v>
       </c>
       <c r="J115" t="s">
         <v>18</v>
       </c>
       <c r="K115" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="L115" t="s">
         <v>17</v>
@@ -4530,17 +4177,14 @@
       <c r="A116" s="1">
         <v>115</v>
       </c>
-      <c r="H116" t="s">
-        <v>356</v>
-      </c>
       <c r="I116" t="s">
-        <v>366</v>
+        <v>335</v>
       </c>
       <c r="J116" t="s">
         <v>18</v>
       </c>
       <c r="K116" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="L116" t="s">
         <v>17</v>
@@ -4556,17 +4200,14 @@
       <c r="A117" s="1">
         <v>116</v>
       </c>
-      <c r="H117" t="s">
-        <v>356</v>
-      </c>
       <c r="I117" t="s">
-        <v>366</v>
+        <v>335</v>
       </c>
       <c r="J117" t="s">
         <v>18</v>
       </c>
       <c r="K117" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="L117" t="s">
         <v>17</v>
@@ -4582,17 +4223,14 @@
       <c r="A118" s="1">
         <v>117</v>
       </c>
-      <c r="H118" t="s">
-        <v>356</v>
-      </c>
       <c r="I118" t="s">
-        <v>366</v>
+        <v>335</v>
       </c>
       <c r="J118" t="s">
         <v>18</v>
       </c>
       <c r="K118" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="L118" t="s">
         <v>17</v>
@@ -4608,17 +4246,14 @@
       <c r="A119" s="1">
         <v>118</v>
       </c>
-      <c r="H119" t="s">
-        <v>356</v>
-      </c>
       <c r="I119" t="s">
-        <v>366</v>
+        <v>335</v>
       </c>
       <c r="J119" t="s">
         <v>18</v>
       </c>
       <c r="K119" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="L119" t="s">
         <v>17</v>
@@ -4634,17 +4269,14 @@
       <c r="A120" s="1">
         <v>119</v>
       </c>
-      <c r="H120" t="s">
-        <v>356</v>
-      </c>
       <c r="I120" t="s">
-        <v>366</v>
+        <v>335</v>
       </c>
       <c r="J120" t="s">
         <v>18</v>
       </c>
       <c r="K120" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="L120" t="s">
         <v>17</v>
@@ -4660,17 +4292,14 @@
       <c r="A121" s="1">
         <v>120</v>
       </c>
-      <c r="H121" t="s">
-        <v>356</v>
-      </c>
       <c r="I121" t="s">
-        <v>366</v>
+        <v>335</v>
       </c>
       <c r="J121" t="s">
         <v>18</v>
       </c>
       <c r="K121" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="L121" t="s">
         <v>17</v>
@@ -4686,17 +4315,14 @@
       <c r="A122" s="1">
         <v>121</v>
       </c>
-      <c r="H122" t="s">
-        <v>356</v>
-      </c>
       <c r="I122" t="s">
-        <v>366</v>
+        <v>335</v>
       </c>
       <c r="J122" t="s">
         <v>18</v>
       </c>
       <c r="K122" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="L122" t="s">
         <v>17</v>
@@ -4712,17 +4338,14 @@
       <c r="A123" s="1">
         <v>122</v>
       </c>
-      <c r="H123" t="s">
-        <v>356</v>
-      </c>
       <c r="I123" t="s">
-        <v>366</v>
+        <v>335</v>
       </c>
       <c r="J123" t="s">
         <v>18</v>
       </c>
       <c r="K123" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="L123" t="s">
         <v>17</v>
@@ -4738,17 +4361,14 @@
       <c r="A124" s="1">
         <v>123</v>
       </c>
-      <c r="H124" t="s">
-        <v>356</v>
-      </c>
       <c r="I124" t="s">
-        <v>366</v>
+        <v>335</v>
       </c>
       <c r="J124" t="s">
         <v>18</v>
       </c>
       <c r="K124" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="L124" t="s">
         <v>17</v>
@@ -4764,17 +4384,14 @@
       <c r="A125" s="1">
         <v>124</v>
       </c>
-      <c r="H125" t="s">
-        <v>356</v>
-      </c>
       <c r="I125" t="s">
-        <v>366</v>
+        <v>335</v>
       </c>
       <c r="J125" t="s">
         <v>18</v>
       </c>
       <c r="K125" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="L125" t="s">
         <v>17</v>
@@ -4790,17 +4407,14 @@
       <c r="A126" s="1">
         <v>125</v>
       </c>
-      <c r="H126" t="s">
-        <v>356</v>
-      </c>
       <c r="I126" t="s">
-        <v>366</v>
+        <v>335</v>
       </c>
       <c r="J126" t="s">
         <v>18</v>
       </c>
       <c r="K126" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="L126" t="s">
         <v>17</v>
@@ -4816,17 +4430,14 @@
       <c r="A127" s="1">
         <v>126</v>
       </c>
-      <c r="H127" t="s">
-        <v>356</v>
-      </c>
       <c r="I127" t="s">
-        <v>366</v>
+        <v>335</v>
       </c>
       <c r="J127" t="s">
         <v>18</v>
       </c>
       <c r="K127" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="L127" t="s">
         <v>17</v>
@@ -4842,17 +4453,14 @@
       <c r="A128" s="1">
         <v>127</v>
       </c>
-      <c r="H128" t="s">
-        <v>358</v>
-      </c>
       <c r="I128" t="s">
-        <v>366</v>
+        <v>335</v>
       </c>
       <c r="J128" t="s">
         <v>18</v>
       </c>
       <c r="K128" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="L128" t="s">
         <v>17</v>
@@ -4868,17 +4476,14 @@
       <c r="A129" s="1">
         <v>128</v>
       </c>
-      <c r="H129" t="s">
-        <v>358</v>
-      </c>
       <c r="I129" t="s">
-        <v>366</v>
+        <v>335</v>
       </c>
       <c r="J129" t="s">
         <v>18</v>
       </c>
       <c r="K129" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="L129" t="s">
         <v>17</v>
@@ -4894,17 +4499,14 @@
       <c r="A130" s="1">
         <v>129</v>
       </c>
-      <c r="H130" t="s">
-        <v>358</v>
-      </c>
       <c r="I130" t="s">
-        <v>366</v>
+        <v>335</v>
       </c>
       <c r="J130" t="s">
         <v>18</v>
       </c>
       <c r="K130" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="L130" t="s">
         <v>17</v>
@@ -4920,17 +4522,14 @@
       <c r="A131" s="1">
         <v>130</v>
       </c>
-      <c r="H131" t="s">
-        <v>358</v>
-      </c>
       <c r="I131" t="s">
-        <v>366</v>
+        <v>335</v>
       </c>
       <c r="J131" t="s">
         <v>18</v>
       </c>
       <c r="K131" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="L131" t="s">
         <v>17</v>
@@ -4946,17 +4545,14 @@
       <c r="A132" s="1">
         <v>131</v>
       </c>
-      <c r="H132" t="s">
-        <v>358</v>
-      </c>
       <c r="I132" t="s">
-        <v>366</v>
+        <v>335</v>
       </c>
       <c r="J132" t="s">
         <v>18</v>
       </c>
       <c r="K132" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="L132" t="s">
         <v>17</v>
@@ -4972,17 +4568,14 @@
       <c r="A133" s="1">
         <v>132</v>
       </c>
-      <c r="H133" t="s">
-        <v>358</v>
-      </c>
       <c r="I133" t="s">
-        <v>366</v>
+        <v>335</v>
       </c>
       <c r="J133" t="s">
         <v>18</v>
       </c>
       <c r="K133" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="L133" t="s">
         <v>17</v>
@@ -4998,17 +4591,14 @@
       <c r="A134" s="1">
         <v>133</v>
       </c>
-      <c r="H134" t="s">
-        <v>359</v>
-      </c>
       <c r="I134" t="s">
-        <v>366</v>
+        <v>335</v>
       </c>
       <c r="J134" t="s">
         <v>18</v>
       </c>
       <c r="K134" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="L134" t="s">
         <v>17</v>
@@ -5024,17 +4614,14 @@
       <c r="A135" s="1">
         <v>134</v>
       </c>
-      <c r="H135" t="s">
-        <v>359</v>
-      </c>
       <c r="I135" t="s">
-        <v>366</v>
+        <v>335</v>
       </c>
       <c r="J135" t="s">
         <v>18</v>
       </c>
       <c r="K135" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="L135" t="s">
         <v>17</v>
@@ -5050,11 +4637,8 @@
       <c r="A136" s="1">
         <v>135</v>
       </c>
-      <c r="H136" t="s">
-        <v>360</v>
-      </c>
       <c r="I136" t="s">
-        <v>366</v>
+        <v>335</v>
       </c>
       <c r="J136" t="s">
         <v>18</v>
@@ -5076,11 +4660,8 @@
       <c r="A137" s="1">
         <v>136</v>
       </c>
-      <c r="H137" t="s">
-        <v>360</v>
-      </c>
       <c r="I137" t="s">
-        <v>366</v>
+        <v>335</v>
       </c>
       <c r="J137" t="s">
         <v>18</v>
@@ -5102,11 +4683,8 @@
       <c r="A138" s="1">
         <v>137</v>
       </c>
-      <c r="H138" t="s">
-        <v>360</v>
-      </c>
       <c r="I138" t="s">
-        <v>366</v>
+        <v>335</v>
       </c>
       <c r="J138" t="s">
         <v>18</v>
@@ -5128,17 +4706,14 @@
       <c r="A139" s="1">
         <v>138</v>
       </c>
-      <c r="H139" t="s">
-        <v>361</v>
-      </c>
       <c r="I139" t="s">
-        <v>366</v>
+        <v>335</v>
       </c>
       <c r="J139" t="s">
         <v>18</v>
       </c>
       <c r="K139" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="L139" t="s">
         <v>17</v>
@@ -5154,17 +4729,14 @@
       <c r="A140" s="1">
         <v>139</v>
       </c>
-      <c r="H140" t="s">
-        <v>361</v>
-      </c>
       <c r="I140" t="s">
-        <v>366</v>
+        <v>335</v>
       </c>
       <c r="J140" t="s">
         <v>18</v>
       </c>
       <c r="K140" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="L140" t="s">
         <v>17</v>
@@ -5180,17 +4752,14 @@
       <c r="A141" s="1">
         <v>140</v>
       </c>
-      <c r="H141" t="s">
-        <v>361</v>
-      </c>
       <c r="I141" t="s">
-        <v>366</v>
+        <v>335</v>
       </c>
       <c r="J141" t="s">
         <v>18</v>
       </c>
       <c r="K141" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="L141" t="s">
         <v>17</v>
@@ -5206,17 +4775,14 @@
       <c r="A142" s="1">
         <v>141</v>
       </c>
-      <c r="H142" t="s">
-        <v>363</v>
-      </c>
       <c r="I142" t="s">
-        <v>366</v>
+        <v>335</v>
       </c>
       <c r="J142" t="s">
         <v>18</v>
       </c>
       <c r="K142" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="L142" t="s">
         <v>17</v>
@@ -5232,17 +4798,14 @@
       <c r="A143" s="1">
         <v>142</v>
       </c>
-      <c r="H143" t="s">
-        <v>363</v>
-      </c>
       <c r="I143" t="s">
-        <v>366</v>
+        <v>335</v>
       </c>
       <c r="J143" t="s">
         <v>18</v>
       </c>
       <c r="K143" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="L143" t="s">
         <v>17</v>
@@ -5258,17 +4821,14 @@
       <c r="A144" s="1">
         <v>143</v>
       </c>
-      <c r="H144" t="s">
-        <v>363</v>
-      </c>
       <c r="I144" t="s">
-        <v>366</v>
+        <v>335</v>
       </c>
       <c r="J144" t="s">
         <v>18</v>
       </c>
       <c r="K144" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="L144" t="s">
         <v>17</v>
@@ -5284,17 +4844,14 @@
       <c r="A145" s="1">
         <v>144</v>
       </c>
-      <c r="H145" t="s">
-        <v>363</v>
-      </c>
       <c r="I145" t="s">
-        <v>366</v>
+        <v>335</v>
       </c>
       <c r="J145" t="s">
         <v>18</v>
       </c>
       <c r="K145" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="L145" t="s">
         <v>17</v>
@@ -5310,17 +4867,14 @@
       <c r="A146" s="1">
         <v>145</v>
       </c>
-      <c r="H146" t="s">
-        <v>364</v>
-      </c>
       <c r="I146" t="s">
-        <v>366</v>
+        <v>335</v>
       </c>
       <c r="J146" t="s">
         <v>18</v>
       </c>
       <c r="K146" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="L146" t="s">
         <v>17</v>
@@ -5336,17 +4890,14 @@
       <c r="A147" s="1">
         <v>146</v>
       </c>
-      <c r="H147" t="s">
-        <v>364</v>
-      </c>
       <c r="I147" t="s">
-        <v>366</v>
+        <v>335</v>
       </c>
       <c r="J147" t="s">
         <v>18</v>
       </c>
       <c r="K147" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="L147" t="s">
         <v>17</v>
@@ -5362,17 +4913,14 @@
       <c r="A148" s="1">
         <v>147</v>
       </c>
-      <c r="H148" t="s">
-        <v>364</v>
-      </c>
       <c r="I148" t="s">
-        <v>366</v>
+        <v>335</v>
       </c>
       <c r="J148" t="s">
         <v>18</v>
       </c>
       <c r="K148" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="L148" t="s">
         <v>17</v>
@@ -5388,17 +4936,14 @@
       <c r="A149" s="1">
         <v>148</v>
       </c>
-      <c r="H149" t="s">
-        <v>364</v>
-      </c>
       <c r="I149" t="s">
-        <v>366</v>
+        <v>335</v>
       </c>
       <c r="J149" t="s">
         <v>18</v>
       </c>
       <c r="K149" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="L149" t="s">
         <v>17</v>
@@ -5414,17 +4959,14 @@
       <c r="A150" s="1">
         <v>149</v>
       </c>
-      <c r="H150" t="s">
-        <v>365</v>
-      </c>
       <c r="I150" t="s">
-        <v>366</v>
+        <v>335</v>
       </c>
       <c r="J150" t="s">
         <v>18</v>
       </c>
       <c r="K150" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="L150" t="s">
         <v>17</v>
@@ -5440,17 +4982,14 @@
       <c r="A151" s="1">
         <v>150</v>
       </c>
-      <c r="H151" t="s">
-        <v>365</v>
-      </c>
       <c r="I151" t="s">
-        <v>366</v>
+        <v>335</v>
       </c>
       <c r="J151" t="s">
         <v>18</v>
       </c>
       <c r="K151" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="L151" t="s">
         <v>17</v>
@@ -5466,17 +5005,14 @@
       <c r="A152" s="1">
         <v>151</v>
       </c>
-      <c r="H152" t="s">
-        <v>365</v>
-      </c>
       <c r="I152" t="s">
-        <v>366</v>
+        <v>335</v>
       </c>
       <c r="J152" t="s">
         <v>18</v>
       </c>
       <c r="K152" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="L152" t="s">
         <v>17</v>
@@ -5492,17 +5028,14 @@
       <c r="A153" s="1">
         <v>152</v>
       </c>
-      <c r="H153" t="s">
-        <v>365</v>
-      </c>
       <c r="I153" t="s">
-        <v>366</v>
+        <v>335</v>
       </c>
       <c r="J153" t="s">
         <v>18</v>
       </c>
       <c r="K153" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="L153" t="s">
         <v>17</v>
@@ -5518,11 +5051,8 @@
       <c r="A154" s="1">
         <v>153</v>
       </c>
-      <c r="H154" t="s">
-        <v>339</v>
-      </c>
       <c r="I154" t="s">
-        <v>366</v>
+        <v>335</v>
       </c>
       <c r="J154" t="s">
         <v>18</v>
@@ -5544,11 +5074,8 @@
       <c r="A155" s="1">
         <v>154</v>
       </c>
-      <c r="H155" t="s">
-        <v>339</v>
-      </c>
       <c r="I155" t="s">
-        <v>366</v>
+        <v>335</v>
       </c>
       <c r="J155" t="s">
         <v>18</v>
@@ -5570,11 +5097,8 @@
       <c r="A156" s="1">
         <v>155</v>
       </c>
-      <c r="H156" t="s">
-        <v>339</v>
-      </c>
       <c r="I156" t="s">
-        <v>366</v>
+        <v>335</v>
       </c>
       <c r="J156" t="s">
         <v>18</v>
@@ -5596,11 +5120,8 @@
       <c r="A157" s="1">
         <v>156</v>
       </c>
-      <c r="H157" t="s">
-        <v>339</v>
-      </c>
       <c r="I157" t="s">
-        <v>366</v>
+        <v>335</v>
       </c>
       <c r="J157" t="s">
         <v>18</v>
@@ -5622,11 +5143,8 @@
       <c r="A158" s="1">
         <v>157</v>
       </c>
-      <c r="H158" t="s">
-        <v>339</v>
-      </c>
       <c r="I158" t="s">
-        <v>366</v>
+        <v>335</v>
       </c>
       <c r="J158" t="s">
         <v>18</v>

--- a/public/import.xlsx
+++ b/public/import.xlsx
@@ -16,8 +16,42 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>minh tq</author>
+  </authors>
+  <commentList>
+    <comment ref="G1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>minh tq:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+vi, en, zh (Trung Quốc), ja, ru,</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1468" uniqueCount="447">
   <si>
     <t>STT</t>
   </si>
@@ -40,9 +74,6 @@
     <t>Câu trắc nghiệm</t>
   </si>
   <si>
-    <t>Các phương án</t>
-  </si>
-  <si>
     <t>Cụm động từ</t>
   </si>
   <si>
@@ -1106,13 +1137,268 @@
   </si>
   <si>
     <t>Unit 11_Expressions</t>
+  </si>
+  <si>
+    <t>Ngôn ngữ</t>
+  </si>
+  <si>
+    <t>en</t>
+  </si>
+  <si>
+    <t>301 câu đàm thoại tiếng Hoa</t>
+  </si>
+  <si>
+    <t>Tiếng Hoa</t>
+  </si>
+  <si>
+    <t>1_Chào hỏi</t>
+  </si>
+  <si>
+    <t>你好! (Nǐ hǎo!)</t>
+  </si>
+  <si>
+    <t>Chào bạn!</t>
+  </si>
+  <si>
+    <t>你好吗? (Nǐ hǎo ma?)</t>
+  </si>
+  <si>
+    <t>很好。 (Hěn hǎo.)</t>
+  </si>
+  <si>
+    <t>Rất khỏe.</t>
+  </si>
+  <si>
+    <t>我也很好。 (Wǒ yě hěn hǎo.)</t>
+  </si>
+  <si>
+    <t>Tôi cũng rất khỏe.</t>
+  </si>
+  <si>
+    <t>1_Đàm thoại</t>
+  </si>
+  <si>
+    <t>玛丽，你好! (Mǎlì, nǐ hǎo!)</t>
+  </si>
+  <si>
+    <t>Chào Mary!</t>
+  </si>
+  <si>
+    <t>你好，大卫! (Nǐ hǎo, dà wèi!)</t>
+  </si>
+  <si>
+    <t>Chào David!</t>
+  </si>
+  <si>
+    <t>很好，你好吗? (Hěn hǎo, nǐ hǎo ma?)</t>
+  </si>
+  <si>
+    <t>Rất khỏe, bạn khỏe không?</t>
+  </si>
+  <si>
+    <t>1_Mở rộng</t>
+  </si>
+  <si>
+    <t>你们好吗? (Nǐmen hǎo ma?)</t>
+  </si>
+  <si>
+    <t>Các bạn khỏe không?</t>
+  </si>
+  <si>
+    <t>我们都很好。你好吗? (Wǒmen dōu hěn hǎo. Nǐ hǎo ma?)</t>
+  </si>
+  <si>
+    <t>Chúng tôi đều rất khỏe. Bạn khỏe không?</t>
+  </si>
+  <si>
+    <t>你来吗? (Nǐ lái ma?)</t>
+  </si>
+  <si>
+    <t>Bạn đến không?</t>
+  </si>
+  <si>
+    <t>我来。 (Wǒ lái.)</t>
+  </si>
+  <si>
+    <t>Tôi đến.</t>
+  </si>
+  <si>
+    <t>爸爸、妈妈来吗? (Bàba, māma lái ma?)</t>
+  </si>
+  <si>
+    <t>Bố mẹ đến không?</t>
+  </si>
+  <si>
+    <t>他们都来。 (Tāmen dōu lái.)</t>
+  </si>
+  <si>
+    <t>Họ đều đến.</t>
+  </si>
+  <si>
+    <t>2_Chào hỏi buổi sáng</t>
+  </si>
+  <si>
+    <t>你早! (Nǐ zǎo!)</t>
+  </si>
+  <si>
+    <t>Chào buổi sáng!</t>
+  </si>
+  <si>
+    <t>2_Hỏi về sức khỏe</t>
+  </si>
+  <si>
+    <t>你身体好吗? (Nǐ shēntǐ hǎo ma?)</t>
+  </si>
+  <si>
+    <t>Sức khỏe bạn tốt không?</t>
+  </si>
+  <si>
+    <t>2_Cảm ơn</t>
+  </si>
+  <si>
+    <t>谢谢! (Xièxie!)</t>
+  </si>
+  <si>
+    <t>2_Tạm biệt</t>
+  </si>
+  <si>
+    <t>再见! (Zàijiàn!)</t>
+  </si>
+  <si>
+    <t>Tạm biệt!</t>
+  </si>
+  <si>
+    <t>2_Đàm thoại</t>
+  </si>
+  <si>
+    <t>很好。谢谢! (Hěn hǎo. Xièxie!)</t>
+  </si>
+  <si>
+    <t>Rất tốt. Cảm ơn!</t>
+  </si>
+  <si>
+    <t>Các em khỏe không?</t>
+  </si>
+  <si>
+    <t>我们都很好。您身体好吗? (Wǒmen dōu hěn hǎo. Nín shēntǐ hǎo ma?)</t>
+  </si>
+  <si>
+    <t>Chúng em đều rất khỏe. Sức khỏe thầy tốt không?</t>
+  </si>
+  <si>
+    <t>也很好。再见! (Yě hěn hǎo. Zàijiàn!)</t>
+  </si>
+  <si>
+    <t>Cũng rất tốt. Tạm biệt!</t>
+  </si>
+  <si>
+    <t>2_Mở rộng</t>
+  </si>
+  <si>
+    <t>今天六号。李老师来吗? (Jīntiān liù hào. Lǐ lǎoshī lái ma?)</t>
+  </si>
+  <si>
+    <t>Hôm nay mùng 6. Thầy Lý đến không?</t>
+  </si>
+  <si>
+    <t>他来。 (Tā lái.)</t>
+  </si>
+  <si>
+    <t>Ông ta đến.</t>
+  </si>
+  <si>
+    <t>3_Hỏi về công việc</t>
+  </si>
+  <si>
+    <t>你工作忙吗? (Nǐ gōngzuò máng ma?)</t>
+  </si>
+  <si>
+    <t>Công việc bạn bận không?</t>
+  </si>
+  <si>
+    <t>很忙，你呢? (Hěn máng, nǐ ne?)</t>
+  </si>
+  <si>
+    <t>Rất bận, thế còn bạn?</t>
+  </si>
+  <si>
+    <t>我不太忙。 (Wǒ bù tài máng.)</t>
+  </si>
+  <si>
+    <t>Tôi không bận lắm.</t>
+  </si>
+  <si>
+    <t>3_Hỏi về sức khỏe gia đình</t>
+  </si>
+  <si>
+    <t>你爸爸、妈妈身体好吗? (Nǐ bàba, māma shēntǐ hǎo ma?)</t>
+  </si>
+  <si>
+    <t>Sức khỏe bố mẹ bạn tốt không?</t>
+  </si>
+  <si>
+    <t>3_Đàm thoại</t>
+  </si>
+  <si>
+    <t>您早! (Nín zǎo!)</t>
+  </si>
+  <si>
+    <t>Chào thầy!</t>
+  </si>
+  <si>
+    <t>老师好! (Lǎoshī hǎo!)</t>
+  </si>
+  <si>
+    <t>你们好! (Nǐmen hǎo!)</t>
+  </si>
+  <si>
+    <t>Chào các em!</t>
+  </si>
+  <si>
+    <t>老师忙吗? (Lǎoshī máng ma?)</t>
+  </si>
+  <si>
+    <t>Thầy bận không?</t>
+  </si>
+  <si>
+    <t>很忙，你们呢? (Hěn máng, nǐmen ne?)</t>
+  </si>
+  <si>
+    <t>Rất bận, thế còn các em?</t>
+  </si>
+  <si>
+    <t>我不忙。 (Wǒ bù máng.)</t>
+  </si>
+  <si>
+    <t>Em không bận.</t>
+  </si>
+  <si>
+    <t>我也不忙。 (Wǒ yě bù máng.)</t>
+  </si>
+  <si>
+    <t>Em cũng không bận.</t>
+  </si>
+  <si>
+    <t>刘京，你好! (Liú jīng, nǐ hǎo!)</t>
+  </si>
+  <si>
+    <t>Lưu Kinh, chào bạn!</t>
+  </si>
+  <si>
+    <t>他们都很好。谢谢! (Tāmen dōu hěn hǎo. Xièxie!)</t>
+  </si>
+  <si>
+    <t>Họ đều rất khỏe, cảm ơn!</t>
+  </si>
+  <si>
+    <t>zh</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1130,6 +1416,19 @@
       <sz val="11"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1152,7 +1451,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
@@ -1166,6 +1465,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1466,14 +1766,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S158"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S208"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="H152" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
-      <selection pane="bottomRight" activeCell="K2" sqref="K2:K158"/>
+      <selection pane="bottomRight" activeCell="G159" sqref="G159:G208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1503,25 +1803,25 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>7</v>
+        <v>362</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>15</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>3</v>
@@ -1536,3634 +1836,5406 @@
         <v>6</v>
       </c>
       <c r="O1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="P1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="R1" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="S1" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>1</v>
       </c>
+      <c r="G2" t="s">
+        <v>363</v>
+      </c>
       <c r="I2" t="s">
+        <v>334</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" t="s">
         <v>335</v>
       </c>
-      <c r="J2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" t="s">
-        <v>336</v>
-      </c>
       <c r="L2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" t="s">
         <v>21</v>
-      </c>
-      <c r="N2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>2</v>
       </c>
+      <c r="G3" t="s">
+        <v>363</v>
+      </c>
       <c r="I3" t="s">
+        <v>334</v>
+      </c>
+      <c r="J3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" t="s">
         <v>335</v>
       </c>
-      <c r="J3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3" t="s">
-        <v>336</v>
-      </c>
       <c r="L3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N3" t="s">
         <v>23</v>
-      </c>
-      <c r="N3" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>3</v>
       </c>
+      <c r="G4" t="s">
+        <v>363</v>
+      </c>
       <c r="I4" t="s">
+        <v>334</v>
+      </c>
+      <c r="J4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" t="s">
         <v>335</v>
       </c>
-      <c r="J4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K4" t="s">
-        <v>336</v>
-      </c>
       <c r="L4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M4" t="s">
+        <v>24</v>
+      </c>
+      <c r="N4" t="s">
         <v>25</v>
-      </c>
-      <c r="N4" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>4</v>
       </c>
+      <c r="G5" t="s">
+        <v>363</v>
+      </c>
       <c r="I5" t="s">
+        <v>334</v>
+      </c>
+      <c r="J5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" t="s">
         <v>335</v>
       </c>
-      <c r="J5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K5" t="s">
-        <v>336</v>
-      </c>
       <c r="L5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M5" t="s">
+        <v>26</v>
+      </c>
+      <c r="N5" t="s">
         <v>27</v>
-      </c>
-      <c r="N5" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>5</v>
       </c>
+      <c r="G6" t="s">
+        <v>363</v>
+      </c>
       <c r="I6" t="s">
+        <v>334</v>
+      </c>
+      <c r="J6" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" t="s">
         <v>335</v>
       </c>
-      <c r="J6" t="s">
-        <v>18</v>
-      </c>
-      <c r="K6" t="s">
-        <v>336</v>
-      </c>
       <c r="L6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M6" t="s">
+        <v>28</v>
+      </c>
+      <c r="N6" t="s">
         <v>29</v>
-      </c>
-      <c r="N6" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>6</v>
       </c>
+      <c r="G7" t="s">
+        <v>363</v>
+      </c>
       <c r="I7" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K7" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="L7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M7" t="s">
+        <v>30</v>
+      </c>
+      <c r="N7" t="s">
         <v>31</v>
-      </c>
-      <c r="N7" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>7</v>
       </c>
+      <c r="G8" t="s">
+        <v>363</v>
+      </c>
       <c r="I8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="L8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N8" t="s">
         <v>33</v>
-      </c>
-      <c r="N8" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>8</v>
       </c>
+      <c r="G9" t="s">
+        <v>363</v>
+      </c>
       <c r="I9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K9" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="L9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M9" t="s">
+        <v>34</v>
+      </c>
+      <c r="N9" t="s">
         <v>35</v>
-      </c>
-      <c r="N9" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>9</v>
       </c>
+      <c r="G10" t="s">
+        <v>363</v>
+      </c>
       <c r="I10" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K10" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="L10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M10" t="s">
+        <v>36</v>
+      </c>
+      <c r="N10" t="s">
         <v>37</v>
-      </c>
-      <c r="N10" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>10</v>
       </c>
+      <c r="G11" t="s">
+        <v>363</v>
+      </c>
       <c r="I11" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K11" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="L11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M11" t="s">
+        <v>38</v>
+      </c>
+      <c r="N11" t="s">
         <v>39</v>
-      </c>
-      <c r="N11" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>11</v>
       </c>
+      <c r="G12" t="s">
+        <v>363</v>
+      </c>
       <c r="I12" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K12" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="L12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M12" t="s">
+        <v>40</v>
+      </c>
+      <c r="N12" t="s">
         <v>41</v>
-      </c>
-      <c r="N12" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>12</v>
       </c>
+      <c r="G13" t="s">
+        <v>363</v>
+      </c>
       <c r="I13" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K13" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="L13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M13" t="s">
+        <v>42</v>
+      </c>
+      <c r="N13" t="s">
         <v>43</v>
-      </c>
-      <c r="N13" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>13</v>
       </c>
+      <c r="G14" t="s">
+        <v>363</v>
+      </c>
       <c r="I14" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K14" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="L14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M14" t="s">
+        <v>44</v>
+      </c>
+      <c r="N14" t="s">
         <v>45</v>
-      </c>
-      <c r="N14" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>14</v>
       </c>
+      <c r="G15" t="s">
+        <v>363</v>
+      </c>
       <c r="I15" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K15" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="L15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M15" t="s">
+        <v>46</v>
+      </c>
+      <c r="N15" t="s">
         <v>47</v>
-      </c>
-      <c r="N15" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>15</v>
       </c>
+      <c r="G16" t="s">
+        <v>363</v>
+      </c>
       <c r="I16" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K16" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="L16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M16" t="s">
+        <v>48</v>
+      </c>
+      <c r="N16" t="s">
         <v>49</v>
-      </c>
-      <c r="N16" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>16</v>
       </c>
+      <c r="G17" t="s">
+        <v>363</v>
+      </c>
       <c r="I17" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K17" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="L17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M17" t="s">
+        <v>50</v>
+      </c>
+      <c r="N17" t="s">
         <v>51</v>
-      </c>
-      <c r="N17" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>17</v>
       </c>
+      <c r="G18" t="s">
+        <v>363</v>
+      </c>
       <c r="I18" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K18" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="L18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M18" t="s">
+        <v>52</v>
+      </c>
+      <c r="N18" t="s">
         <v>53</v>
-      </c>
-      <c r="N18" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>18</v>
       </c>
+      <c r="G19" t="s">
+        <v>363</v>
+      </c>
       <c r="I19" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K19" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="L19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M19" t="s">
+        <v>54</v>
+      </c>
+      <c r="N19" t="s">
         <v>55</v>
-      </c>
-      <c r="N19" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>19</v>
       </c>
+      <c r="G20" t="s">
+        <v>363</v>
+      </c>
       <c r="I20" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K20" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="L20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M20" t="s">
+        <v>56</v>
+      </c>
+      <c r="N20" t="s">
         <v>57</v>
-      </c>
-      <c r="N20" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>20</v>
       </c>
+      <c r="G21" t="s">
+        <v>363</v>
+      </c>
       <c r="I21" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K21" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="L21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M21" t="s">
+        <v>58</v>
+      </c>
+      <c r="N21" t="s">
         <v>59</v>
-      </c>
-      <c r="N21" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>21</v>
       </c>
+      <c r="G22" t="s">
+        <v>363</v>
+      </c>
       <c r="I22" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K22" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="L22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M22" t="s">
+        <v>60</v>
+      </c>
+      <c r="N22" t="s">
         <v>61</v>
-      </c>
-      <c r="N22" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>22</v>
       </c>
+      <c r="G23" t="s">
+        <v>363</v>
+      </c>
       <c r="I23" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K23" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="L23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M23" t="s">
+        <v>62</v>
+      </c>
+      <c r="N23" t="s">
         <v>63</v>
-      </c>
-      <c r="N23" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>23</v>
       </c>
+      <c r="G24" t="s">
+        <v>363</v>
+      </c>
       <c r="I24" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K24" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="L24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M24" t="s">
+        <v>64</v>
+      </c>
+      <c r="N24" t="s">
         <v>65</v>
-      </c>
-      <c r="N24" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>24</v>
       </c>
+      <c r="G25" t="s">
+        <v>363</v>
+      </c>
       <c r="I25" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K25" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="L25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M25" t="s">
+        <v>66</v>
+      </c>
+      <c r="N25" t="s">
         <v>67</v>
-      </c>
-      <c r="N25" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="1">
         <v>25</v>
       </c>
+      <c r="G26" t="s">
+        <v>363</v>
+      </c>
       <c r="I26" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K26" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="L26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M26" t="s">
+        <v>68</v>
+      </c>
+      <c r="N26" t="s">
         <v>69</v>
-      </c>
-      <c r="N26" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="1">
         <v>26</v>
       </c>
+      <c r="G27" t="s">
+        <v>363</v>
+      </c>
       <c r="I27" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K27" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="L27" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M27" t="s">
+        <v>70</v>
+      </c>
+      <c r="N27" t="s">
         <v>71</v>
-      </c>
-      <c r="N27" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="1">
         <v>27</v>
       </c>
+      <c r="G28" t="s">
+        <v>363</v>
+      </c>
       <c r="I28" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K28" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="L28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M28" t="s">
+        <v>72</v>
+      </c>
+      <c r="N28" t="s">
         <v>73</v>
-      </c>
-      <c r="N28" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="29" spans="1:14">
       <c r="A29" s="1">
         <v>28</v>
       </c>
+      <c r="G29" t="s">
+        <v>363</v>
+      </c>
       <c r="I29" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J29" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K29" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="L29" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M29" t="s">
+        <v>74</v>
+      </c>
+      <c r="N29" t="s">
         <v>75</v>
-      </c>
-      <c r="N29" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="1">
         <v>29</v>
       </c>
+      <c r="G30" t="s">
+        <v>363</v>
+      </c>
       <c r="I30" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K30" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="L30" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M30" t="s">
+        <v>76</v>
+      </c>
+      <c r="N30" t="s">
         <v>77</v>
-      </c>
-      <c r="N30" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="1">
         <v>30</v>
       </c>
+      <c r="G31" t="s">
+        <v>363</v>
+      </c>
       <c r="I31" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J31" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K31" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="L31" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M31" t="s">
+        <v>78</v>
+      </c>
+      <c r="N31" t="s">
         <v>79</v>
-      </c>
-      <c r="N31" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="1">
         <v>31</v>
       </c>
+      <c r="G32" t="s">
+        <v>363</v>
+      </c>
       <c r="I32" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K32" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="L32" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M32" t="s">
+        <v>80</v>
+      </c>
+      <c r="N32" t="s">
         <v>81</v>
-      </c>
-      <c r="N32" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="1">
         <v>32</v>
       </c>
+      <c r="G33" t="s">
+        <v>363</v>
+      </c>
       <c r="I33" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J33" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K33" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M33" t="s">
+        <v>82</v>
+      </c>
+      <c r="N33" t="s">
         <v>83</v>
-      </c>
-      <c r="N33" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="1">
         <v>33</v>
       </c>
+      <c r="G34" t="s">
+        <v>363</v>
+      </c>
       <c r="I34" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J34" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K34" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M34" t="s">
+        <v>84</v>
+      </c>
+      <c r="N34" t="s">
         <v>85</v>
-      </c>
-      <c r="N34" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="1">
         <v>34</v>
       </c>
+      <c r="G35" t="s">
+        <v>363</v>
+      </c>
       <c r="I35" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J35" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K35" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L35" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M35" t="s">
+        <v>86</v>
+      </c>
+      <c r="N35" t="s">
         <v>87</v>
-      </c>
-      <c r="N35" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="36" spans="1:14">
       <c r="A36" s="1">
         <v>35</v>
       </c>
+      <c r="G36" t="s">
+        <v>363</v>
+      </c>
       <c r="I36" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J36" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K36" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="L36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M36" t="s">
+        <v>88</v>
+      </c>
+      <c r="N36" t="s">
         <v>89</v>
-      </c>
-      <c r="N36" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="37" spans="1:14">
       <c r="A37" s="1">
         <v>36</v>
       </c>
+      <c r="G37" t="s">
+        <v>363</v>
+      </c>
       <c r="I37" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J37" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K37" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="L37" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M37" t="s">
+        <v>90</v>
+      </c>
+      <c r="N37" t="s">
         <v>91</v>
-      </c>
-      <c r="N37" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="38" spans="1:14">
       <c r="A38" s="1">
         <v>37</v>
       </c>
+      <c r="G38" t="s">
+        <v>363</v>
+      </c>
       <c r="I38" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J38" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K38" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="L38" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M38" t="s">
+        <v>92</v>
+      </c>
+      <c r="N38" t="s">
         <v>93</v>
-      </c>
-      <c r="N38" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="39" spans="1:14">
       <c r="A39" s="1">
         <v>38</v>
       </c>
+      <c r="G39" t="s">
+        <v>363</v>
+      </c>
       <c r="I39" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K39" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="L39" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M39" t="s">
+        <v>94</v>
+      </c>
+      <c r="N39" t="s">
         <v>95</v>
-      </c>
-      <c r="N39" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="40" spans="1:14">
       <c r="A40" s="1">
         <v>39</v>
       </c>
+      <c r="G40" t="s">
+        <v>363</v>
+      </c>
       <c r="I40" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K40" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="L40" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M40" t="s">
+        <v>96</v>
+      </c>
+      <c r="N40" t="s">
         <v>97</v>
-      </c>
-      <c r="N40" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="41" spans="1:14">
       <c r="A41" s="1">
         <v>40</v>
       </c>
+      <c r="G41" t="s">
+        <v>363</v>
+      </c>
       <c r="I41" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J41" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K41" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="L41" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M41" t="s">
+        <v>98</v>
+      </c>
+      <c r="N41" t="s">
         <v>99</v>
-      </c>
-      <c r="N41" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="42" spans="1:14">
       <c r="A42" s="1">
         <v>41</v>
       </c>
+      <c r="G42" t="s">
+        <v>363</v>
+      </c>
       <c r="I42" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J42" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K42" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="L42" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M42" t="s">
+        <v>100</v>
+      </c>
+      <c r="N42" t="s">
         <v>101</v>
-      </c>
-      <c r="N42" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="43" spans="1:14">
       <c r="A43" s="1">
         <v>42</v>
       </c>
+      <c r="G43" t="s">
+        <v>363</v>
+      </c>
       <c r="I43" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J43" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K43" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="L43" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M43" t="s">
+        <v>102</v>
+      </c>
+      <c r="N43" t="s">
         <v>103</v>
-      </c>
-      <c r="N43" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="44" spans="1:14">
       <c r="A44" s="1">
         <v>43</v>
       </c>
+      <c r="G44" t="s">
+        <v>363</v>
+      </c>
       <c r="I44" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J44" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K44" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="L44" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M44" t="s">
+        <v>104</v>
+      </c>
+      <c r="N44" t="s">
         <v>105</v>
-      </c>
-      <c r="N44" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="45" spans="1:14">
       <c r="A45" s="1">
         <v>44</v>
       </c>
+      <c r="G45" t="s">
+        <v>363</v>
+      </c>
       <c r="I45" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J45" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K45" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="L45" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M45" t="s">
+        <v>106</v>
+      </c>
+      <c r="N45" t="s">
         <v>107</v>
-      </c>
-      <c r="N45" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="46" spans="1:14">
       <c r="A46" s="1">
         <v>45</v>
       </c>
+      <c r="G46" t="s">
+        <v>363</v>
+      </c>
       <c r="I46" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J46" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K46" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="L46" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M46" t="s">
+        <v>108</v>
+      </c>
+      <c r="N46" t="s">
         <v>109</v>
-      </c>
-      <c r="N46" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="1">
         <v>46</v>
       </c>
+      <c r="G47" t="s">
+        <v>363</v>
+      </c>
       <c r="I47" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J47" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K47" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="L47" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M47" t="s">
+        <v>110</v>
+      </c>
+      <c r="N47" t="s">
         <v>111</v>
-      </c>
-      <c r="N47" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="48" spans="1:14">
       <c r="A48" s="1">
         <v>47</v>
       </c>
+      <c r="G48" t="s">
+        <v>363</v>
+      </c>
       <c r="I48" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J48" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K48" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="L48" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M48" t="s">
+        <v>112</v>
+      </c>
+      <c r="N48" t="s">
         <v>113</v>
-      </c>
-      <c r="N48" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="49" spans="1:14">
       <c r="A49" s="1">
         <v>48</v>
       </c>
+      <c r="G49" t="s">
+        <v>363</v>
+      </c>
       <c r="I49" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J49" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K49" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="L49" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M49" t="s">
+        <v>114</v>
+      </c>
+      <c r="N49" t="s">
         <v>115</v>
-      </c>
-      <c r="N49" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="50" spans="1:14">
       <c r="A50" s="1">
         <v>49</v>
       </c>
+      <c r="G50" t="s">
+        <v>363</v>
+      </c>
       <c r="I50" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J50" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K50" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="L50" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M50" t="s">
+        <v>116</v>
+      </c>
+      <c r="N50" t="s">
         <v>117</v>
-      </c>
-      <c r="N50" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="51" spans="1:14">
       <c r="A51" s="1">
         <v>50</v>
       </c>
+      <c r="G51" t="s">
+        <v>363</v>
+      </c>
       <c r="I51" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J51" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K51" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="L51" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M51" t="s">
+        <v>118</v>
+      </c>
+      <c r="N51" t="s">
         <v>119</v>
-      </c>
-      <c r="N51" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="52" spans="1:14">
       <c r="A52" s="1">
         <v>51</v>
       </c>
+      <c r="G52" t="s">
+        <v>363</v>
+      </c>
       <c r="I52" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J52" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K52" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="L52" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M52" t="s">
+        <v>120</v>
+      </c>
+      <c r="N52" t="s">
         <v>121</v>
-      </c>
-      <c r="N52" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="53" spans="1:14">
       <c r="A53" s="1">
         <v>52</v>
       </c>
+      <c r="G53" t="s">
+        <v>363</v>
+      </c>
       <c r="I53" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J53" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K53" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="L53" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M53" t="s">
+        <v>122</v>
+      </c>
+      <c r="N53" t="s">
         <v>123</v>
-      </c>
-      <c r="N53" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="54" spans="1:14">
       <c r="A54" s="1">
         <v>53</v>
       </c>
+      <c r="G54" t="s">
+        <v>363</v>
+      </c>
       <c r="I54" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J54" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K54" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="L54" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M54" t="s">
+        <v>124</v>
+      </c>
+      <c r="N54" t="s">
         <v>125</v>
-      </c>
-      <c r="N54" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="55" spans="1:14">
       <c r="A55" s="1">
         <v>54</v>
       </c>
+      <c r="G55" t="s">
+        <v>363</v>
+      </c>
       <c r="I55" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J55" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K55" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="L55" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M55" t="s">
+        <v>126</v>
+      </c>
+      <c r="N55" t="s">
         <v>127</v>
-      </c>
-      <c r="N55" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="56" spans="1:14">
       <c r="A56" s="1">
         <v>55</v>
       </c>
+      <c r="G56" t="s">
+        <v>363</v>
+      </c>
       <c r="I56" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J56" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K56" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="L56" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M56" t="s">
+        <v>128</v>
+      </c>
+      <c r="N56" t="s">
         <v>129</v>
-      </c>
-      <c r="N56" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="57" spans="1:14">
       <c r="A57" s="1">
         <v>56</v>
       </c>
+      <c r="G57" t="s">
+        <v>363</v>
+      </c>
       <c r="I57" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J57" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K57" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="L57" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M57" t="s">
+        <v>130</v>
+      </c>
+      <c r="N57" t="s">
         <v>131</v>
-      </c>
-      <c r="N57" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="58" spans="1:14">
       <c r="A58" s="1">
         <v>57</v>
       </c>
+      <c r="G58" t="s">
+        <v>363</v>
+      </c>
       <c r="I58" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J58" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K58" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="L58" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M58" t="s">
+        <v>132</v>
+      </c>
+      <c r="N58" t="s">
         <v>133</v>
-      </c>
-      <c r="N58" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="59" spans="1:14">
       <c r="A59" s="1">
         <v>58</v>
       </c>
+      <c r="G59" t="s">
+        <v>363</v>
+      </c>
       <c r="I59" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J59" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K59" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="L59" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M59" t="s">
+        <v>134</v>
+      </c>
+      <c r="N59" t="s">
         <v>135</v>
-      </c>
-      <c r="N59" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="60" spans="1:14">
       <c r="A60" s="1">
         <v>59</v>
       </c>
+      <c r="G60" t="s">
+        <v>363</v>
+      </c>
       <c r="I60" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J60" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K60" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="L60" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M60" t="s">
+        <v>136</v>
+      </c>
+      <c r="N60" t="s">
         <v>137</v>
-      </c>
-      <c r="N60" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="61" spans="1:14">
       <c r="A61" s="1">
         <v>60</v>
       </c>
+      <c r="G61" t="s">
+        <v>363</v>
+      </c>
       <c r="I61" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J61" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K61" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="L61" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M61" t="s">
+        <v>138</v>
+      </c>
+      <c r="N61" t="s">
         <v>139</v>
-      </c>
-      <c r="N61" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="62" spans="1:14">
       <c r="A62" s="1">
         <v>61</v>
       </c>
+      <c r="G62" t="s">
+        <v>363</v>
+      </c>
       <c r="I62" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J62" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K62" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="L62" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M62" t="s">
+        <v>140</v>
+      </c>
+      <c r="N62" t="s">
         <v>141</v>
-      </c>
-      <c r="N62" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="63" spans="1:14">
       <c r="A63" s="1">
         <v>62</v>
       </c>
+      <c r="G63" t="s">
+        <v>363</v>
+      </c>
       <c r="I63" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J63" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K63" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="L63" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M63" t="s">
+        <v>142</v>
+      </c>
+      <c r="N63" t="s">
         <v>143</v>
-      </c>
-      <c r="N63" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="64" spans="1:14">
       <c r="A64" s="1">
         <v>63</v>
       </c>
+      <c r="G64" t="s">
+        <v>363</v>
+      </c>
       <c r="I64" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J64" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K64" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="L64" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M64" t="s">
+        <v>144</v>
+      </c>
+      <c r="N64" t="s">
         <v>145</v>
-      </c>
-      <c r="N64" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="65" spans="1:14">
       <c r="A65" s="1">
         <v>64</v>
       </c>
+      <c r="G65" t="s">
+        <v>363</v>
+      </c>
       <c r="I65" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J65" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K65" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="L65" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M65" t="s">
+        <v>146</v>
+      </c>
+      <c r="N65" t="s">
         <v>147</v>
-      </c>
-      <c r="N65" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="66" spans="1:14">
       <c r="A66" s="1">
         <v>65</v>
       </c>
+      <c r="G66" t="s">
+        <v>363</v>
+      </c>
       <c r="I66" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J66" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K66" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="L66" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M66" t="s">
+        <v>148</v>
+      </c>
+      <c r="N66" t="s">
         <v>149</v>
-      </c>
-      <c r="N66" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="67" spans="1:14">
       <c r="A67" s="1">
         <v>66</v>
       </c>
+      <c r="G67" t="s">
+        <v>363</v>
+      </c>
       <c r="I67" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J67" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K67" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="L67" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M67" t="s">
+        <v>150</v>
+      </c>
+      <c r="N67" t="s">
         <v>151</v>
-      </c>
-      <c r="N67" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="68" spans="1:14">
       <c r="A68" s="1">
         <v>67</v>
       </c>
+      <c r="G68" t="s">
+        <v>363</v>
+      </c>
       <c r="I68" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J68" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K68" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="L68" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M68" t="s">
+        <v>152</v>
+      </c>
+      <c r="N68" t="s">
         <v>153</v>
-      </c>
-      <c r="N68" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="69" spans="1:14">
       <c r="A69" s="1">
         <v>68</v>
       </c>
+      <c r="G69" t="s">
+        <v>363</v>
+      </c>
       <c r="I69" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J69" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K69" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="L69" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M69" t="s">
+        <v>154</v>
+      </c>
+      <c r="N69" t="s">
         <v>155</v>
-      </c>
-      <c r="N69" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="70" spans="1:14">
       <c r="A70" s="1">
         <v>69</v>
       </c>
+      <c r="G70" t="s">
+        <v>363</v>
+      </c>
       <c r="I70" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J70" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K70" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="L70" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M70" t="s">
+        <v>156</v>
+      </c>
+      <c r="N70" t="s">
         <v>157</v>
-      </c>
-      <c r="N70" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="71" spans="1:14">
       <c r="A71" s="1">
         <v>70</v>
       </c>
+      <c r="G71" t="s">
+        <v>363</v>
+      </c>
       <c r="I71" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J71" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K71" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="L71" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M71" t="s">
+        <v>158</v>
+      </c>
+      <c r="N71" t="s">
         <v>159</v>
-      </c>
-      <c r="N71" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="72" spans="1:14">
       <c r="A72" s="1">
         <v>71</v>
       </c>
+      <c r="G72" t="s">
+        <v>363</v>
+      </c>
       <c r="I72" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J72" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K72" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="L72" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M72" t="s">
+        <v>160</v>
+      </c>
+      <c r="N72" t="s">
         <v>161</v>
-      </c>
-      <c r="N72" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="73" spans="1:14">
       <c r="A73" s="1">
         <v>72</v>
       </c>
+      <c r="G73" t="s">
+        <v>363</v>
+      </c>
       <c r="I73" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J73" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K73" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="L73" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M73" t="s">
+        <v>162</v>
+      </c>
+      <c r="N73" t="s">
         <v>163</v>
-      </c>
-      <c r="N73" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="74" spans="1:14">
       <c r="A74" s="1">
         <v>73</v>
       </c>
+      <c r="G74" t="s">
+        <v>363</v>
+      </c>
       <c r="I74" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J74" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K74" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="L74" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M74" t="s">
+        <v>164</v>
+      </c>
+      <c r="N74" t="s">
         <v>165</v>
-      </c>
-      <c r="N74" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="75" spans="1:14">
       <c r="A75" s="1">
         <v>74</v>
       </c>
+      <c r="G75" t="s">
+        <v>363</v>
+      </c>
       <c r="I75" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J75" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K75" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="L75" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M75" t="s">
+        <v>166</v>
+      </c>
+      <c r="N75" t="s">
         <v>167</v>
-      </c>
-      <c r="N75" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="76" spans="1:14">
       <c r="A76" s="1">
         <v>75</v>
       </c>
+      <c r="G76" t="s">
+        <v>363</v>
+      </c>
       <c r="I76" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J76" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K76" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="L76" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M76" t="s">
+        <v>168</v>
+      </c>
+      <c r="N76" t="s">
         <v>169</v>
-      </c>
-      <c r="N76" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="77" spans="1:14">
       <c r="A77" s="1">
         <v>76</v>
       </c>
+      <c r="G77" t="s">
+        <v>363</v>
+      </c>
       <c r="I77" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J77" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K77" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="L77" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M77" t="s">
+        <v>170</v>
+      </c>
+      <c r="N77" t="s">
         <v>171</v>
-      </c>
-      <c r="N77" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="78" spans="1:14">
       <c r="A78" s="1">
         <v>77</v>
       </c>
+      <c r="G78" t="s">
+        <v>363</v>
+      </c>
       <c r="I78" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J78" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K78" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="L78" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M78" t="s">
+        <v>172</v>
+      </c>
+      <c r="N78" t="s">
         <v>173</v>
-      </c>
-      <c r="N78" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="79" spans="1:14">
       <c r="A79" s="1">
         <v>78</v>
       </c>
+      <c r="G79" t="s">
+        <v>363</v>
+      </c>
       <c r="I79" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J79" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K79" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="L79" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M79" t="s">
+        <v>174</v>
+      </c>
+      <c r="N79" t="s">
         <v>175</v>
-      </c>
-      <c r="N79" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="80" spans="1:14">
       <c r="A80" s="1">
         <v>79</v>
       </c>
+      <c r="G80" t="s">
+        <v>363</v>
+      </c>
       <c r="I80" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J80" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K80" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="L80" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M80" t="s">
+        <v>176</v>
+      </c>
+      <c r="N80" t="s">
         <v>177</v>
-      </c>
-      <c r="N80" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="81" spans="1:14">
       <c r="A81" s="1">
         <v>80</v>
       </c>
+      <c r="G81" t="s">
+        <v>363</v>
+      </c>
       <c r="I81" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J81" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K81" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="L81" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M81" t="s">
+        <v>178</v>
+      </c>
+      <c r="N81" t="s">
         <v>179</v>
-      </c>
-      <c r="N81" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="82" spans="1:14">
       <c r="A82" s="1">
         <v>81</v>
       </c>
+      <c r="G82" t="s">
+        <v>363</v>
+      </c>
       <c r="I82" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J82" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K82" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="L82" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M82" t="s">
+        <v>180</v>
+      </c>
+      <c r="N82" t="s">
         <v>181</v>
-      </c>
-      <c r="N82" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="83" spans="1:14">
       <c r="A83" s="1">
         <v>82</v>
       </c>
+      <c r="G83" t="s">
+        <v>363</v>
+      </c>
       <c r="I83" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J83" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K83" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="L83" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M83" t="s">
+        <v>182</v>
+      </c>
+      <c r="N83" t="s">
         <v>183</v>
-      </c>
-      <c r="N83" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="84" spans="1:14">
       <c r="A84" s="1">
         <v>83</v>
       </c>
+      <c r="G84" t="s">
+        <v>363</v>
+      </c>
       <c r="I84" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J84" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K84" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="L84" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M84" t="s">
+        <v>184</v>
+      </c>
+      <c r="N84" t="s">
         <v>185</v>
-      </c>
-      <c r="N84" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="85" spans="1:14">
       <c r="A85" s="1">
         <v>84</v>
       </c>
+      <c r="G85" t="s">
+        <v>363</v>
+      </c>
       <c r="I85" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J85" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K85" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="L85" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M85" t="s">
+        <v>186</v>
+      </c>
+      <c r="N85" t="s">
         <v>187</v>
-      </c>
-      <c r="N85" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="86" spans="1:14">
       <c r="A86" s="1">
         <v>85</v>
       </c>
+      <c r="G86" t="s">
+        <v>363</v>
+      </c>
       <c r="I86" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J86" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K86" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="L86" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M86" t="s">
+        <v>188</v>
+      </c>
+      <c r="N86" t="s">
         <v>189</v>
-      </c>
-      <c r="N86" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="87" spans="1:14">
       <c r="A87" s="1">
         <v>86</v>
       </c>
+      <c r="G87" t="s">
+        <v>363</v>
+      </c>
       <c r="I87" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J87" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K87" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="L87" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M87" t="s">
+        <v>190</v>
+      </c>
+      <c r="N87" t="s">
         <v>191</v>
-      </c>
-      <c r="N87" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="88" spans="1:14">
       <c r="A88" s="1">
         <v>87</v>
       </c>
+      <c r="G88" t="s">
+        <v>363</v>
+      </c>
       <c r="I88" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J88" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K88" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="L88" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M88" t="s">
+        <v>192</v>
+      </c>
+      <c r="N88" t="s">
         <v>193</v>
-      </c>
-      <c r="N88" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="89" spans="1:14">
       <c r="A89" s="1">
         <v>88</v>
       </c>
+      <c r="G89" t="s">
+        <v>363</v>
+      </c>
       <c r="I89" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J89" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K89" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="L89" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M89" t="s">
+        <v>194</v>
+      </c>
+      <c r="N89" t="s">
         <v>195</v>
-      </c>
-      <c r="N89" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="90" spans="1:14">
       <c r="A90" s="1">
         <v>89</v>
       </c>
+      <c r="G90" t="s">
+        <v>363</v>
+      </c>
       <c r="I90" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J90" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K90" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="L90" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M90" t="s">
+        <v>196</v>
+      </c>
+      <c r="N90" t="s">
         <v>197</v>
-      </c>
-      <c r="N90" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="91" spans="1:14">
       <c r="A91" s="1">
         <v>90</v>
       </c>
+      <c r="G91" t="s">
+        <v>363</v>
+      </c>
       <c r="I91" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J91" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K91" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="L91" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M91" t="s">
+        <v>198</v>
+      </c>
+      <c r="N91" t="s">
         <v>199</v>
-      </c>
-      <c r="N91" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="92" spans="1:14">
       <c r="A92" s="1">
         <v>91</v>
       </c>
+      <c r="G92" t="s">
+        <v>363</v>
+      </c>
       <c r="I92" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J92" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K92" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="L92" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M92" t="s">
+        <v>200</v>
+      </c>
+      <c r="N92" t="s">
         <v>201</v>
-      </c>
-      <c r="N92" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="93" spans="1:14">
       <c r="A93" s="1">
         <v>92</v>
       </c>
+      <c r="G93" t="s">
+        <v>363</v>
+      </c>
       <c r="I93" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J93" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K93" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="L93" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M93" t="s">
+        <v>202</v>
+      </c>
+      <c r="N93" t="s">
         <v>203</v>
-      </c>
-      <c r="N93" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="94" spans="1:14">
       <c r="A94" s="1">
         <v>93</v>
       </c>
+      <c r="G94" t="s">
+        <v>363</v>
+      </c>
       <c r="I94" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J94" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K94" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="L94" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M94" t="s">
+        <v>204</v>
+      </c>
+      <c r="N94" t="s">
         <v>205</v>
-      </c>
-      <c r="N94" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="95" spans="1:14">
       <c r="A95" s="1">
         <v>94</v>
       </c>
+      <c r="G95" t="s">
+        <v>363</v>
+      </c>
       <c r="I95" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J95" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K95" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="L95" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M95" t="s">
+        <v>206</v>
+      </c>
+      <c r="N95" t="s">
         <v>207</v>
-      </c>
-      <c r="N95" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="96" spans="1:14">
       <c r="A96" s="1">
         <v>95</v>
       </c>
+      <c r="G96" t="s">
+        <v>363</v>
+      </c>
       <c r="I96" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J96" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K96" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="L96" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M96" t="s">
+        <v>208</v>
+      </c>
+      <c r="N96" t="s">
         <v>209</v>
-      </c>
-      <c r="N96" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="97" spans="1:14">
       <c r="A97" s="1">
         <v>96</v>
       </c>
+      <c r="G97" t="s">
+        <v>363</v>
+      </c>
       <c r="I97" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J97" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K97" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="L97" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M97" t="s">
+        <v>210</v>
+      </c>
+      <c r="N97" t="s">
         <v>211</v>
-      </c>
-      <c r="N97" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="98" spans="1:14">
       <c r="A98" s="1">
         <v>97</v>
       </c>
+      <c r="G98" t="s">
+        <v>363</v>
+      </c>
       <c r="I98" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J98" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K98" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="L98" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M98" t="s">
+        <v>212</v>
+      </c>
+      <c r="N98" t="s">
         <v>213</v>
-      </c>
-      <c r="N98" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="99" spans="1:14">
       <c r="A99" s="1">
         <v>98</v>
       </c>
+      <c r="G99" t="s">
+        <v>363</v>
+      </c>
       <c r="I99" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J99" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K99" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="L99" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M99" t="s">
+        <v>214</v>
+      </c>
+      <c r="N99" t="s">
         <v>215</v>
-      </c>
-      <c r="N99" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="100" spans="1:14">
       <c r="A100" s="1">
         <v>99</v>
       </c>
+      <c r="G100" t="s">
+        <v>363</v>
+      </c>
       <c r="I100" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J100" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K100" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="L100" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M100" t="s">
+        <v>216</v>
+      </c>
+      <c r="N100" t="s">
         <v>217</v>
-      </c>
-      <c r="N100" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="101" spans="1:14">
       <c r="A101" s="1">
         <v>100</v>
       </c>
+      <c r="G101" t="s">
+        <v>363</v>
+      </c>
       <c r="I101" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J101" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K101" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="L101" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M101" t="s">
+        <v>218</v>
+      </c>
+      <c r="N101" t="s">
         <v>219</v>
-      </c>
-      <c r="N101" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="102" spans="1:14">
       <c r="A102" s="1">
         <v>101</v>
       </c>
+      <c r="G102" t="s">
+        <v>363</v>
+      </c>
       <c r="I102" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J102" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K102" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="L102" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M102" t="s">
+        <v>220</v>
+      </c>
+      <c r="N102" t="s">
         <v>221</v>
-      </c>
-      <c r="N102" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="103" spans="1:14">
       <c r="A103" s="1">
         <v>102</v>
       </c>
+      <c r="G103" t="s">
+        <v>363</v>
+      </c>
       <c r="I103" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J103" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K103" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="L103" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M103" t="s">
+        <v>222</v>
+      </c>
+      <c r="N103" t="s">
         <v>223</v>
-      </c>
-      <c r="N103" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="104" spans="1:14">
       <c r="A104" s="1">
         <v>103</v>
       </c>
+      <c r="G104" t="s">
+        <v>363</v>
+      </c>
       <c r="I104" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J104" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K104" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="L104" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M104" t="s">
+        <v>224</v>
+      </c>
+      <c r="N104" t="s">
         <v>225</v>
-      </c>
-      <c r="N104" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="105" spans="1:14">
       <c r="A105" s="1">
         <v>104</v>
       </c>
+      <c r="G105" t="s">
+        <v>363</v>
+      </c>
       <c r="I105" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J105" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K105" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="L105" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M105" t="s">
+        <v>226</v>
+      </c>
+      <c r="N105" t="s">
         <v>227</v>
-      </c>
-      <c r="N105" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="106" spans="1:14">
       <c r="A106" s="1">
         <v>105</v>
       </c>
+      <c r="G106" t="s">
+        <v>363</v>
+      </c>
       <c r="I106" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J106" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K106" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="L106" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M106" t="s">
+        <v>228</v>
+      </c>
+      <c r="N106" t="s">
         <v>229</v>
-      </c>
-      <c r="N106" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="107" spans="1:14">
       <c r="A107" s="1">
         <v>106</v>
       </c>
+      <c r="G107" t="s">
+        <v>363</v>
+      </c>
       <c r="I107" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J107" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K107" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="L107" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M107" t="s">
+        <v>230</v>
+      </c>
+      <c r="N107" t="s">
         <v>231</v>
-      </c>
-      <c r="N107" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="108" spans="1:14">
       <c r="A108" s="1">
         <v>107</v>
       </c>
+      <c r="G108" t="s">
+        <v>363</v>
+      </c>
       <c r="I108" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J108" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K108" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="L108" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M108" t="s">
+        <v>232</v>
+      </c>
+      <c r="N108" t="s">
         <v>233</v>
-      </c>
-      <c r="N108" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="109" spans="1:14">
       <c r="A109" s="1">
         <v>108</v>
       </c>
+      <c r="G109" t="s">
+        <v>363</v>
+      </c>
       <c r="I109" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J109" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K109" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="L109" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M109" t="s">
+        <v>234</v>
+      </c>
+      <c r="N109" t="s">
         <v>235</v>
-      </c>
-      <c r="N109" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="110" spans="1:14">
       <c r="A110" s="1">
         <v>109</v>
       </c>
+      <c r="G110" t="s">
+        <v>363</v>
+      </c>
       <c r="I110" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J110" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K110" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="L110" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M110" t="s">
+        <v>236</v>
+      </c>
+      <c r="N110" t="s">
         <v>237</v>
-      </c>
-      <c r="N110" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="111" spans="1:14">
       <c r="A111" s="1">
         <v>110</v>
       </c>
+      <c r="G111" t="s">
+        <v>363</v>
+      </c>
       <c r="I111" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J111" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K111" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="L111" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M111" t="s">
+        <v>238</v>
+      </c>
+      <c r="N111" t="s">
         <v>239</v>
-      </c>
-      <c r="N111" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="112" spans="1:14">
       <c r="A112" s="1">
         <v>111</v>
       </c>
+      <c r="G112" t="s">
+        <v>363</v>
+      </c>
       <c r="I112" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J112" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K112" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="L112" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M112" t="s">
+        <v>240</v>
+      </c>
+      <c r="N112" t="s">
         <v>241</v>
-      </c>
-      <c r="N112" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="113" spans="1:14">
       <c r="A113" s="1">
         <v>112</v>
       </c>
+      <c r="G113" t="s">
+        <v>363</v>
+      </c>
       <c r="I113" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J113" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K113" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="L113" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M113" t="s">
+        <v>242</v>
+      </c>
+      <c r="N113" t="s">
         <v>243</v>
-      </c>
-      <c r="N113" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="114" spans="1:14">
       <c r="A114" s="1">
         <v>113</v>
       </c>
+      <c r="G114" t="s">
+        <v>363</v>
+      </c>
       <c r="I114" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J114" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K114" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="L114" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M114" t="s">
+        <v>244</v>
+      </c>
+      <c r="N114" t="s">
         <v>245</v>
-      </c>
-      <c r="N114" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="115" spans="1:14">
       <c r="A115" s="1">
         <v>114</v>
       </c>
+      <c r="G115" t="s">
+        <v>363</v>
+      </c>
       <c r="I115" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J115" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K115" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="L115" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M115" t="s">
+        <v>246</v>
+      </c>
+      <c r="N115" t="s">
         <v>247</v>
-      </c>
-      <c r="N115" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="116" spans="1:14">
       <c r="A116" s="1">
         <v>115</v>
       </c>
+      <c r="G116" t="s">
+        <v>363</v>
+      </c>
       <c r="I116" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J116" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K116" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="L116" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M116" t="s">
+        <v>248</v>
+      </c>
+      <c r="N116" t="s">
         <v>249</v>
-      </c>
-      <c r="N116" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="117" spans="1:14">
       <c r="A117" s="1">
         <v>116</v>
       </c>
+      <c r="G117" t="s">
+        <v>363</v>
+      </c>
       <c r="I117" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J117" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K117" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="L117" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M117" t="s">
+        <v>250</v>
+      </c>
+      <c r="N117" t="s">
         <v>251</v>
-      </c>
-      <c r="N117" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="118" spans="1:14">
       <c r="A118" s="1">
         <v>117</v>
       </c>
+      <c r="G118" t="s">
+        <v>363</v>
+      </c>
       <c r="I118" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J118" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K118" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="L118" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M118" t="s">
+        <v>252</v>
+      </c>
+      <c r="N118" t="s">
         <v>253</v>
-      </c>
-      <c r="N118" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="119" spans="1:14">
       <c r="A119" s="1">
         <v>118</v>
       </c>
+      <c r="G119" t="s">
+        <v>363</v>
+      </c>
       <c r="I119" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J119" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K119" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="L119" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M119" t="s">
+        <v>254</v>
+      </c>
+      <c r="N119" t="s">
         <v>255</v>
-      </c>
-      <c r="N119" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="120" spans="1:14">
       <c r="A120" s="1">
         <v>119</v>
       </c>
+      <c r="G120" t="s">
+        <v>363</v>
+      </c>
       <c r="I120" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J120" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K120" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="L120" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M120" t="s">
+        <v>256</v>
+      </c>
+      <c r="N120" t="s">
         <v>257</v>
-      </c>
-      <c r="N120" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="121" spans="1:14">
       <c r="A121" s="1">
         <v>120</v>
       </c>
+      <c r="G121" t="s">
+        <v>363</v>
+      </c>
       <c r="I121" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J121" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K121" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="L121" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M121" t="s">
+        <v>258</v>
+      </c>
+      <c r="N121" t="s">
         <v>259</v>
-      </c>
-      <c r="N121" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="122" spans="1:14">
       <c r="A122" s="1">
         <v>121</v>
       </c>
+      <c r="G122" t="s">
+        <v>363</v>
+      </c>
       <c r="I122" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J122" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K122" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="L122" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M122" t="s">
+        <v>260</v>
+      </c>
+      <c r="N122" t="s">
         <v>261</v>
-      </c>
-      <c r="N122" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="123" spans="1:14">
       <c r="A123" s="1">
         <v>122</v>
       </c>
+      <c r="G123" t="s">
+        <v>363</v>
+      </c>
       <c r="I123" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J123" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K123" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="L123" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M123" t="s">
+        <v>262</v>
+      </c>
+      <c r="N123" t="s">
         <v>263</v>
-      </c>
-      <c r="N123" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="124" spans="1:14">
       <c r="A124" s="1">
         <v>123</v>
       </c>
+      <c r="G124" t="s">
+        <v>363</v>
+      </c>
       <c r="I124" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J124" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K124" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="L124" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M124" t="s">
+        <v>264</v>
+      </c>
+      <c r="N124" t="s">
         <v>265</v>
-      </c>
-      <c r="N124" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="125" spans="1:14">
       <c r="A125" s="1">
         <v>124</v>
       </c>
+      <c r="G125" t="s">
+        <v>363</v>
+      </c>
       <c r="I125" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J125" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K125" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="L125" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M125" t="s">
+        <v>266</v>
+      </c>
+      <c r="N125" t="s">
         <v>267</v>
-      </c>
-      <c r="N125" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="126" spans="1:14">
       <c r="A126" s="1">
         <v>125</v>
       </c>
+      <c r="G126" t="s">
+        <v>363</v>
+      </c>
       <c r="I126" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J126" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K126" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="L126" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M126" t="s">
+        <v>268</v>
+      </c>
+      <c r="N126" t="s">
         <v>269</v>
-      </c>
-      <c r="N126" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="127" spans="1:14">
       <c r="A127" s="1">
         <v>126</v>
       </c>
+      <c r="G127" t="s">
+        <v>363</v>
+      </c>
       <c r="I127" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J127" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K127" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="L127" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M127" t="s">
+        <v>270</v>
+      </c>
+      <c r="N127" t="s">
         <v>271</v>
-      </c>
-      <c r="N127" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="128" spans="1:14">
       <c r="A128" s="1">
         <v>127</v>
       </c>
+      <c r="G128" t="s">
+        <v>363</v>
+      </c>
       <c r="I128" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J128" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K128" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="L128" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M128" t="s">
+        <v>272</v>
+      </c>
+      <c r="N128" t="s">
         <v>273</v>
-      </c>
-      <c r="N128" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="129" spans="1:14">
       <c r="A129" s="1">
         <v>128</v>
       </c>
+      <c r="G129" t="s">
+        <v>363</v>
+      </c>
       <c r="I129" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J129" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K129" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="L129" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M129" t="s">
+        <v>274</v>
+      </c>
+      <c r="N129" t="s">
         <v>275</v>
-      </c>
-      <c r="N129" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="130" spans="1:14">
       <c r="A130" s="1">
         <v>129</v>
       </c>
+      <c r="G130" t="s">
+        <v>363</v>
+      </c>
       <c r="I130" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J130" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K130" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="L130" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M130" t="s">
+        <v>276</v>
+      </c>
+      <c r="N130" t="s">
         <v>277</v>
-      </c>
-      <c r="N130" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="131" spans="1:14">
       <c r="A131" s="1">
         <v>130</v>
       </c>
+      <c r="G131" t="s">
+        <v>363</v>
+      </c>
       <c r="I131" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J131" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K131" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="L131" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M131" t="s">
+        <v>278</v>
+      </c>
+      <c r="N131" t="s">
         <v>279</v>
-      </c>
-      <c r="N131" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="132" spans="1:14">
       <c r="A132" s="1">
         <v>131</v>
       </c>
+      <c r="G132" t="s">
+        <v>363</v>
+      </c>
       <c r="I132" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J132" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K132" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="L132" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M132" t="s">
+        <v>280</v>
+      </c>
+      <c r="N132" t="s">
         <v>281</v>
-      </c>
-      <c r="N132" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="133" spans="1:14">
       <c r="A133" s="1">
         <v>132</v>
       </c>
+      <c r="G133" t="s">
+        <v>363</v>
+      </c>
       <c r="I133" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J133" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K133" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="L133" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M133" t="s">
+        <v>282</v>
+      </c>
+      <c r="N133" t="s">
         <v>283</v>
-      </c>
-      <c r="N133" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="134" spans="1:14">
       <c r="A134" s="1">
         <v>133</v>
       </c>
+      <c r="G134" t="s">
+        <v>363</v>
+      </c>
       <c r="I134" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J134" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K134" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="L134" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M134" t="s">
+        <v>284</v>
+      </c>
+      <c r="N134" t="s">
         <v>285</v>
-      </c>
-      <c r="N134" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="135" spans="1:14">
       <c r="A135" s="1">
         <v>134</v>
       </c>
+      <c r="G135" t="s">
+        <v>363</v>
+      </c>
       <c r="I135" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J135" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K135" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="L135" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M135" t="s">
+        <v>286</v>
+      </c>
+      <c r="N135" t="s">
         <v>287</v>
-      </c>
-      <c r="N135" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="136" spans="1:14">
       <c r="A136" s="1">
         <v>135</v>
       </c>
+      <c r="G136" t="s">
+        <v>363</v>
+      </c>
       <c r="I136" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J136" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K136" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="L136" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M136" t="s">
+        <v>288</v>
+      </c>
+      <c r="N136" t="s">
         <v>289</v>
-      </c>
-      <c r="N136" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="137" spans="1:14">
       <c r="A137" s="1">
         <v>136</v>
       </c>
+      <c r="G137" t="s">
+        <v>363</v>
+      </c>
       <c r="I137" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J137" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K137" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="L137" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M137" t="s">
+        <v>290</v>
+      </c>
+      <c r="N137" t="s">
         <v>291</v>
-      </c>
-      <c r="N137" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="138" spans="1:14">
       <c r="A138" s="1">
         <v>137</v>
       </c>
+      <c r="G138" t="s">
+        <v>363</v>
+      </c>
       <c r="I138" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J138" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K138" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="L138" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M138" t="s">
+        <v>292</v>
+      </c>
+      <c r="N138" t="s">
         <v>293</v>
-      </c>
-      <c r="N138" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="139" spans="1:14">
       <c r="A139" s="1">
         <v>138</v>
       </c>
+      <c r="G139" t="s">
+        <v>363</v>
+      </c>
       <c r="I139" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J139" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K139" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="L139" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M139" t="s">
+        <v>294</v>
+      </c>
+      <c r="N139" t="s">
         <v>295</v>
-      </c>
-      <c r="N139" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="140" spans="1:14">
       <c r="A140" s="1">
         <v>139</v>
       </c>
+      <c r="G140" t="s">
+        <v>363</v>
+      </c>
       <c r="I140" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J140" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K140" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="L140" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M140" t="s">
+        <v>296</v>
+      </c>
+      <c r="N140" t="s">
         <v>297</v>
-      </c>
-      <c r="N140" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="141" spans="1:14">
       <c r="A141" s="1">
         <v>140</v>
       </c>
+      <c r="G141" t="s">
+        <v>363</v>
+      </c>
       <c r="I141" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J141" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K141" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="L141" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M141" t="s">
+        <v>298</v>
+      </c>
+      <c r="N141" t="s">
         <v>299</v>
-      </c>
-      <c r="N141" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="142" spans="1:14">
       <c r="A142" s="1">
         <v>141</v>
       </c>
+      <c r="G142" t="s">
+        <v>363</v>
+      </c>
       <c r="I142" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J142" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K142" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="L142" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M142" t="s">
+        <v>300</v>
+      </c>
+      <c r="N142" t="s">
         <v>301</v>
-      </c>
-      <c r="N142" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="143" spans="1:14">
       <c r="A143" s="1">
         <v>142</v>
       </c>
+      <c r="G143" t="s">
+        <v>363</v>
+      </c>
       <c r="I143" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J143" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K143" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="L143" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M143" t="s">
+        <v>302</v>
+      </c>
+      <c r="N143" t="s">
         <v>303</v>
-      </c>
-      <c r="N143" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="144" spans="1:14">
       <c r="A144" s="1">
         <v>143</v>
       </c>
+      <c r="G144" t="s">
+        <v>363</v>
+      </c>
       <c r="I144" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J144" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K144" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="L144" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M144" t="s">
+        <v>304</v>
+      </c>
+      <c r="N144" t="s">
         <v>305</v>
-      </c>
-      <c r="N144" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="145" spans="1:14">
       <c r="A145" s="1">
         <v>144</v>
       </c>
+      <c r="G145" t="s">
+        <v>363</v>
+      </c>
       <c r="I145" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J145" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K145" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="L145" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M145" t="s">
+        <v>306</v>
+      </c>
+      <c r="N145" t="s">
         <v>307</v>
-      </c>
-      <c r="N145" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="146" spans="1:14">
       <c r="A146" s="1">
         <v>145</v>
       </c>
+      <c r="G146" t="s">
+        <v>363</v>
+      </c>
       <c r="I146" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J146" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K146" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="L146" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M146" t="s">
+        <v>308</v>
+      </c>
+      <c r="N146" t="s">
         <v>309</v>
-      </c>
-      <c r="N146" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="147" spans="1:14">
       <c r="A147" s="1">
         <v>146</v>
       </c>
+      <c r="G147" t="s">
+        <v>363</v>
+      </c>
       <c r="I147" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J147" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K147" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="L147" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M147" t="s">
+        <v>310</v>
+      </c>
+      <c r="N147" t="s">
         <v>311</v>
-      </c>
-      <c r="N147" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="148" spans="1:14">
       <c r="A148" s="1">
         <v>147</v>
       </c>
+      <c r="G148" t="s">
+        <v>363</v>
+      </c>
       <c r="I148" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J148" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K148" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="L148" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M148" t="s">
+        <v>312</v>
+      </c>
+      <c r="N148" t="s">
         <v>313</v>
-      </c>
-      <c r="N148" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="149" spans="1:14">
       <c r="A149" s="1">
         <v>148</v>
       </c>
+      <c r="G149" t="s">
+        <v>363</v>
+      </c>
       <c r="I149" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J149" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K149" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="L149" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M149" t="s">
+        <v>314</v>
+      </c>
+      <c r="N149" t="s">
         <v>315</v>
-      </c>
-      <c r="N149" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="150" spans="1:14">
       <c r="A150" s="1">
         <v>149</v>
       </c>
+      <c r="G150" t="s">
+        <v>363</v>
+      </c>
       <c r="I150" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J150" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K150" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="L150" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M150" t="s">
+        <v>316</v>
+      </c>
+      <c r="N150" t="s">
         <v>317</v>
-      </c>
-      <c r="N150" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="151" spans="1:14">
       <c r="A151" s="1">
         <v>150</v>
       </c>
+      <c r="G151" t="s">
+        <v>363</v>
+      </c>
       <c r="I151" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J151" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K151" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="L151" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M151" t="s">
+        <v>318</v>
+      </c>
+      <c r="N151" t="s">
         <v>319</v>
-      </c>
-      <c r="N151" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="152" spans="1:14">
       <c r="A152" s="1">
         <v>151</v>
       </c>
+      <c r="G152" t="s">
+        <v>363</v>
+      </c>
       <c r="I152" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J152" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K152" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="L152" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M152" t="s">
+        <v>320</v>
+      </c>
+      <c r="N152" t="s">
         <v>321</v>
-      </c>
-      <c r="N152" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="153" spans="1:14">
       <c r="A153" s="1">
         <v>152</v>
       </c>
+      <c r="G153" t="s">
+        <v>363</v>
+      </c>
       <c r="I153" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J153" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K153" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="L153" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M153" t="s">
+        <v>322</v>
+      </c>
+      <c r="N153" t="s">
         <v>323</v>
-      </c>
-      <c r="N153" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="154" spans="1:14">
       <c r="A154" s="1">
         <v>153</v>
       </c>
+      <c r="G154" t="s">
+        <v>363</v>
+      </c>
       <c r="I154" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J154" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K154" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="L154" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M154" t="s">
+        <v>324</v>
+      </c>
+      <c r="N154" t="s">
         <v>325</v>
-      </c>
-      <c r="N154" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="155" spans="1:14">
       <c r="A155" s="1">
         <v>154</v>
       </c>
+      <c r="G155" t="s">
+        <v>363</v>
+      </c>
       <c r="I155" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J155" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K155" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="L155" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M155" t="s">
+        <v>326</v>
+      </c>
+      <c r="N155" t="s">
         <v>327</v>
-      </c>
-      <c r="N155" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="156" spans="1:14">
       <c r="A156" s="1">
         <v>155</v>
       </c>
+      <c r="G156" t="s">
+        <v>363</v>
+      </c>
       <c r="I156" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J156" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K156" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="L156" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M156" t="s">
+        <v>328</v>
+      </c>
+      <c r="N156" t="s">
         <v>329</v>
-      </c>
-      <c r="N156" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="157" spans="1:14">
       <c r="A157" s="1">
         <v>156</v>
       </c>
+      <c r="G157" t="s">
+        <v>363</v>
+      </c>
       <c r="I157" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J157" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K157" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="L157" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M157" t="s">
+        <v>330</v>
+      </c>
+      <c r="N157" t="s">
         <v>331</v>
-      </c>
-      <c r="N157" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="158" spans="1:14">
       <c r="A158" s="1">
         <v>157</v>
       </c>
+      <c r="G158" t="s">
+        <v>363</v>
+      </c>
       <c r="I158" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J158" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K158" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="L158" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M158" t="s">
+        <v>332</v>
+      </c>
+      <c r="N158" t="s">
         <v>333</v>
       </c>
-      <c r="N158" t="s">
-        <v>334</v>
+    </row>
+    <row r="159" spans="1:14">
+      <c r="A159" s="1">
+        <v>158</v>
+      </c>
+      <c r="G159" t="s">
+        <v>446</v>
+      </c>
+      <c r="I159" t="s">
+        <v>364</v>
+      </c>
+      <c r="J159" t="s">
+        <v>365</v>
+      </c>
+      <c r="K159" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="L159" t="s">
+        <v>16</v>
+      </c>
+      <c r="M159" t="s">
+        <v>367</v>
+      </c>
+      <c r="N159" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="160" spans="1:14">
+      <c r="A160" s="1">
+        <v>159</v>
+      </c>
+      <c r="G160" t="s">
+        <v>446</v>
+      </c>
+      <c r="I160" t="s">
+        <v>364</v>
+      </c>
+      <c r="J160" t="s">
+        <v>365</v>
+      </c>
+      <c r="K160" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="L160" t="s">
+        <v>16</v>
+      </c>
+      <c r="M160" t="s">
+        <v>369</v>
+      </c>
+      <c r="N160" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="161" spans="1:14">
+      <c r="A161" s="1">
+        <v>160</v>
+      </c>
+      <c r="G161" t="s">
+        <v>446</v>
+      </c>
+      <c r="I161" t="s">
+        <v>364</v>
+      </c>
+      <c r="J161" t="s">
+        <v>365</v>
+      </c>
+      <c r="K161" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="L161" t="s">
+        <v>16</v>
+      </c>
+      <c r="M161" t="s">
+        <v>370</v>
+      </c>
+      <c r="N161" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="162" spans="1:14">
+      <c r="A162" s="1">
+        <v>161</v>
+      </c>
+      <c r="G162" t="s">
+        <v>446</v>
+      </c>
+      <c r="I162" t="s">
+        <v>364</v>
+      </c>
+      <c r="J162" t="s">
+        <v>365</v>
+      </c>
+      <c r="K162" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="L162" t="s">
+        <v>16</v>
+      </c>
+      <c r="M162" t="s">
+        <v>372</v>
+      </c>
+      <c r="N162" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="163" spans="1:14">
+      <c r="A163" s="1">
+        <v>162</v>
+      </c>
+      <c r="G163" t="s">
+        <v>446</v>
+      </c>
+      <c r="I163" t="s">
+        <v>364</v>
+      </c>
+      <c r="J163" t="s">
+        <v>365</v>
+      </c>
+      <c r="K163" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="L163" t="s">
+        <v>16</v>
+      </c>
+      <c r="M163" t="s">
+        <v>375</v>
+      </c>
+      <c r="N163" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="164" spans="1:14">
+      <c r="A164" s="1">
+        <v>163</v>
+      </c>
+      <c r="G164" t="s">
+        <v>446</v>
+      </c>
+      <c r="I164" t="s">
+        <v>364</v>
+      </c>
+      <c r="J164" t="s">
+        <v>365</v>
+      </c>
+      <c r="K164" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="L164" t="s">
+        <v>16</v>
+      </c>
+      <c r="M164" t="s">
+        <v>377</v>
+      </c>
+      <c r="N164" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="165" spans="1:14">
+      <c r="A165" s="1">
+        <v>164</v>
+      </c>
+      <c r="G165" t="s">
+        <v>446</v>
+      </c>
+      <c r="I165" t="s">
+        <v>364</v>
+      </c>
+      <c r="J165" t="s">
+        <v>365</v>
+      </c>
+      <c r="K165" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="L165" t="s">
+        <v>16</v>
+      </c>
+      <c r="M165" t="s">
+        <v>369</v>
+      </c>
+      <c r="N165" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="166" spans="1:14">
+      <c r="A166" s="1">
+        <v>165</v>
+      </c>
+      <c r="G166" t="s">
+        <v>446</v>
+      </c>
+      <c r="I166" t="s">
+        <v>364</v>
+      </c>
+      <c r="J166" t="s">
+        <v>365</v>
+      </c>
+      <c r="K166" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="L166" t="s">
+        <v>16</v>
+      </c>
+      <c r="M166" t="s">
+        <v>379</v>
+      </c>
+      <c r="N166" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="167" spans="1:14">
+      <c r="A167" s="1">
+        <v>166</v>
+      </c>
+      <c r="G167" t="s">
+        <v>446</v>
+      </c>
+      <c r="I167" t="s">
+        <v>364</v>
+      </c>
+      <c r="J167" t="s">
+        <v>365</v>
+      </c>
+      <c r="K167" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="L167" t="s">
+        <v>16</v>
+      </c>
+      <c r="M167" t="s">
+        <v>372</v>
+      </c>
+      <c r="N167" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="168" spans="1:14">
+      <c r="A168" s="1">
+        <v>167</v>
+      </c>
+      <c r="G168" t="s">
+        <v>446</v>
+      </c>
+      <c r="I168" t="s">
+        <v>364</v>
+      </c>
+      <c r="J168" t="s">
+        <v>365</v>
+      </c>
+      <c r="K168" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="L168" t="s">
+        <v>16</v>
+      </c>
+      <c r="M168" t="s">
+        <v>382</v>
+      </c>
+      <c r="N168" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="169" spans="1:14">
+      <c r="A169" s="1">
+        <v>168</v>
+      </c>
+      <c r="G169" t="s">
+        <v>446</v>
+      </c>
+      <c r="I169" t="s">
+        <v>364</v>
+      </c>
+      <c r="J169" t="s">
+        <v>365</v>
+      </c>
+      <c r="K169" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="L169" t="s">
+        <v>16</v>
+      </c>
+      <c r="M169" t="s">
+        <v>384</v>
+      </c>
+      <c r="N169" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="170" spans="1:14">
+      <c r="A170" s="1">
+        <v>169</v>
+      </c>
+      <c r="G170" t="s">
+        <v>446</v>
+      </c>
+      <c r="I170" t="s">
+        <v>364</v>
+      </c>
+      <c r="J170" t="s">
+        <v>365</v>
+      </c>
+      <c r="K170" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="L170" t="s">
+        <v>16</v>
+      </c>
+      <c r="M170" t="s">
+        <v>372</v>
+      </c>
+      <c r="N170" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="171" spans="1:14">
+      <c r="A171" s="1">
+        <v>170</v>
+      </c>
+      <c r="G171" t="s">
+        <v>446</v>
+      </c>
+      <c r="I171" t="s">
+        <v>364</v>
+      </c>
+      <c r="J171" t="s">
+        <v>365</v>
+      </c>
+      <c r="K171" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="L171" t="s">
+        <v>16</v>
+      </c>
+      <c r="M171" t="s">
+        <v>386</v>
+      </c>
+      <c r="N171" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="172" spans="1:14">
+      <c r="A172" s="1">
+        <v>171</v>
+      </c>
+      <c r="G172" t="s">
+        <v>446</v>
+      </c>
+      <c r="I172" t="s">
+        <v>364</v>
+      </c>
+      <c r="J172" t="s">
+        <v>365</v>
+      </c>
+      <c r="K172" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="L172" t="s">
+        <v>16</v>
+      </c>
+      <c r="M172" t="s">
+        <v>388</v>
+      </c>
+      <c r="N172" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="173" spans="1:14">
+      <c r="A173" s="1">
+        <v>172</v>
+      </c>
+      <c r="G173" t="s">
+        <v>446</v>
+      </c>
+      <c r="I173" t="s">
+        <v>364</v>
+      </c>
+      <c r="J173" t="s">
+        <v>365</v>
+      </c>
+      <c r="K173" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="L173" t="s">
+        <v>16</v>
+      </c>
+      <c r="M173" t="s">
+        <v>390</v>
+      </c>
+      <c r="N173" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="174" spans="1:14">
+      <c r="A174" s="1">
+        <v>173</v>
+      </c>
+      <c r="G174" t="s">
+        <v>446</v>
+      </c>
+      <c r="I174" t="s">
+        <v>364</v>
+      </c>
+      <c r="J174" t="s">
+        <v>365</v>
+      </c>
+      <c r="K174" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="L174" t="s">
+        <v>16</v>
+      </c>
+      <c r="M174" t="s">
+        <v>392</v>
+      </c>
+      <c r="N174" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="175" spans="1:14">
+      <c r="A175" s="1">
+        <v>174</v>
+      </c>
+      <c r="G175" t="s">
+        <v>446</v>
+      </c>
+      <c r="I175" t="s">
+        <v>364</v>
+      </c>
+      <c r="J175" t="s">
+        <v>365</v>
+      </c>
+      <c r="K175" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="L175" t="s">
+        <v>16</v>
+      </c>
+      <c r="M175" t="s">
+        <v>395</v>
+      </c>
+      <c r="N175" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="176" spans="1:14">
+      <c r="A176" s="1">
+        <v>175</v>
+      </c>
+      <c r="G176" t="s">
+        <v>446</v>
+      </c>
+      <c r="I176" t="s">
+        <v>364</v>
+      </c>
+      <c r="J176" t="s">
+        <v>365</v>
+      </c>
+      <c r="K176" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="L176" t="s">
+        <v>16</v>
+      </c>
+      <c r="M176" t="s">
+        <v>398</v>
+      </c>
+      <c r="N176" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="177" spans="1:14">
+      <c r="A177" s="1">
+        <v>176</v>
+      </c>
+      <c r="G177" t="s">
+        <v>446</v>
+      </c>
+      <c r="I177" t="s">
+        <v>364</v>
+      </c>
+      <c r="J177" t="s">
+        <v>365</v>
+      </c>
+      <c r="K177" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="L177" t="s">
+        <v>16</v>
+      </c>
+      <c r="M177" t="s">
+        <v>401</v>
+      </c>
+      <c r="N177" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="178" spans="1:14">
+      <c r="A178" s="1">
+        <v>177</v>
+      </c>
+      <c r="G178" t="s">
+        <v>446</v>
+      </c>
+      <c r="I178" t="s">
+        <v>364</v>
+      </c>
+      <c r="J178" t="s">
+        <v>365</v>
+      </c>
+      <c r="K178" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="L178" t="s">
+        <v>16</v>
+      </c>
+      <c r="M178" t="s">
+        <v>403</v>
+      </c>
+      <c r="N178" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="179" spans="1:14">
+      <c r="A179" s="1">
+        <v>178</v>
+      </c>
+      <c r="G179" t="s">
+        <v>446</v>
+      </c>
+      <c r="I179" t="s">
+        <v>364</v>
+      </c>
+      <c r="J179" t="s">
+        <v>365</v>
+      </c>
+      <c r="K179" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="L179" t="s">
+        <v>16</v>
+      </c>
+      <c r="M179" t="s">
+        <v>395</v>
+      </c>
+      <c r="N179" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="180" spans="1:14">
+      <c r="A180" s="1">
+        <v>179</v>
+      </c>
+      <c r="G180" t="s">
+        <v>446</v>
+      </c>
+      <c r="I180" t="s">
+        <v>364</v>
+      </c>
+      <c r="J180" t="s">
+        <v>365</v>
+      </c>
+      <c r="K180" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="L180" t="s">
+        <v>16</v>
+      </c>
+      <c r="M180" t="s">
+        <v>395</v>
+      </c>
+      <c r="N180" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="181" spans="1:14">
+      <c r="A181" s="1">
+        <v>180</v>
+      </c>
+      <c r="G181" t="s">
+        <v>446</v>
+      </c>
+      <c r="I181" t="s">
+        <v>364</v>
+      </c>
+      <c r="J181" t="s">
+        <v>365</v>
+      </c>
+      <c r="K181" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="L181" t="s">
+        <v>16</v>
+      </c>
+      <c r="M181" t="s">
+        <v>398</v>
+      </c>
+      <c r="N181" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="182" spans="1:14">
+      <c r="A182" s="1">
+        <v>181</v>
+      </c>
+      <c r="G182" t="s">
+        <v>446</v>
+      </c>
+      <c r="I182" t="s">
+        <v>364</v>
+      </c>
+      <c r="J182" t="s">
+        <v>365</v>
+      </c>
+      <c r="K182" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="L182" t="s">
+        <v>16</v>
+      </c>
+      <c r="M182" t="s">
+        <v>406</v>
+      </c>
+      <c r="N182" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="183" spans="1:14">
+      <c r="A183" s="1">
+        <v>182</v>
+      </c>
+      <c r="G183" t="s">
+        <v>446</v>
+      </c>
+      <c r="I183" t="s">
+        <v>364</v>
+      </c>
+      <c r="J183" t="s">
+        <v>365</v>
+      </c>
+      <c r="K183" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="L183" t="s">
+        <v>16</v>
+      </c>
+      <c r="M183" t="s">
+        <v>382</v>
+      </c>
+      <c r="N183" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="184" spans="1:14">
+      <c r="A184" s="1">
+        <v>183</v>
+      </c>
+      <c r="G184" t="s">
+        <v>446</v>
+      </c>
+      <c r="I184" t="s">
+        <v>364</v>
+      </c>
+      <c r="J184" t="s">
+        <v>365</v>
+      </c>
+      <c r="K184" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="L184" t="s">
+        <v>16</v>
+      </c>
+      <c r="M184" t="s">
+        <v>409</v>
+      </c>
+      <c r="N184" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="185" spans="1:14">
+      <c r="A185" s="1">
+        <v>184</v>
+      </c>
+      <c r="G185" t="s">
+        <v>446</v>
+      </c>
+      <c r="I185" t="s">
+        <v>364</v>
+      </c>
+      <c r="J185" t="s">
+        <v>365</v>
+      </c>
+      <c r="K185" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="L185" t="s">
+        <v>16</v>
+      </c>
+      <c r="M185" t="s">
+        <v>411</v>
+      </c>
+      <c r="N185" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="186" spans="1:14">
+      <c r="A186" s="1">
+        <v>185</v>
+      </c>
+      <c r="G186" t="s">
+        <v>446</v>
+      </c>
+      <c r="I186" t="s">
+        <v>364</v>
+      </c>
+      <c r="J186" t="s">
+        <v>365</v>
+      </c>
+      <c r="K186" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="L186" t="s">
+        <v>16</v>
+      </c>
+      <c r="M186" t="s">
+        <v>403</v>
+      </c>
+      <c r="N186" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="187" spans="1:14">
+      <c r="A187" s="1">
+        <v>186</v>
+      </c>
+      <c r="G187" t="s">
+        <v>446</v>
+      </c>
+      <c r="I187" t="s">
+        <v>364</v>
+      </c>
+      <c r="J187" t="s">
+        <v>365</v>
+      </c>
+      <c r="K187" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="L187" t="s">
+        <v>16</v>
+      </c>
+      <c r="M187" t="s">
+        <v>414</v>
+      </c>
+      <c r="N187" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="188" spans="1:14">
+      <c r="A188" s="1">
+        <v>187</v>
+      </c>
+      <c r="G188" t="s">
+        <v>446</v>
+      </c>
+      <c r="I188" t="s">
+        <v>364</v>
+      </c>
+      <c r="J188" t="s">
+        <v>365</v>
+      </c>
+      <c r="K188" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="L188" t="s">
+        <v>16</v>
+      </c>
+      <c r="M188" t="s">
+        <v>416</v>
+      </c>
+      <c r="N188" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="189" spans="1:14">
+      <c r="A189" s="1">
+        <v>188</v>
+      </c>
+      <c r="G189" t="s">
+        <v>446</v>
+      </c>
+      <c r="I189" t="s">
+        <v>364</v>
+      </c>
+      <c r="J189" t="s">
+        <v>365</v>
+      </c>
+      <c r="K189" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="L189" t="s">
+        <v>16</v>
+      </c>
+      <c r="M189" t="s">
+        <v>419</v>
+      </c>
+      <c r="N189" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="190" spans="1:14">
+      <c r="A190" s="1">
+        <v>189</v>
+      </c>
+      <c r="G190" t="s">
+        <v>446</v>
+      </c>
+      <c r="I190" t="s">
+        <v>364</v>
+      </c>
+      <c r="J190" t="s">
+        <v>365</v>
+      </c>
+      <c r="K190" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="L190" t="s">
+        <v>16</v>
+      </c>
+      <c r="M190" t="s">
+        <v>421</v>
+      </c>
+      <c r="N190" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="191" spans="1:14">
+      <c r="A191" s="1">
+        <v>190</v>
+      </c>
+      <c r="G191" t="s">
+        <v>446</v>
+      </c>
+      <c r="I191" t="s">
+        <v>364</v>
+      </c>
+      <c r="J191" t="s">
+        <v>365</v>
+      </c>
+      <c r="K191" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="L191" t="s">
+        <v>16</v>
+      </c>
+      <c r="M191" t="s">
+        <v>423</v>
+      </c>
+      <c r="N191" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="192" spans="1:14">
+      <c r="A192" s="1">
+        <v>191</v>
+      </c>
+      <c r="G192" t="s">
+        <v>446</v>
+      </c>
+      <c r="I192" t="s">
+        <v>364</v>
+      </c>
+      <c r="J192" t="s">
+        <v>365</v>
+      </c>
+      <c r="K192" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="L192" t="s">
+        <v>16</v>
+      </c>
+      <c r="M192" t="s">
+        <v>426</v>
+      </c>
+      <c r="N192" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="193" spans="1:14">
+      <c r="A193" s="1">
+        <v>192</v>
+      </c>
+      <c r="G193" t="s">
+        <v>446</v>
+      </c>
+      <c r="I193" t="s">
+        <v>364</v>
+      </c>
+      <c r="J193" t="s">
+        <v>365</v>
+      </c>
+      <c r="K193" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="L193" t="s">
+        <v>16</v>
+      </c>
+      <c r="M193" t="s">
+        <v>367</v>
+      </c>
+      <c r="N193" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="194" spans="1:14">
+      <c r="A194" s="1">
+        <v>193</v>
+      </c>
+      <c r="G194" t="s">
+        <v>446</v>
+      </c>
+      <c r="I194" t="s">
+        <v>364</v>
+      </c>
+      <c r="J194" t="s">
+        <v>365</v>
+      </c>
+      <c r="K194" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="L194" t="s">
+        <v>16</v>
+      </c>
+      <c r="M194" t="s">
+        <v>367</v>
+      </c>
+      <c r="N194" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="195" spans="1:14">
+      <c r="A195" s="1">
+        <v>194</v>
+      </c>
+      <c r="G195" t="s">
+        <v>446</v>
+      </c>
+      <c r="I195" t="s">
+        <v>364</v>
+      </c>
+      <c r="J195" t="s">
+        <v>365</v>
+      </c>
+      <c r="K195" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="L195" t="s">
+        <v>16</v>
+      </c>
+      <c r="M195" t="s">
+        <v>419</v>
+      </c>
+      <c r="N195" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="196" spans="1:14">
+      <c r="A196" s="1">
+        <v>195</v>
+      </c>
+      <c r="G196" t="s">
+        <v>446</v>
+      </c>
+      <c r="I196" t="s">
+        <v>364</v>
+      </c>
+      <c r="J196" t="s">
+        <v>365</v>
+      </c>
+      <c r="K196" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="L196" t="s">
+        <v>16</v>
+      </c>
+      <c r="M196" t="s">
+        <v>421</v>
+      </c>
+      <c r="N196" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="197" spans="1:14">
+      <c r="A197" s="1">
+        <v>196</v>
+      </c>
+      <c r="G197" t="s">
+        <v>446</v>
+      </c>
+      <c r="I197" t="s">
+        <v>364</v>
+      </c>
+      <c r="J197" t="s">
+        <v>365</v>
+      </c>
+      <c r="K197" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="L197" t="s">
+        <v>16</v>
+      </c>
+      <c r="M197" t="s">
+        <v>423</v>
+      </c>
+      <c r="N197" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="198" spans="1:14">
+      <c r="A198" s="1">
+        <v>197</v>
+      </c>
+      <c r="G198" t="s">
+        <v>446</v>
+      </c>
+      <c r="I198" t="s">
+        <v>364</v>
+      </c>
+      <c r="J198" t="s">
+        <v>365</v>
+      </c>
+      <c r="K198" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="L198" t="s">
+        <v>16</v>
+      </c>
+      <c r="M198" t="s">
+        <v>429</v>
+      </c>
+      <c r="N198" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="199" spans="1:14">
+      <c r="A199" s="1">
+        <v>198</v>
+      </c>
+      <c r="G199" t="s">
+        <v>446</v>
+      </c>
+      <c r="I199" t="s">
+        <v>364</v>
+      </c>
+      <c r="J199" t="s">
+        <v>365</v>
+      </c>
+      <c r="K199" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="L199" t="s">
+        <v>16</v>
+      </c>
+      <c r="M199" t="s">
+        <v>431</v>
+      </c>
+      <c r="N199" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="200" spans="1:14">
+      <c r="A200" s="1">
+        <v>199</v>
+      </c>
+      <c r="G200" t="s">
+        <v>446</v>
+      </c>
+      <c r="I200" t="s">
+        <v>364</v>
+      </c>
+      <c r="J200" t="s">
+        <v>365</v>
+      </c>
+      <c r="K200" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="L200" t="s">
+        <v>16</v>
+      </c>
+      <c r="M200" t="s">
+        <v>432</v>
+      </c>
+      <c r="N200" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="201" spans="1:14">
+      <c r="A201" s="1">
+        <v>200</v>
+      </c>
+      <c r="G201" t="s">
+        <v>446</v>
+      </c>
+      <c r="I201" t="s">
+        <v>364</v>
+      </c>
+      <c r="J201" t="s">
+        <v>365</v>
+      </c>
+      <c r="K201" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="L201" t="s">
+        <v>16</v>
+      </c>
+      <c r="M201" t="s">
+        <v>434</v>
+      </c>
+      <c r="N201" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="202" spans="1:14">
+      <c r="A202" s="1">
+        <v>201</v>
+      </c>
+      <c r="G202" t="s">
+        <v>446</v>
+      </c>
+      <c r="I202" t="s">
+        <v>364</v>
+      </c>
+      <c r="J202" t="s">
+        <v>365</v>
+      </c>
+      <c r="K202" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="L202" t="s">
+        <v>16</v>
+      </c>
+      <c r="M202" t="s">
+        <v>436</v>
+      </c>
+      <c r="N202" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="203" spans="1:14">
+      <c r="A203" s="1">
+        <v>202</v>
+      </c>
+      <c r="G203" t="s">
+        <v>446</v>
+      </c>
+      <c r="I203" t="s">
+        <v>364</v>
+      </c>
+      <c r="J203" t="s">
+        <v>365</v>
+      </c>
+      <c r="K203" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="L203" t="s">
+        <v>16</v>
+      </c>
+      <c r="M203" t="s">
+        <v>438</v>
+      </c>
+      <c r="N203" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="204" spans="1:14">
+      <c r="A204" s="1">
+        <v>203</v>
+      </c>
+      <c r="G204" t="s">
+        <v>446</v>
+      </c>
+      <c r="I204" t="s">
+        <v>364</v>
+      </c>
+      <c r="J204" t="s">
+        <v>365</v>
+      </c>
+      <c r="K204" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="L204" t="s">
+        <v>16</v>
+      </c>
+      <c r="M204" t="s">
+        <v>440</v>
+      </c>
+      <c r="N204" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="205" spans="1:14">
+      <c r="A205" s="1">
+        <v>204</v>
+      </c>
+      <c r="G205" t="s">
+        <v>446</v>
+      </c>
+      <c r="I205" t="s">
+        <v>364</v>
+      </c>
+      <c r="J205" t="s">
+        <v>365</v>
+      </c>
+      <c r="K205" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="L205" t="s">
+        <v>16</v>
+      </c>
+      <c r="M205" t="s">
+        <v>442</v>
+      </c>
+      <c r="N205" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="206" spans="1:14">
+      <c r="A206" s="1">
+        <v>205</v>
+      </c>
+      <c r="G206" t="s">
+        <v>446</v>
+      </c>
+      <c r="I206" t="s">
+        <v>364</v>
+      </c>
+      <c r="J206" t="s">
+        <v>365</v>
+      </c>
+      <c r="K206" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="L206" t="s">
+        <v>16</v>
+      </c>
+      <c r="M206" t="s">
+        <v>367</v>
+      </c>
+      <c r="N206" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="207" spans="1:14">
+      <c r="A207" s="1">
+        <v>206</v>
+      </c>
+      <c r="G207" t="s">
+        <v>446</v>
+      </c>
+      <c r="I207" t="s">
+        <v>364</v>
+      </c>
+      <c r="J207" t="s">
+        <v>365</v>
+      </c>
+      <c r="K207" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="L207" t="s">
+        <v>16</v>
+      </c>
+      <c r="M207" t="s">
+        <v>426</v>
+      </c>
+      <c r="N207" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="208" spans="1:14">
+      <c r="A208" s="1">
+        <v>207</v>
+      </c>
+      <c r="G208" t="s">
+        <v>446</v>
+      </c>
+      <c r="I208" t="s">
+        <v>364</v>
+      </c>
+      <c r="J208" t="s">
+        <v>365</v>
+      </c>
+      <c r="K208" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="L208" t="s">
+        <v>16</v>
+      </c>
+      <c r="M208" t="s">
+        <v>444</v>
+      </c>
+      <c r="N208" t="s">
+        <v>445</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/public/import.xlsx
+++ b/public/import.xlsx
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1468" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1636" uniqueCount="499">
   <si>
     <t>STT</t>
   </si>
@@ -1392,6 +1392,162 @@
   </si>
   <si>
     <t>zh</t>
+  </si>
+  <si>
+    <t>Unit 3_Body parts</t>
+  </si>
+  <si>
+    <t>Your eye is on your face.</t>
+  </si>
+  <si>
+    <t>Mắt của bạn nằm trên khuôn mặt.</t>
+  </si>
+  <si>
+    <t>Your nose is between your eyes.</t>
+  </si>
+  <si>
+    <t>Mũi nằm giữa hai mắt.</t>
+  </si>
+  <si>
+    <t>You smell with your nose.</t>
+  </si>
+  <si>
+    <t>Bạn ngửi bằng mũi.</t>
+  </si>
+  <si>
+    <t>You hear with your ears.</t>
+  </si>
+  <si>
+    <t>Bạn nghe bằng tai.</t>
+  </si>
+  <si>
+    <t>You have 32 teeth.</t>
+  </si>
+  <si>
+    <t>Bạn có 32 chiếc răng.</t>
+  </si>
+  <si>
+    <t>You open your mouth to speak or eat.</t>
+  </si>
+  <si>
+    <t>Bạn mở miệng để nói hoặc ăn.</t>
+  </si>
+  <si>
+    <t>A hand has five fingers.</t>
+  </si>
+  <si>
+    <t>Một bàn tay có năm ngón.</t>
+  </si>
+  <si>
+    <t>A foot has five toes.</t>
+  </si>
+  <si>
+    <t>Một bàn chân có năm ngón chân.</t>
+  </si>
+  <si>
+    <t>You think with your brain.</t>
+  </si>
+  <si>
+    <t>Bạn suy nghĩ bằng não.</t>
+  </si>
+  <si>
+    <t>Your heart pumps blood.</t>
+  </si>
+  <si>
+    <t>Trái tim bạn bơm máu.</t>
+  </si>
+  <si>
+    <t>Your lungs help you breathe.</t>
+  </si>
+  <si>
+    <t>Phổi giúp bạn thở.</t>
+  </si>
+  <si>
+    <t>Your stomach gets food from the mouth.</t>
+  </si>
+  <si>
+    <t>Dạ dày tiếp nhận thức ăn từ miệng.</t>
+  </si>
+  <si>
+    <t>Your blood type can be A, B, AB or O.</t>
+  </si>
+  <si>
+    <t>Nhóm máu của bạn có thể là A, B, AB hoặc O.</t>
+  </si>
+  <si>
+    <t>Unit 3_Examples</t>
+  </si>
+  <si>
+    <t>My hair is very long – I must cut it soon.</t>
+  </si>
+  <si>
+    <t>Tóc tôi rất dài – tôi phải cắt nó sớm.</t>
+  </si>
+  <si>
+    <t>I have a pain in my leg.</t>
+  </si>
+  <si>
+    <t>Tôi bị đau ở chân.</t>
+  </si>
+  <si>
+    <t>Unit 4_Clothes</t>
+  </si>
+  <si>
+    <t>You wear clothes but you carry things.</t>
+  </si>
+  <si>
+    <t>Bạn mặc quần áo nhưng mang đồ vật.</t>
+  </si>
+  <si>
+    <t>You wear glasses.</t>
+  </si>
+  <si>
+    <t>Bạn đeo kính.</t>
+  </si>
+  <si>
+    <t>Naomi is wearing a long blue coat.</t>
+  </si>
+  <si>
+    <t>Naomi đang mặc một chiếc áo khoác dài màu xanh.</t>
+  </si>
+  <si>
+    <t>She’s carrying a suitcase and a handbag.</t>
+  </si>
+  <si>
+    <t>Cô ấy đang mang một vali và một túi xách.</t>
+  </si>
+  <si>
+    <t>You get dressed in the morning.</t>
+  </si>
+  <si>
+    <t>Bạn mặc quần áo vào buổi sáng.</t>
+  </si>
+  <si>
+    <t>You get undressed at night.</t>
+  </si>
+  <si>
+    <t>Bạn cởi đồ vào ban đêm.</t>
+  </si>
+  <si>
+    <t>Unit 4_Grammar notes</t>
+  </si>
+  <si>
+    <t>These trousers are old.</t>
+  </si>
+  <si>
+    <t>Chiếc quần này đã cũ.</t>
+  </si>
+  <si>
+    <t>I’ve got a pair of glasses on.</t>
+  </si>
+  <si>
+    <t>Tôi đang đeo một cặp kính.</t>
+  </si>
+  <si>
+    <t>You put clothes on but you take clothes off.</t>
+  </si>
+  <si>
+    <t>Bạn mặc quần áo vào nhưng cởi ra khi không cần.</t>
   </si>
 </sst>
 </file>
@@ -1767,13 +1923,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S208"/>
+  <dimension ref="A1:S232"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H152" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="H219" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
-      <selection pane="bottomRight" activeCell="G159" sqref="G159:G208"/>
+      <selection pane="bottomRight" activeCell="A232" sqref="A232"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2333,16 +2489,16 @@
         <v>17</v>
       </c>
       <c r="K20" t="s">
-        <v>339</v>
+        <v>447</v>
       </c>
       <c r="L20" t="s">
         <v>16</v>
       </c>
       <c r="M20" t="s">
-        <v>56</v>
+        <v>448</v>
       </c>
       <c r="N20" t="s">
-        <v>57</v>
+        <v>449</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -2359,16 +2515,16 @@
         <v>17</v>
       </c>
       <c r="K21" t="s">
-        <v>339</v>
+        <v>447</v>
       </c>
       <c r="L21" t="s">
         <v>16</v>
       </c>
       <c r="M21" t="s">
-        <v>58</v>
+        <v>450</v>
       </c>
       <c r="N21" t="s">
-        <v>59</v>
+        <v>451</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -2385,16 +2541,16 @@
         <v>17</v>
       </c>
       <c r="K22" t="s">
-        <v>339</v>
+        <v>447</v>
       </c>
       <c r="L22" t="s">
         <v>16</v>
       </c>
       <c r="M22" t="s">
-        <v>60</v>
+        <v>452</v>
       </c>
       <c r="N22" t="s">
-        <v>61</v>
+        <v>453</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -2411,16 +2567,16 @@
         <v>17</v>
       </c>
       <c r="K23" t="s">
-        <v>339</v>
+        <v>447</v>
       </c>
       <c r="L23" t="s">
         <v>16</v>
       </c>
       <c r="M23" t="s">
-        <v>62</v>
+        <v>454</v>
       </c>
       <c r="N23" t="s">
-        <v>63</v>
+        <v>455</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -2437,16 +2593,16 @@
         <v>17</v>
       </c>
       <c r="K24" t="s">
-        <v>339</v>
+        <v>447</v>
       </c>
       <c r="L24" t="s">
         <v>16</v>
       </c>
       <c r="M24" t="s">
-        <v>64</v>
+        <v>456</v>
       </c>
       <c r="N24" t="s">
-        <v>65</v>
+        <v>457</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -2463,16 +2619,16 @@
         <v>17</v>
       </c>
       <c r="K25" t="s">
-        <v>339</v>
+        <v>447</v>
       </c>
       <c r="L25" t="s">
         <v>16</v>
       </c>
       <c r="M25" t="s">
-        <v>66</v>
+        <v>458</v>
       </c>
       <c r="N25" t="s">
-        <v>67</v>
+        <v>459</v>
       </c>
     </row>
     <row r="26" spans="1:14">
@@ -2489,16 +2645,16 @@
         <v>17</v>
       </c>
       <c r="K26" t="s">
-        <v>339</v>
+        <v>447</v>
       </c>
       <c r="L26" t="s">
         <v>16</v>
       </c>
       <c r="M26" t="s">
-        <v>68</v>
+        <v>460</v>
       </c>
       <c r="N26" t="s">
-        <v>69</v>
+        <v>461</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -2515,16 +2671,16 @@
         <v>17</v>
       </c>
       <c r="K27" t="s">
-        <v>339</v>
+        <v>447</v>
       </c>
       <c r="L27" t="s">
         <v>16</v>
       </c>
       <c r="M27" t="s">
-        <v>70</v>
+        <v>462</v>
       </c>
       <c r="N27" t="s">
-        <v>71</v>
+        <v>463</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -2541,16 +2697,16 @@
         <v>17</v>
       </c>
       <c r="K28" t="s">
-        <v>339</v>
+        <v>447</v>
       </c>
       <c r="L28" t="s">
         <v>16</v>
       </c>
       <c r="M28" t="s">
-        <v>72</v>
+        <v>464</v>
       </c>
       <c r="N28" t="s">
-        <v>73</v>
+        <v>465</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -2567,16 +2723,16 @@
         <v>17</v>
       </c>
       <c r="K29" t="s">
-        <v>339</v>
+        <v>447</v>
       </c>
       <c r="L29" t="s">
         <v>16</v>
       </c>
       <c r="M29" t="s">
-        <v>74</v>
+        <v>466</v>
       </c>
       <c r="N29" t="s">
-        <v>75</v>
+        <v>467</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -2593,16 +2749,16 @@
         <v>17</v>
       </c>
       <c r="K30" t="s">
-        <v>339</v>
+        <v>447</v>
       </c>
       <c r="L30" t="s">
         <v>16</v>
       </c>
       <c r="M30" t="s">
-        <v>76</v>
+        <v>468</v>
       </c>
       <c r="N30" t="s">
-        <v>77</v>
+        <v>469</v>
       </c>
     </row>
     <row r="31" spans="1:14">
@@ -2619,16 +2775,16 @@
         <v>17</v>
       </c>
       <c r="K31" t="s">
-        <v>339</v>
+        <v>447</v>
       </c>
       <c r="L31" t="s">
         <v>16</v>
       </c>
       <c r="M31" t="s">
-        <v>78</v>
+        <v>470</v>
       </c>
       <c r="N31" t="s">
-        <v>79</v>
+        <v>471</v>
       </c>
     </row>
     <row r="32" spans="1:14">
@@ -2645,16 +2801,16 @@
         <v>17</v>
       </c>
       <c r="K32" t="s">
-        <v>339</v>
+        <v>447</v>
       </c>
       <c r="L32" t="s">
         <v>16</v>
       </c>
       <c r="M32" t="s">
-        <v>80</v>
+        <v>472</v>
       </c>
       <c r="N32" t="s">
-        <v>81</v>
+        <v>473</v>
       </c>
     </row>
     <row r="33" spans="1:14">
@@ -2671,16 +2827,16 @@
         <v>17</v>
       </c>
       <c r="K33" t="s">
-        <v>340</v>
+        <v>474</v>
       </c>
       <c r="L33" t="s">
         <v>16</v>
       </c>
       <c r="M33" t="s">
-        <v>82</v>
+        <v>475</v>
       </c>
       <c r="N33" t="s">
-        <v>83</v>
+        <v>476</v>
       </c>
     </row>
     <row r="34" spans="1:14">
@@ -2697,16 +2853,16 @@
         <v>17</v>
       </c>
       <c r="K34" t="s">
-        <v>340</v>
+        <v>474</v>
       </c>
       <c r="L34" t="s">
         <v>16</v>
       </c>
       <c r="M34" t="s">
-        <v>84</v>
+        <v>477</v>
       </c>
       <c r="N34" t="s">
-        <v>85</v>
+        <v>478</v>
       </c>
     </row>
     <row r="35" spans="1:14">
@@ -2723,16 +2879,16 @@
         <v>17</v>
       </c>
       <c r="K35" t="s">
-        <v>340</v>
+        <v>479</v>
       </c>
       <c r="L35" t="s">
         <v>16</v>
       </c>
       <c r="M35" t="s">
-        <v>86</v>
+        <v>480</v>
       </c>
       <c r="N35" t="s">
-        <v>87</v>
+        <v>481</v>
       </c>
     </row>
     <row r="36" spans="1:14">
@@ -2749,16 +2905,16 @@
         <v>17</v>
       </c>
       <c r="K36" t="s">
-        <v>341</v>
+        <v>479</v>
       </c>
       <c r="L36" t="s">
         <v>16</v>
       </c>
       <c r="M36" t="s">
-        <v>88</v>
+        <v>482</v>
       </c>
       <c r="N36" t="s">
-        <v>89</v>
+        <v>483</v>
       </c>
     </row>
     <row r="37" spans="1:14">
@@ -2775,16 +2931,16 @@
         <v>17</v>
       </c>
       <c r="K37" t="s">
-        <v>341</v>
+        <v>479</v>
       </c>
       <c r="L37" t="s">
         <v>16</v>
       </c>
       <c r="M37" t="s">
-        <v>90</v>
+        <v>484</v>
       </c>
       <c r="N37" t="s">
-        <v>91</v>
+        <v>485</v>
       </c>
     </row>
     <row r="38" spans="1:14">
@@ -2801,16 +2957,16 @@
         <v>17</v>
       </c>
       <c r="K38" t="s">
-        <v>341</v>
+        <v>479</v>
       </c>
       <c r="L38" t="s">
         <v>16</v>
       </c>
       <c r="M38" t="s">
-        <v>92</v>
+        <v>486</v>
       </c>
       <c r="N38" t="s">
-        <v>93</v>
+        <v>487</v>
       </c>
     </row>
     <row r="39" spans="1:14">
@@ -2827,16 +2983,16 @@
         <v>17</v>
       </c>
       <c r="K39" t="s">
-        <v>341</v>
+        <v>479</v>
       </c>
       <c r="L39" t="s">
         <v>16</v>
       </c>
       <c r="M39" t="s">
-        <v>94</v>
+        <v>488</v>
       </c>
       <c r="N39" t="s">
-        <v>95</v>
+        <v>489</v>
       </c>
     </row>
     <row r="40" spans="1:14">
@@ -2853,16 +3009,16 @@
         <v>17</v>
       </c>
       <c r="K40" t="s">
-        <v>341</v>
+        <v>479</v>
       </c>
       <c r="L40" t="s">
         <v>16</v>
       </c>
       <c r="M40" t="s">
-        <v>96</v>
+        <v>490</v>
       </c>
       <c r="N40" t="s">
-        <v>97</v>
+        <v>491</v>
       </c>
     </row>
     <row r="41" spans="1:14">
@@ -2879,16 +3035,16 @@
         <v>17</v>
       </c>
       <c r="K41" t="s">
-        <v>341</v>
+        <v>492</v>
       </c>
       <c r="L41" t="s">
         <v>16</v>
       </c>
       <c r="M41" t="s">
-        <v>98</v>
+        <v>493</v>
       </c>
       <c r="N41" t="s">
-        <v>99</v>
+        <v>494</v>
       </c>
     </row>
     <row r="42" spans="1:14">
@@ -2905,16 +3061,16 @@
         <v>17</v>
       </c>
       <c r="K42" t="s">
-        <v>341</v>
+        <v>492</v>
       </c>
       <c r="L42" t="s">
         <v>16</v>
       </c>
       <c r="M42" t="s">
-        <v>100</v>
+        <v>495</v>
       </c>
       <c r="N42" t="s">
-        <v>101</v>
+        <v>496</v>
       </c>
     </row>
     <row r="43" spans="1:14">
@@ -2931,16 +3087,16 @@
         <v>17</v>
       </c>
       <c r="K43" t="s">
-        <v>342</v>
+        <v>492</v>
       </c>
       <c r="L43" t="s">
         <v>16</v>
       </c>
       <c r="M43" t="s">
-        <v>102</v>
+        <v>497</v>
       </c>
       <c r="N43" t="s">
-        <v>103</v>
+        <v>498</v>
       </c>
     </row>
     <row r="44" spans="1:14">
@@ -2957,16 +3113,16 @@
         <v>17</v>
       </c>
       <c r="K44" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="L44" t="s">
         <v>16</v>
       </c>
       <c r="M44" t="s">
-        <v>104</v>
+        <v>56</v>
       </c>
       <c r="N44" t="s">
-        <v>105</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:14">
@@ -2983,16 +3139,16 @@
         <v>17</v>
       </c>
       <c r="K45" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="L45" t="s">
         <v>16</v>
       </c>
       <c r="M45" t="s">
-        <v>106</v>
+        <v>58</v>
       </c>
       <c r="N45" t="s">
-        <v>107</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:14">
@@ -3009,16 +3165,16 @@
         <v>17</v>
       </c>
       <c r="K46" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="L46" t="s">
         <v>16</v>
       </c>
       <c r="M46" t="s">
-        <v>108</v>
+        <v>60</v>
       </c>
       <c r="N46" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
     </row>
     <row r="47" spans="1:14">
@@ -3035,16 +3191,16 @@
         <v>17</v>
       </c>
       <c r="K47" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="L47" t="s">
         <v>16</v>
       </c>
       <c r="M47" t="s">
-        <v>110</v>
+        <v>62</v>
       </c>
       <c r="N47" t="s">
-        <v>111</v>
+        <v>63</v>
       </c>
     </row>
     <row r="48" spans="1:14">
@@ -3061,16 +3217,16 @@
         <v>17</v>
       </c>
       <c r="K48" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="L48" t="s">
         <v>16</v>
       </c>
       <c r="M48" t="s">
-        <v>112</v>
+        <v>64</v>
       </c>
       <c r="N48" t="s">
-        <v>113</v>
+        <v>65</v>
       </c>
     </row>
     <row r="49" spans="1:14">
@@ -3087,16 +3243,16 @@
         <v>17</v>
       </c>
       <c r="K49" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="L49" t="s">
         <v>16</v>
       </c>
       <c r="M49" t="s">
-        <v>114</v>
+        <v>66</v>
       </c>
       <c r="N49" t="s">
-        <v>115</v>
+        <v>67</v>
       </c>
     </row>
     <row r="50" spans="1:14">
@@ -3113,16 +3269,16 @@
         <v>17</v>
       </c>
       <c r="K50" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="L50" t="s">
         <v>16</v>
       </c>
       <c r="M50" t="s">
-        <v>116</v>
+        <v>68</v>
       </c>
       <c r="N50" t="s">
-        <v>117</v>
+        <v>69</v>
       </c>
     </row>
     <row r="51" spans="1:14">
@@ -3139,16 +3295,16 @@
         <v>17</v>
       </c>
       <c r="K51" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="L51" t="s">
         <v>16</v>
       </c>
       <c r="M51" t="s">
-        <v>118</v>
+        <v>70</v>
       </c>
       <c r="N51" t="s">
-        <v>119</v>
+        <v>71</v>
       </c>
     </row>
     <row r="52" spans="1:14">
@@ -3165,16 +3321,16 @@
         <v>17</v>
       </c>
       <c r="K52" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="L52" t="s">
         <v>16</v>
       </c>
       <c r="M52" t="s">
-        <v>120</v>
+        <v>72</v>
       </c>
       <c r="N52" t="s">
-        <v>121</v>
+        <v>73</v>
       </c>
     </row>
     <row r="53" spans="1:14">
@@ -3191,16 +3347,16 @@
         <v>17</v>
       </c>
       <c r="K53" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="L53" t="s">
         <v>16</v>
       </c>
       <c r="M53" t="s">
-        <v>122</v>
+        <v>74</v>
       </c>
       <c r="N53" t="s">
-        <v>123</v>
+        <v>75</v>
       </c>
     </row>
     <row r="54" spans="1:14">
@@ -3217,16 +3373,16 @@
         <v>17</v>
       </c>
       <c r="K54" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="L54" t="s">
         <v>16</v>
       </c>
       <c r="M54" t="s">
-        <v>124</v>
+        <v>76</v>
       </c>
       <c r="N54" t="s">
-        <v>125</v>
+        <v>77</v>
       </c>
     </row>
     <row r="55" spans="1:14">
@@ -3243,16 +3399,16 @@
         <v>17</v>
       </c>
       <c r="K55" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="L55" t="s">
         <v>16</v>
       </c>
       <c r="M55" t="s">
-        <v>126</v>
+        <v>78</v>
       </c>
       <c r="N55" t="s">
-        <v>127</v>
+        <v>79</v>
       </c>
     </row>
     <row r="56" spans="1:14">
@@ -3269,16 +3425,16 @@
         <v>17</v>
       </c>
       <c r="K56" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="L56" t="s">
         <v>16</v>
       </c>
       <c r="M56" t="s">
-        <v>128</v>
+        <v>80</v>
       </c>
       <c r="N56" t="s">
-        <v>129</v>
+        <v>81</v>
       </c>
     </row>
     <row r="57" spans="1:14">
@@ -3295,16 +3451,16 @@
         <v>17</v>
       </c>
       <c r="K57" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="L57" t="s">
         <v>16</v>
       </c>
       <c r="M57" t="s">
-        <v>130</v>
+        <v>82</v>
       </c>
       <c r="N57" t="s">
-        <v>131</v>
+        <v>83</v>
       </c>
     </row>
     <row r="58" spans="1:14">
@@ -3321,16 +3477,16 @@
         <v>17</v>
       </c>
       <c r="K58" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="L58" t="s">
         <v>16</v>
       </c>
       <c r="M58" t="s">
-        <v>132</v>
+        <v>84</v>
       </c>
       <c r="N58" t="s">
-        <v>133</v>
+        <v>85</v>
       </c>
     </row>
     <row r="59" spans="1:14">
@@ -3347,16 +3503,16 @@
         <v>17</v>
       </c>
       <c r="K59" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="L59" t="s">
         <v>16</v>
       </c>
       <c r="M59" t="s">
-        <v>134</v>
+        <v>86</v>
       </c>
       <c r="N59" t="s">
-        <v>135</v>
+        <v>87</v>
       </c>
     </row>
     <row r="60" spans="1:14">
@@ -3373,16 +3529,16 @@
         <v>17</v>
       </c>
       <c r="K60" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="L60" t="s">
         <v>16</v>
       </c>
       <c r="M60" t="s">
-        <v>136</v>
+        <v>88</v>
       </c>
       <c r="N60" t="s">
-        <v>137</v>
+        <v>89</v>
       </c>
     </row>
     <row r="61" spans="1:14">
@@ -3399,16 +3555,16 @@
         <v>17</v>
       </c>
       <c r="K61" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="L61" t="s">
         <v>16</v>
       </c>
       <c r="M61" t="s">
-        <v>138</v>
+        <v>90</v>
       </c>
       <c r="N61" t="s">
-        <v>139</v>
+        <v>91</v>
       </c>
     </row>
     <row r="62" spans="1:14">
@@ -3425,16 +3581,16 @@
         <v>17</v>
       </c>
       <c r="K62" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="L62" t="s">
         <v>16</v>
       </c>
       <c r="M62" t="s">
-        <v>140</v>
+        <v>92</v>
       </c>
       <c r="N62" t="s">
-        <v>141</v>
+        <v>93</v>
       </c>
     </row>
     <row r="63" spans="1:14">
@@ -3451,16 +3607,16 @@
         <v>17</v>
       </c>
       <c r="K63" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="L63" t="s">
         <v>16</v>
       </c>
       <c r="M63" t="s">
-        <v>142</v>
+        <v>94</v>
       </c>
       <c r="N63" t="s">
-        <v>143</v>
+        <v>95</v>
       </c>
     </row>
     <row r="64" spans="1:14">
@@ -3477,16 +3633,16 @@
         <v>17</v>
       </c>
       <c r="K64" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="L64" t="s">
         <v>16</v>
       </c>
       <c r="M64" t="s">
-        <v>144</v>
+        <v>96</v>
       </c>
       <c r="N64" t="s">
-        <v>145</v>
+        <v>97</v>
       </c>
     </row>
     <row r="65" spans="1:14">
@@ -3503,16 +3659,16 @@
         <v>17</v>
       </c>
       <c r="K65" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="L65" t="s">
         <v>16</v>
       </c>
       <c r="M65" t="s">
-        <v>146</v>
+        <v>98</v>
       </c>
       <c r="N65" t="s">
-        <v>147</v>
+        <v>99</v>
       </c>
     </row>
     <row r="66" spans="1:14">
@@ -3529,16 +3685,16 @@
         <v>17</v>
       </c>
       <c r="K66" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="L66" t="s">
         <v>16</v>
       </c>
       <c r="M66" t="s">
-        <v>148</v>
+        <v>100</v>
       </c>
       <c r="N66" t="s">
-        <v>149</v>
+        <v>101</v>
       </c>
     </row>
     <row r="67" spans="1:14">
@@ -3555,16 +3711,16 @@
         <v>17</v>
       </c>
       <c r="K67" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="L67" t="s">
         <v>16</v>
       </c>
       <c r="M67" t="s">
-        <v>150</v>
+        <v>102</v>
       </c>
       <c r="N67" t="s">
-        <v>151</v>
+        <v>103</v>
       </c>
     </row>
     <row r="68" spans="1:14">
@@ -3581,16 +3737,16 @@
         <v>17</v>
       </c>
       <c r="K68" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="L68" t="s">
         <v>16</v>
       </c>
       <c r="M68" t="s">
-        <v>152</v>
+        <v>104</v>
       </c>
       <c r="N68" t="s">
-        <v>153</v>
+        <v>105</v>
       </c>
     </row>
     <row r="69" spans="1:14">
@@ -3607,16 +3763,16 @@
         <v>17</v>
       </c>
       <c r="K69" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="L69" t="s">
         <v>16</v>
       </c>
       <c r="M69" t="s">
-        <v>154</v>
+        <v>106</v>
       </c>
       <c r="N69" t="s">
-        <v>155</v>
+        <v>107</v>
       </c>
     </row>
     <row r="70" spans="1:14">
@@ -3633,16 +3789,16 @@
         <v>17</v>
       </c>
       <c r="K70" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="L70" t="s">
         <v>16</v>
       </c>
       <c r="M70" t="s">
-        <v>156</v>
+        <v>108</v>
       </c>
       <c r="N70" t="s">
-        <v>157</v>
+        <v>109</v>
       </c>
     </row>
     <row r="71" spans="1:14">
@@ -3659,16 +3815,16 @@
         <v>17</v>
       </c>
       <c r="K71" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="L71" t="s">
         <v>16</v>
       </c>
       <c r="M71" t="s">
-        <v>158</v>
+        <v>110</v>
       </c>
       <c r="N71" t="s">
-        <v>159</v>
+        <v>111</v>
       </c>
     </row>
     <row r="72" spans="1:14">
@@ -3685,16 +3841,16 @@
         <v>17</v>
       </c>
       <c r="K72" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="L72" t="s">
         <v>16</v>
       </c>
       <c r="M72" t="s">
-        <v>160</v>
+        <v>112</v>
       </c>
       <c r="N72" t="s">
-        <v>161</v>
+        <v>113</v>
       </c>
     </row>
     <row r="73" spans="1:14">
@@ -3711,16 +3867,16 @@
         <v>17</v>
       </c>
       <c r="K73" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="L73" t="s">
         <v>16</v>
       </c>
       <c r="M73" t="s">
-        <v>162</v>
+        <v>114</v>
       </c>
       <c r="N73" t="s">
-        <v>163</v>
+        <v>115</v>
       </c>
     </row>
     <row r="74" spans="1:14">
@@ -3737,16 +3893,16 @@
         <v>17</v>
       </c>
       <c r="K74" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="L74" t="s">
         <v>16</v>
       </c>
       <c r="M74" t="s">
-        <v>164</v>
+        <v>116</v>
       </c>
       <c r="N74" t="s">
-        <v>165</v>
+        <v>117</v>
       </c>
     </row>
     <row r="75" spans="1:14">
@@ -3763,16 +3919,16 @@
         <v>17</v>
       </c>
       <c r="K75" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="L75" t="s">
         <v>16</v>
       </c>
       <c r="M75" t="s">
-        <v>166</v>
+        <v>118</v>
       </c>
       <c r="N75" t="s">
-        <v>167</v>
+        <v>119</v>
       </c>
     </row>
     <row r="76" spans="1:14">
@@ -3789,16 +3945,16 @@
         <v>17</v>
       </c>
       <c r="K76" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="L76" t="s">
         <v>16</v>
       </c>
       <c r="M76" t="s">
-        <v>168</v>
+        <v>120</v>
       </c>
       <c r="N76" t="s">
-        <v>169</v>
+        <v>121</v>
       </c>
     </row>
     <row r="77" spans="1:14">
@@ -3815,16 +3971,16 @@
         <v>17</v>
       </c>
       <c r="K77" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="L77" t="s">
         <v>16</v>
       </c>
       <c r="M77" t="s">
-        <v>170</v>
+        <v>122</v>
       </c>
       <c r="N77" t="s">
-        <v>171</v>
+        <v>123</v>
       </c>
     </row>
     <row r="78" spans="1:14">
@@ -3841,16 +3997,16 @@
         <v>17</v>
       </c>
       <c r="K78" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="L78" t="s">
         <v>16</v>
       </c>
       <c r="M78" t="s">
-        <v>172</v>
+        <v>124</v>
       </c>
       <c r="N78" t="s">
-        <v>173</v>
+        <v>125</v>
       </c>
     </row>
     <row r="79" spans="1:14">
@@ -3867,16 +4023,16 @@
         <v>17</v>
       </c>
       <c r="K79" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="L79" t="s">
         <v>16</v>
       </c>
       <c r="M79" t="s">
-        <v>174</v>
+        <v>126</v>
       </c>
       <c r="N79" t="s">
-        <v>175</v>
+        <v>127</v>
       </c>
     </row>
     <row r="80" spans="1:14">
@@ -3893,16 +4049,16 @@
         <v>17</v>
       </c>
       <c r="K80" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="L80" t="s">
         <v>16</v>
       </c>
       <c r="M80" t="s">
-        <v>176</v>
+        <v>128</v>
       </c>
       <c r="N80" t="s">
-        <v>177</v>
+        <v>129</v>
       </c>
     </row>
     <row r="81" spans="1:14">
@@ -3919,16 +4075,16 @@
         <v>17</v>
       </c>
       <c r="K81" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="L81" t="s">
         <v>16</v>
       </c>
       <c r="M81" t="s">
-        <v>178</v>
+        <v>130</v>
       </c>
       <c r="N81" t="s">
-        <v>179</v>
+        <v>131</v>
       </c>
     </row>
     <row r="82" spans="1:14">
@@ -3945,16 +4101,16 @@
         <v>17</v>
       </c>
       <c r="K82" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="L82" t="s">
         <v>16</v>
       </c>
       <c r="M82" t="s">
-        <v>180</v>
+        <v>132</v>
       </c>
       <c r="N82" t="s">
-        <v>181</v>
+        <v>133</v>
       </c>
     </row>
     <row r="83" spans="1:14">
@@ -3971,16 +4127,16 @@
         <v>17</v>
       </c>
       <c r="K83" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="L83" t="s">
         <v>16</v>
       </c>
       <c r="M83" t="s">
-        <v>182</v>
+        <v>134</v>
       </c>
       <c r="N83" t="s">
-        <v>183</v>
+        <v>135</v>
       </c>
     </row>
     <row r="84" spans="1:14">
@@ -3997,16 +4153,16 @@
         <v>17</v>
       </c>
       <c r="K84" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="L84" t="s">
         <v>16</v>
       </c>
       <c r="M84" t="s">
-        <v>184</v>
+        <v>136</v>
       </c>
       <c r="N84" t="s">
-        <v>185</v>
+        <v>137</v>
       </c>
     </row>
     <row r="85" spans="1:14">
@@ -4023,16 +4179,16 @@
         <v>17</v>
       </c>
       <c r="K85" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="L85" t="s">
         <v>16</v>
       </c>
       <c r="M85" t="s">
-        <v>186</v>
+        <v>138</v>
       </c>
       <c r="N85" t="s">
-        <v>187</v>
+        <v>139</v>
       </c>
     </row>
     <row r="86" spans="1:14">
@@ -4049,16 +4205,16 @@
         <v>17</v>
       </c>
       <c r="K86" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="L86" t="s">
         <v>16</v>
       </c>
       <c r="M86" t="s">
-        <v>188</v>
+        <v>140</v>
       </c>
       <c r="N86" t="s">
-        <v>189</v>
+        <v>141</v>
       </c>
     </row>
     <row r="87" spans="1:14">
@@ -4075,16 +4231,16 @@
         <v>17</v>
       </c>
       <c r="K87" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="L87" t="s">
         <v>16</v>
       </c>
       <c r="M87" t="s">
-        <v>190</v>
+        <v>142</v>
       </c>
       <c r="N87" t="s">
-        <v>191</v>
+        <v>143</v>
       </c>
     </row>
     <row r="88" spans="1:14">
@@ -4101,16 +4257,16 @@
         <v>17</v>
       </c>
       <c r="K88" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="L88" t="s">
         <v>16</v>
       </c>
       <c r="M88" t="s">
-        <v>192</v>
+        <v>144</v>
       </c>
       <c r="N88" t="s">
-        <v>193</v>
+        <v>145</v>
       </c>
     </row>
     <row r="89" spans="1:14">
@@ -4127,16 +4283,16 @@
         <v>17</v>
       </c>
       <c r="K89" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="L89" t="s">
         <v>16</v>
       </c>
       <c r="M89" t="s">
-        <v>194</v>
+        <v>146</v>
       </c>
       <c r="N89" t="s">
-        <v>195</v>
+        <v>147</v>
       </c>
     </row>
     <row r="90" spans="1:14">
@@ -4153,16 +4309,16 @@
         <v>17</v>
       </c>
       <c r="K90" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="L90" t="s">
         <v>16</v>
       </c>
       <c r="M90" t="s">
-        <v>196</v>
+        <v>148</v>
       </c>
       <c r="N90" t="s">
-        <v>197</v>
+        <v>149</v>
       </c>
     </row>
     <row r="91" spans="1:14">
@@ -4179,16 +4335,16 @@
         <v>17</v>
       </c>
       <c r="K91" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="L91" t="s">
         <v>16</v>
       </c>
       <c r="M91" t="s">
-        <v>198</v>
+        <v>150</v>
       </c>
       <c r="N91" t="s">
-        <v>199</v>
+        <v>151</v>
       </c>
     </row>
     <row r="92" spans="1:14">
@@ -4205,16 +4361,16 @@
         <v>17</v>
       </c>
       <c r="K92" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="L92" t="s">
         <v>16</v>
       </c>
       <c r="M92" t="s">
-        <v>200</v>
+        <v>152</v>
       </c>
       <c r="N92" t="s">
-        <v>201</v>
+        <v>153</v>
       </c>
     </row>
     <row r="93" spans="1:14">
@@ -4231,16 +4387,16 @@
         <v>17</v>
       </c>
       <c r="K93" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="L93" t="s">
         <v>16</v>
       </c>
       <c r="M93" t="s">
-        <v>202</v>
+        <v>154</v>
       </c>
       <c r="N93" t="s">
-        <v>203</v>
+        <v>155</v>
       </c>
     </row>
     <row r="94" spans="1:14">
@@ -4257,16 +4413,16 @@
         <v>17</v>
       </c>
       <c r="K94" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="L94" t="s">
         <v>16</v>
       </c>
       <c r="M94" t="s">
-        <v>204</v>
+        <v>156</v>
       </c>
       <c r="N94" t="s">
-        <v>205</v>
+        <v>157</v>
       </c>
     </row>
     <row r="95" spans="1:14">
@@ -4283,16 +4439,16 @@
         <v>17</v>
       </c>
       <c r="K95" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="L95" t="s">
         <v>16</v>
       </c>
       <c r="M95" t="s">
-        <v>206</v>
+        <v>158</v>
       </c>
       <c r="N95" t="s">
-        <v>207</v>
+        <v>159</v>
       </c>
     </row>
     <row r="96" spans="1:14">
@@ -4309,16 +4465,16 @@
         <v>17</v>
       </c>
       <c r="K96" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="L96" t="s">
         <v>16</v>
       </c>
       <c r="M96" t="s">
-        <v>208</v>
+        <v>160</v>
       </c>
       <c r="N96" t="s">
-        <v>209</v>
+        <v>161</v>
       </c>
     </row>
     <row r="97" spans="1:14">
@@ -4335,16 +4491,16 @@
         <v>17</v>
       </c>
       <c r="K97" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="L97" t="s">
         <v>16</v>
       </c>
       <c r="M97" t="s">
-        <v>210</v>
+        <v>162</v>
       </c>
       <c r="N97" t="s">
-        <v>211</v>
+        <v>163</v>
       </c>
     </row>
     <row r="98" spans="1:14">
@@ -4361,16 +4517,16 @@
         <v>17</v>
       </c>
       <c r="K98" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="L98" t="s">
         <v>16</v>
       </c>
       <c r="M98" t="s">
-        <v>212</v>
+        <v>164</v>
       </c>
       <c r="N98" t="s">
-        <v>213</v>
+        <v>165</v>
       </c>
     </row>
     <row r="99" spans="1:14">
@@ -4387,16 +4543,16 @@
         <v>17</v>
       </c>
       <c r="K99" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="L99" t="s">
         <v>16</v>
       </c>
       <c r="M99" t="s">
-        <v>214</v>
+        <v>166</v>
       </c>
       <c r="N99" t="s">
-        <v>215</v>
+        <v>167</v>
       </c>
     </row>
     <row r="100" spans="1:14">
@@ -4413,16 +4569,16 @@
         <v>17</v>
       </c>
       <c r="K100" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="L100" t="s">
         <v>16</v>
       </c>
       <c r="M100" t="s">
-        <v>216</v>
+        <v>168</v>
       </c>
       <c r="N100" t="s">
-        <v>217</v>
+        <v>169</v>
       </c>
     </row>
     <row r="101" spans="1:14">
@@ -4439,16 +4595,16 @@
         <v>17</v>
       </c>
       <c r="K101" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="L101" t="s">
         <v>16</v>
       </c>
       <c r="M101" t="s">
-        <v>218</v>
+        <v>170</v>
       </c>
       <c r="N101" t="s">
-        <v>219</v>
+        <v>171</v>
       </c>
     </row>
     <row r="102" spans="1:14">
@@ -4465,16 +4621,16 @@
         <v>17</v>
       </c>
       <c r="K102" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="L102" t="s">
         <v>16</v>
       </c>
       <c r="M102" t="s">
-        <v>220</v>
+        <v>172</v>
       </c>
       <c r="N102" t="s">
-        <v>221</v>
+        <v>173</v>
       </c>
     </row>
     <row r="103" spans="1:14">
@@ -4491,16 +4647,16 @@
         <v>17</v>
       </c>
       <c r="K103" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="L103" t="s">
         <v>16</v>
       </c>
       <c r="M103" t="s">
-        <v>222</v>
+        <v>174</v>
       </c>
       <c r="N103" t="s">
-        <v>223</v>
+        <v>175</v>
       </c>
     </row>
     <row r="104" spans="1:14">
@@ -4517,16 +4673,16 @@
         <v>17</v>
       </c>
       <c r="K104" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="L104" t="s">
         <v>16</v>
       </c>
       <c r="M104" t="s">
-        <v>224</v>
+        <v>176</v>
       </c>
       <c r="N104" t="s">
-        <v>225</v>
+        <v>177</v>
       </c>
     </row>
     <row r="105" spans="1:14">
@@ -4543,16 +4699,16 @@
         <v>17</v>
       </c>
       <c r="K105" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="L105" t="s">
         <v>16</v>
       </c>
       <c r="M105" t="s">
-        <v>226</v>
+        <v>178</v>
       </c>
       <c r="N105" t="s">
-        <v>227</v>
+        <v>179</v>
       </c>
     </row>
     <row r="106" spans="1:14">
@@ -4569,16 +4725,16 @@
         <v>17</v>
       </c>
       <c r="K106" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="L106" t="s">
         <v>16</v>
       </c>
       <c r="M106" t="s">
-        <v>228</v>
+        <v>180</v>
       </c>
       <c r="N106" t="s">
-        <v>229</v>
+        <v>181</v>
       </c>
     </row>
     <row r="107" spans="1:14">
@@ -4595,16 +4751,16 @@
         <v>17</v>
       </c>
       <c r="K107" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="L107" t="s">
         <v>16</v>
       </c>
       <c r="M107" t="s">
-        <v>230</v>
+        <v>182</v>
       </c>
       <c r="N107" t="s">
-        <v>231</v>
+        <v>183</v>
       </c>
     </row>
     <row r="108" spans="1:14">
@@ -4621,16 +4777,16 @@
         <v>17</v>
       </c>
       <c r="K108" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="L108" t="s">
         <v>16</v>
       </c>
       <c r="M108" t="s">
-        <v>232</v>
+        <v>184</v>
       </c>
       <c r="N108" t="s">
-        <v>233</v>
+        <v>185</v>
       </c>
     </row>
     <row r="109" spans="1:14">
@@ -4647,16 +4803,16 @@
         <v>17</v>
       </c>
       <c r="K109" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="L109" t="s">
         <v>16</v>
       </c>
       <c r="M109" t="s">
-        <v>234</v>
+        <v>186</v>
       </c>
       <c r="N109" t="s">
-        <v>235</v>
+        <v>187</v>
       </c>
     </row>
     <row r="110" spans="1:14">
@@ -4673,16 +4829,16 @@
         <v>17</v>
       </c>
       <c r="K110" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="L110" t="s">
         <v>16</v>
       </c>
       <c r="M110" t="s">
-        <v>236</v>
+        <v>188</v>
       </c>
       <c r="N110" t="s">
-        <v>237</v>
+        <v>189</v>
       </c>
     </row>
     <row r="111" spans="1:14">
@@ -4699,16 +4855,16 @@
         <v>17</v>
       </c>
       <c r="K111" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="L111" t="s">
         <v>16</v>
       </c>
       <c r="M111" t="s">
-        <v>238</v>
+        <v>190</v>
       </c>
       <c r="N111" t="s">
-        <v>239</v>
+        <v>191</v>
       </c>
     </row>
     <row r="112" spans="1:14">
@@ -4725,16 +4881,16 @@
         <v>17</v>
       </c>
       <c r="K112" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="L112" t="s">
         <v>16</v>
       </c>
       <c r="M112" t="s">
-        <v>240</v>
+        <v>192</v>
       </c>
       <c r="N112" t="s">
-        <v>241</v>
+        <v>193</v>
       </c>
     </row>
     <row r="113" spans="1:14">
@@ -4751,16 +4907,16 @@
         <v>17</v>
       </c>
       <c r="K113" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="L113" t="s">
         <v>16</v>
       </c>
       <c r="M113" t="s">
-        <v>242</v>
+        <v>194</v>
       </c>
       <c r="N113" t="s">
-        <v>243</v>
+        <v>195</v>
       </c>
     </row>
     <row r="114" spans="1:14">
@@ -4777,16 +4933,16 @@
         <v>17</v>
       </c>
       <c r="K114" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="L114" t="s">
         <v>16</v>
       </c>
       <c r="M114" t="s">
-        <v>244</v>
+        <v>196</v>
       </c>
       <c r="N114" t="s">
-        <v>245</v>
+        <v>197</v>
       </c>
     </row>
     <row r="115" spans="1:14">
@@ -4803,16 +4959,16 @@
         <v>17</v>
       </c>
       <c r="K115" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="L115" t="s">
         <v>16</v>
       </c>
       <c r="M115" t="s">
-        <v>246</v>
+        <v>198</v>
       </c>
       <c r="N115" t="s">
-        <v>247</v>
+        <v>199</v>
       </c>
     </row>
     <row r="116" spans="1:14">
@@ -4829,16 +4985,16 @@
         <v>17</v>
       </c>
       <c r="K116" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="L116" t="s">
         <v>16</v>
       </c>
       <c r="M116" t="s">
-        <v>248</v>
+        <v>200</v>
       </c>
       <c r="N116" t="s">
-        <v>249</v>
+        <v>201</v>
       </c>
     </row>
     <row r="117" spans="1:14">
@@ -4855,16 +5011,16 @@
         <v>17</v>
       </c>
       <c r="K117" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="L117" t="s">
         <v>16</v>
       </c>
       <c r="M117" t="s">
-        <v>250</v>
+        <v>202</v>
       </c>
       <c r="N117" t="s">
-        <v>251</v>
+        <v>203</v>
       </c>
     </row>
     <row r="118" spans="1:14">
@@ -4881,16 +5037,16 @@
         <v>17</v>
       </c>
       <c r="K118" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="L118" t="s">
         <v>16</v>
       </c>
       <c r="M118" t="s">
-        <v>252</v>
+        <v>204</v>
       </c>
       <c r="N118" t="s">
-        <v>253</v>
+        <v>205</v>
       </c>
     </row>
     <row r="119" spans="1:14">
@@ -4907,16 +5063,16 @@
         <v>17</v>
       </c>
       <c r="K119" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="L119" t="s">
         <v>16</v>
       </c>
       <c r="M119" t="s">
-        <v>254</v>
+        <v>206</v>
       </c>
       <c r="N119" t="s">
-        <v>255</v>
+        <v>207</v>
       </c>
     </row>
     <row r="120" spans="1:14">
@@ -4933,16 +5089,16 @@
         <v>17</v>
       </c>
       <c r="K120" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="L120" t="s">
         <v>16</v>
       </c>
       <c r="M120" t="s">
-        <v>256</v>
+        <v>208</v>
       </c>
       <c r="N120" t="s">
-        <v>257</v>
+        <v>209</v>
       </c>
     </row>
     <row r="121" spans="1:14">
@@ -4959,16 +5115,16 @@
         <v>17</v>
       </c>
       <c r="K121" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="L121" t="s">
         <v>16</v>
       </c>
       <c r="M121" t="s">
-        <v>258</v>
+        <v>210</v>
       </c>
       <c r="N121" t="s">
-        <v>259</v>
+        <v>211</v>
       </c>
     </row>
     <row r="122" spans="1:14">
@@ -4985,16 +5141,16 @@
         <v>17</v>
       </c>
       <c r="K122" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="L122" t="s">
         <v>16</v>
       </c>
       <c r="M122" t="s">
-        <v>260</v>
+        <v>212</v>
       </c>
       <c r="N122" t="s">
-        <v>261</v>
+        <v>213</v>
       </c>
     </row>
     <row r="123" spans="1:14">
@@ -5011,16 +5167,16 @@
         <v>17</v>
       </c>
       <c r="K123" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="L123" t="s">
         <v>16</v>
       </c>
       <c r="M123" t="s">
-        <v>262</v>
+        <v>214</v>
       </c>
       <c r="N123" t="s">
-        <v>263</v>
+        <v>215</v>
       </c>
     </row>
     <row r="124" spans="1:14">
@@ -5037,16 +5193,16 @@
         <v>17</v>
       </c>
       <c r="K124" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="L124" t="s">
         <v>16</v>
       </c>
       <c r="M124" t="s">
-        <v>264</v>
+        <v>216</v>
       </c>
       <c r="N124" t="s">
-        <v>265</v>
+        <v>217</v>
       </c>
     </row>
     <row r="125" spans="1:14">
@@ -5063,16 +5219,16 @@
         <v>17</v>
       </c>
       <c r="K125" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="L125" t="s">
         <v>16</v>
       </c>
       <c r="M125" t="s">
-        <v>266</v>
+        <v>218</v>
       </c>
       <c r="N125" t="s">
-        <v>267</v>
+        <v>219</v>
       </c>
     </row>
     <row r="126" spans="1:14">
@@ -5089,16 +5245,16 @@
         <v>17</v>
       </c>
       <c r="K126" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="L126" t="s">
         <v>16</v>
       </c>
       <c r="M126" t="s">
-        <v>268</v>
+        <v>220</v>
       </c>
       <c r="N126" t="s">
-        <v>269</v>
+        <v>221</v>
       </c>
     </row>
     <row r="127" spans="1:14">
@@ -5115,16 +5271,16 @@
         <v>17</v>
       </c>
       <c r="K127" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="L127" t="s">
         <v>16</v>
       </c>
       <c r="M127" t="s">
-        <v>270</v>
+        <v>222</v>
       </c>
       <c r="N127" t="s">
-        <v>271</v>
+        <v>223</v>
       </c>
     </row>
     <row r="128" spans="1:14">
@@ -5141,16 +5297,16 @@
         <v>17</v>
       </c>
       <c r="K128" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="L128" t="s">
         <v>16</v>
       </c>
       <c r="M128" t="s">
-        <v>272</v>
+        <v>224</v>
       </c>
       <c r="N128" t="s">
-        <v>273</v>
+        <v>225</v>
       </c>
     </row>
     <row r="129" spans="1:14">
@@ -5167,16 +5323,16 @@
         <v>17</v>
       </c>
       <c r="K129" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="L129" t="s">
         <v>16</v>
       </c>
       <c r="M129" t="s">
-        <v>274</v>
+        <v>226</v>
       </c>
       <c r="N129" t="s">
-        <v>275</v>
+        <v>227</v>
       </c>
     </row>
     <row r="130" spans="1:14">
@@ -5193,16 +5349,16 @@
         <v>17</v>
       </c>
       <c r="K130" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="L130" t="s">
         <v>16</v>
       </c>
       <c r="M130" t="s">
-        <v>276</v>
+        <v>228</v>
       </c>
       <c r="N130" t="s">
-        <v>277</v>
+        <v>229</v>
       </c>
     </row>
     <row r="131" spans="1:14">
@@ -5219,16 +5375,16 @@
         <v>17</v>
       </c>
       <c r="K131" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="L131" t="s">
         <v>16</v>
       </c>
       <c r="M131" t="s">
-        <v>278</v>
+        <v>230</v>
       </c>
       <c r="N131" t="s">
-        <v>279</v>
+        <v>231</v>
       </c>
     </row>
     <row r="132" spans="1:14">
@@ -5245,16 +5401,16 @@
         <v>17</v>
       </c>
       <c r="K132" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="L132" t="s">
         <v>16</v>
       </c>
       <c r="M132" t="s">
-        <v>280</v>
+        <v>232</v>
       </c>
       <c r="N132" t="s">
-        <v>281</v>
+        <v>233</v>
       </c>
     </row>
     <row r="133" spans="1:14">
@@ -5271,16 +5427,16 @@
         <v>17</v>
       </c>
       <c r="K133" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="L133" t="s">
         <v>16</v>
       </c>
       <c r="M133" t="s">
-        <v>282</v>
+        <v>234</v>
       </c>
       <c r="N133" t="s">
-        <v>283</v>
+        <v>235</v>
       </c>
     </row>
     <row r="134" spans="1:14">
@@ -5297,16 +5453,16 @@
         <v>17</v>
       </c>
       <c r="K134" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="L134" t="s">
         <v>16</v>
       </c>
       <c r="M134" t="s">
-        <v>284</v>
+        <v>236</v>
       </c>
       <c r="N134" t="s">
-        <v>285</v>
+        <v>237</v>
       </c>
     </row>
     <row r="135" spans="1:14">
@@ -5323,16 +5479,16 @@
         <v>17</v>
       </c>
       <c r="K135" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="L135" t="s">
         <v>16</v>
       </c>
       <c r="M135" t="s">
-        <v>286</v>
+        <v>238</v>
       </c>
       <c r="N135" t="s">
-        <v>287</v>
+        <v>239</v>
       </c>
     </row>
     <row r="136" spans="1:14">
@@ -5349,16 +5505,16 @@
         <v>17</v>
       </c>
       <c r="K136" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="L136" t="s">
         <v>16</v>
       </c>
       <c r="M136" t="s">
-        <v>288</v>
+        <v>240</v>
       </c>
       <c r="N136" t="s">
-        <v>289</v>
+        <v>241</v>
       </c>
     </row>
     <row r="137" spans="1:14">
@@ -5375,16 +5531,16 @@
         <v>17</v>
       </c>
       <c r="K137" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="L137" t="s">
         <v>16</v>
       </c>
       <c r="M137" t="s">
-        <v>290</v>
+        <v>242</v>
       </c>
       <c r="N137" t="s">
-        <v>291</v>
+        <v>243</v>
       </c>
     </row>
     <row r="138" spans="1:14">
@@ -5401,16 +5557,16 @@
         <v>17</v>
       </c>
       <c r="K138" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="L138" t="s">
         <v>16</v>
       </c>
       <c r="M138" t="s">
-        <v>292</v>
+        <v>244</v>
       </c>
       <c r="N138" t="s">
-        <v>293</v>
+        <v>245</v>
       </c>
     </row>
     <row r="139" spans="1:14">
@@ -5427,16 +5583,16 @@
         <v>17</v>
       </c>
       <c r="K139" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="L139" t="s">
         <v>16</v>
       </c>
       <c r="M139" t="s">
-        <v>294</v>
+        <v>246</v>
       </c>
       <c r="N139" t="s">
-        <v>295</v>
+        <v>247</v>
       </c>
     </row>
     <row r="140" spans="1:14">
@@ -5453,16 +5609,16 @@
         <v>17</v>
       </c>
       <c r="K140" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="L140" t="s">
         <v>16</v>
       </c>
       <c r="M140" t="s">
-        <v>296</v>
+        <v>248</v>
       </c>
       <c r="N140" t="s">
-        <v>297</v>
+        <v>249</v>
       </c>
     </row>
     <row r="141" spans="1:14">
@@ -5479,16 +5635,16 @@
         <v>17</v>
       </c>
       <c r="K141" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="L141" t="s">
         <v>16</v>
       </c>
       <c r="M141" t="s">
-        <v>298</v>
+        <v>250</v>
       </c>
       <c r="N141" t="s">
-        <v>299</v>
+        <v>251</v>
       </c>
     </row>
     <row r="142" spans="1:14">
@@ -5505,16 +5661,16 @@
         <v>17</v>
       </c>
       <c r="K142" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="L142" t="s">
         <v>16</v>
       </c>
       <c r="M142" t="s">
-        <v>300</v>
+        <v>252</v>
       </c>
       <c r="N142" t="s">
-        <v>301</v>
+        <v>253</v>
       </c>
     </row>
     <row r="143" spans="1:14">
@@ -5531,16 +5687,16 @@
         <v>17</v>
       </c>
       <c r="K143" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="L143" t="s">
         <v>16</v>
       </c>
       <c r="M143" t="s">
-        <v>302</v>
+        <v>254</v>
       </c>
       <c r="N143" t="s">
-        <v>303</v>
+        <v>255</v>
       </c>
     </row>
     <row r="144" spans="1:14">
@@ -5557,16 +5713,16 @@
         <v>17</v>
       </c>
       <c r="K144" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="L144" t="s">
         <v>16</v>
       </c>
       <c r="M144" t="s">
-        <v>304</v>
+        <v>256</v>
       </c>
       <c r="N144" t="s">
-        <v>305</v>
+        <v>257</v>
       </c>
     </row>
     <row r="145" spans="1:14">
@@ -5583,16 +5739,16 @@
         <v>17</v>
       </c>
       <c r="K145" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="L145" t="s">
         <v>16</v>
       </c>
       <c r="M145" t="s">
-        <v>306</v>
+        <v>258</v>
       </c>
       <c r="N145" t="s">
-        <v>307</v>
+        <v>259</v>
       </c>
     </row>
     <row r="146" spans="1:14">
@@ -5609,16 +5765,16 @@
         <v>17</v>
       </c>
       <c r="K146" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="L146" t="s">
         <v>16</v>
       </c>
       <c r="M146" t="s">
-        <v>308</v>
+        <v>260</v>
       </c>
       <c r="N146" t="s">
-        <v>309</v>
+        <v>261</v>
       </c>
     </row>
     <row r="147" spans="1:14">
@@ -5635,16 +5791,16 @@
         <v>17</v>
       </c>
       <c r="K147" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="L147" t="s">
         <v>16</v>
       </c>
       <c r="M147" t="s">
-        <v>310</v>
+        <v>262</v>
       </c>
       <c r="N147" t="s">
-        <v>311</v>
+        <v>263</v>
       </c>
     </row>
     <row r="148" spans="1:14">
@@ -5661,16 +5817,16 @@
         <v>17</v>
       </c>
       <c r="K148" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="L148" t="s">
         <v>16</v>
       </c>
       <c r="M148" t="s">
-        <v>312</v>
+        <v>264</v>
       </c>
       <c r="N148" t="s">
-        <v>313</v>
+        <v>265</v>
       </c>
     </row>
     <row r="149" spans="1:14">
@@ -5687,16 +5843,16 @@
         <v>17</v>
       </c>
       <c r="K149" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="L149" t="s">
         <v>16</v>
       </c>
       <c r="M149" t="s">
-        <v>314</v>
+        <v>266</v>
       </c>
       <c r="N149" t="s">
-        <v>315</v>
+        <v>267</v>
       </c>
     </row>
     <row r="150" spans="1:14">
@@ -5713,16 +5869,16 @@
         <v>17</v>
       </c>
       <c r="K150" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="L150" t="s">
         <v>16</v>
       </c>
       <c r="M150" t="s">
-        <v>316</v>
+        <v>268</v>
       </c>
       <c r="N150" t="s">
-        <v>317</v>
+        <v>269</v>
       </c>
     </row>
     <row r="151" spans="1:14">
@@ -5739,16 +5895,16 @@
         <v>17</v>
       </c>
       <c r="K151" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="L151" t="s">
         <v>16</v>
       </c>
       <c r="M151" t="s">
-        <v>318</v>
+        <v>270</v>
       </c>
       <c r="N151" t="s">
-        <v>319</v>
+        <v>271</v>
       </c>
     </row>
     <row r="152" spans="1:14">
@@ -5765,16 +5921,16 @@
         <v>17</v>
       </c>
       <c r="K152" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="L152" t="s">
         <v>16</v>
       </c>
       <c r="M152" t="s">
-        <v>320</v>
+        <v>272</v>
       </c>
       <c r="N152" t="s">
-        <v>321</v>
+        <v>273</v>
       </c>
     </row>
     <row r="153" spans="1:14">
@@ -5791,16 +5947,16 @@
         <v>17</v>
       </c>
       <c r="K153" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="L153" t="s">
         <v>16</v>
       </c>
       <c r="M153" t="s">
-        <v>322</v>
+        <v>274</v>
       </c>
       <c r="N153" t="s">
-        <v>323</v>
+        <v>275</v>
       </c>
     </row>
     <row r="154" spans="1:14">
@@ -5817,16 +5973,16 @@
         <v>17</v>
       </c>
       <c r="K154" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="L154" t="s">
         <v>16</v>
       </c>
       <c r="M154" t="s">
-        <v>324</v>
+        <v>276</v>
       </c>
       <c r="N154" t="s">
-        <v>325</v>
+        <v>277</v>
       </c>
     </row>
     <row r="155" spans="1:14">
@@ -5843,16 +5999,16 @@
         <v>17</v>
       </c>
       <c r="K155" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="L155" t="s">
         <v>16</v>
       </c>
       <c r="M155" t="s">
-        <v>326</v>
+        <v>278</v>
       </c>
       <c r="N155" t="s">
-        <v>327</v>
+        <v>279</v>
       </c>
     </row>
     <row r="156" spans="1:14">
@@ -5869,16 +6025,16 @@
         <v>17</v>
       </c>
       <c r="K156" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="L156" t="s">
         <v>16</v>
       </c>
       <c r="M156" t="s">
-        <v>328</v>
+        <v>280</v>
       </c>
       <c r="N156" t="s">
-        <v>329</v>
+        <v>281</v>
       </c>
     </row>
     <row r="157" spans="1:14">
@@ -5895,16 +6051,16 @@
         <v>17</v>
       </c>
       <c r="K157" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="L157" t="s">
         <v>16</v>
       </c>
       <c r="M157" t="s">
-        <v>330</v>
+        <v>282</v>
       </c>
       <c r="N157" t="s">
-        <v>331</v>
+        <v>283</v>
       </c>
     </row>
     <row r="158" spans="1:14">
@@ -5921,16 +6077,16 @@
         <v>17</v>
       </c>
       <c r="K158" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="L158" t="s">
         <v>16</v>
       </c>
       <c r="M158" t="s">
-        <v>332</v>
+        <v>284</v>
       </c>
       <c r="N158" t="s">
-        <v>333</v>
+        <v>285</v>
       </c>
     </row>
     <row r="159" spans="1:14">
@@ -5938,25 +6094,25 @@
         <v>158</v>
       </c>
       <c r="G159" t="s">
-        <v>446</v>
+        <v>363</v>
       </c>
       <c r="I159" t="s">
-        <v>364</v>
+        <v>334</v>
       </c>
       <c r="J159" t="s">
-        <v>365</v>
-      </c>
-      <c r="K159" s="5" t="s">
-        <v>366</v>
+        <v>17</v>
+      </c>
+      <c r="K159" t="s">
+        <v>355</v>
       </c>
       <c r="L159" t="s">
         <v>16</v>
       </c>
       <c r="M159" t="s">
-        <v>367</v>
+        <v>286</v>
       </c>
       <c r="N159" t="s">
-        <v>368</v>
+        <v>287</v>
       </c>
     </row>
     <row r="160" spans="1:14">
@@ -5964,25 +6120,25 @@
         <v>159</v>
       </c>
       <c r="G160" t="s">
-        <v>446</v>
+        <v>363</v>
       </c>
       <c r="I160" t="s">
-        <v>364</v>
+        <v>334</v>
       </c>
       <c r="J160" t="s">
-        <v>365</v>
-      </c>
-      <c r="K160" s="5" t="s">
-        <v>366</v>
+        <v>17</v>
+      </c>
+      <c r="K160" t="s">
+        <v>356</v>
       </c>
       <c r="L160" t="s">
         <v>16</v>
       </c>
       <c r="M160" t="s">
-        <v>369</v>
+        <v>288</v>
       </c>
       <c r="N160" t="s">
-        <v>209</v>
+        <v>289</v>
       </c>
     </row>
     <row r="161" spans="1:14">
@@ -5990,25 +6146,25 @@
         <v>160</v>
       </c>
       <c r="G161" t="s">
-        <v>446</v>
+        <v>363</v>
       </c>
       <c r="I161" t="s">
-        <v>364</v>
+        <v>334</v>
       </c>
       <c r="J161" t="s">
-        <v>365</v>
-      </c>
-      <c r="K161" s="5" t="s">
-        <v>366</v>
+        <v>17</v>
+      </c>
+      <c r="K161" t="s">
+        <v>356</v>
       </c>
       <c r="L161" t="s">
         <v>16</v>
       </c>
       <c r="M161" t="s">
-        <v>370</v>
+        <v>290</v>
       </c>
       <c r="N161" t="s">
-        <v>371</v>
+        <v>291</v>
       </c>
     </row>
     <row r="162" spans="1:14">
@@ -6016,25 +6172,25 @@
         <v>161</v>
       </c>
       <c r="G162" t="s">
-        <v>446</v>
+        <v>363</v>
       </c>
       <c r="I162" t="s">
-        <v>364</v>
+        <v>334</v>
       </c>
       <c r="J162" t="s">
-        <v>365</v>
-      </c>
-      <c r="K162" s="5" t="s">
-        <v>366</v>
+        <v>17</v>
+      </c>
+      <c r="K162" t="s">
+        <v>356</v>
       </c>
       <c r="L162" t="s">
         <v>16</v>
       </c>
       <c r="M162" t="s">
-        <v>372</v>
+        <v>292</v>
       </c>
       <c r="N162" t="s">
-        <v>373</v>
+        <v>293</v>
       </c>
     </row>
     <row r="163" spans="1:14">
@@ -6042,25 +6198,25 @@
         <v>162</v>
       </c>
       <c r="G163" t="s">
-        <v>446</v>
+        <v>363</v>
       </c>
       <c r="I163" t="s">
-        <v>364</v>
+        <v>334</v>
       </c>
       <c r="J163" t="s">
-        <v>365</v>
-      </c>
-      <c r="K163" s="5" t="s">
-        <v>374</v>
+        <v>17</v>
+      </c>
+      <c r="K163" t="s">
+        <v>357</v>
       </c>
       <c r="L163" t="s">
         <v>16</v>
       </c>
       <c r="M163" t="s">
-        <v>375</v>
+        <v>294</v>
       </c>
       <c r="N163" t="s">
-        <v>376</v>
+        <v>295</v>
       </c>
     </row>
     <row r="164" spans="1:14">
@@ -6068,25 +6224,25 @@
         <v>163</v>
       </c>
       <c r="G164" t="s">
-        <v>446</v>
+        <v>363</v>
       </c>
       <c r="I164" t="s">
-        <v>364</v>
+        <v>334</v>
       </c>
       <c r="J164" t="s">
-        <v>365</v>
-      </c>
-      <c r="K164" s="5" t="s">
-        <v>374</v>
+        <v>17</v>
+      </c>
+      <c r="K164" t="s">
+        <v>357</v>
       </c>
       <c r="L164" t="s">
         <v>16</v>
       </c>
       <c r="M164" t="s">
-        <v>377</v>
+        <v>296</v>
       </c>
       <c r="N164" t="s">
-        <v>378</v>
+        <v>297</v>
       </c>
     </row>
     <row r="165" spans="1:14">
@@ -6094,25 +6250,25 @@
         <v>164</v>
       </c>
       <c r="G165" t="s">
-        <v>446</v>
+        <v>363</v>
       </c>
       <c r="I165" t="s">
-        <v>364</v>
+        <v>334</v>
       </c>
       <c r="J165" t="s">
-        <v>365</v>
-      </c>
-      <c r="K165" s="5" t="s">
-        <v>374</v>
+        <v>17</v>
+      </c>
+      <c r="K165" t="s">
+        <v>357</v>
       </c>
       <c r="L165" t="s">
         <v>16</v>
       </c>
       <c r="M165" t="s">
-        <v>369</v>
+        <v>298</v>
       </c>
       <c r="N165" t="s">
-        <v>209</v>
+        <v>299</v>
       </c>
     </row>
     <row r="166" spans="1:14">
@@ -6120,25 +6276,25 @@
         <v>165</v>
       </c>
       <c r="G166" t="s">
-        <v>446</v>
+        <v>363</v>
       </c>
       <c r="I166" t="s">
-        <v>364</v>
+        <v>334</v>
       </c>
       <c r="J166" t="s">
-        <v>365</v>
-      </c>
-      <c r="K166" s="5" t="s">
-        <v>374</v>
+        <v>17</v>
+      </c>
+      <c r="K166" t="s">
+        <v>358</v>
       </c>
       <c r="L166" t="s">
         <v>16</v>
       </c>
       <c r="M166" t="s">
-        <v>379</v>
+        <v>300</v>
       </c>
       <c r="N166" t="s">
-        <v>380</v>
+        <v>301</v>
       </c>
     </row>
     <row r="167" spans="1:14">
@@ -6146,25 +6302,25 @@
         <v>166</v>
       </c>
       <c r="G167" t="s">
-        <v>446</v>
+        <v>363</v>
       </c>
       <c r="I167" t="s">
-        <v>364</v>
+        <v>334</v>
       </c>
       <c r="J167" t="s">
-        <v>365</v>
-      </c>
-      <c r="K167" s="5" t="s">
-        <v>374</v>
+        <v>17</v>
+      </c>
+      <c r="K167" t="s">
+        <v>358</v>
       </c>
       <c r="L167" t="s">
         <v>16</v>
       </c>
       <c r="M167" t="s">
-        <v>372</v>
+        <v>302</v>
       </c>
       <c r="N167" t="s">
-        <v>373</v>
+        <v>303</v>
       </c>
     </row>
     <row r="168" spans="1:14">
@@ -6172,25 +6328,25 @@
         <v>167</v>
       </c>
       <c r="G168" t="s">
-        <v>446</v>
+        <v>363</v>
       </c>
       <c r="I168" t="s">
-        <v>364</v>
+        <v>334</v>
       </c>
       <c r="J168" t="s">
-        <v>365</v>
-      </c>
-      <c r="K168" s="5" t="s">
-        <v>381</v>
+        <v>17</v>
+      </c>
+      <c r="K168" t="s">
+        <v>358</v>
       </c>
       <c r="L168" t="s">
         <v>16</v>
       </c>
       <c r="M168" t="s">
-        <v>382</v>
+        <v>304</v>
       </c>
       <c r="N168" t="s">
-        <v>383</v>
+        <v>305</v>
       </c>
     </row>
     <row r="169" spans="1:14">
@@ -6198,25 +6354,25 @@
         <v>168</v>
       </c>
       <c r="G169" t="s">
-        <v>446</v>
+        <v>363</v>
       </c>
       <c r="I169" t="s">
-        <v>364</v>
+        <v>334</v>
       </c>
       <c r="J169" t="s">
-        <v>365</v>
-      </c>
-      <c r="K169" s="5" t="s">
-        <v>381</v>
+        <v>17</v>
+      </c>
+      <c r="K169" t="s">
+        <v>358</v>
       </c>
       <c r="L169" t="s">
         <v>16</v>
       </c>
       <c r="M169" t="s">
-        <v>384</v>
+        <v>306</v>
       </c>
       <c r="N169" t="s">
-        <v>385</v>
+        <v>307</v>
       </c>
     </row>
     <row r="170" spans="1:14">
@@ -6224,25 +6380,25 @@
         <v>169</v>
       </c>
       <c r="G170" t="s">
-        <v>446</v>
+        <v>363</v>
       </c>
       <c r="I170" t="s">
-        <v>364</v>
+        <v>334</v>
       </c>
       <c r="J170" t="s">
-        <v>365</v>
-      </c>
-      <c r="K170" s="5" t="s">
-        <v>381</v>
+        <v>17</v>
+      </c>
+      <c r="K170" t="s">
+        <v>359</v>
       </c>
       <c r="L170" t="s">
         <v>16</v>
       </c>
       <c r="M170" t="s">
-        <v>372</v>
+        <v>308</v>
       </c>
       <c r="N170" t="s">
-        <v>373</v>
+        <v>309</v>
       </c>
     </row>
     <row r="171" spans="1:14">
@@ -6250,25 +6406,25 @@
         <v>170</v>
       </c>
       <c r="G171" t="s">
-        <v>446</v>
+        <v>363</v>
       </c>
       <c r="I171" t="s">
-        <v>364</v>
+        <v>334</v>
       </c>
       <c r="J171" t="s">
-        <v>365</v>
-      </c>
-      <c r="K171" s="5" t="s">
-        <v>381</v>
+        <v>17</v>
+      </c>
+      <c r="K171" t="s">
+        <v>359</v>
       </c>
       <c r="L171" t="s">
         <v>16</v>
       </c>
       <c r="M171" t="s">
-        <v>386</v>
+        <v>310</v>
       </c>
       <c r="N171" t="s">
-        <v>387</v>
+        <v>311</v>
       </c>
     </row>
     <row r="172" spans="1:14">
@@ -6276,25 +6432,25 @@
         <v>171</v>
       </c>
       <c r="G172" t="s">
-        <v>446</v>
+        <v>363</v>
       </c>
       <c r="I172" t="s">
-        <v>364</v>
+        <v>334</v>
       </c>
       <c r="J172" t="s">
-        <v>365</v>
-      </c>
-      <c r="K172" s="5" t="s">
-        <v>381</v>
+        <v>17</v>
+      </c>
+      <c r="K172" t="s">
+        <v>359</v>
       </c>
       <c r="L172" t="s">
         <v>16</v>
       </c>
       <c r="M172" t="s">
-        <v>388</v>
+        <v>312</v>
       </c>
       <c r="N172" t="s">
-        <v>389</v>
+        <v>313</v>
       </c>
     </row>
     <row r="173" spans="1:14">
@@ -6302,25 +6458,25 @@
         <v>172</v>
       </c>
       <c r="G173" t="s">
-        <v>446</v>
+        <v>363</v>
       </c>
       <c r="I173" t="s">
-        <v>364</v>
+        <v>334</v>
       </c>
       <c r="J173" t="s">
-        <v>365</v>
-      </c>
-      <c r="K173" s="5" t="s">
-        <v>381</v>
+        <v>17</v>
+      </c>
+      <c r="K173" t="s">
+        <v>359</v>
       </c>
       <c r="L173" t="s">
         <v>16</v>
       </c>
       <c r="M173" t="s">
-        <v>390</v>
+        <v>314</v>
       </c>
       <c r="N173" t="s">
-        <v>391</v>
+        <v>315</v>
       </c>
     </row>
     <row r="174" spans="1:14">
@@ -6328,25 +6484,25 @@
         <v>173</v>
       </c>
       <c r="G174" t="s">
-        <v>446</v>
+        <v>363</v>
       </c>
       <c r="I174" t="s">
-        <v>364</v>
+        <v>334</v>
       </c>
       <c r="J174" t="s">
-        <v>365</v>
-      </c>
-      <c r="K174" s="5" t="s">
-        <v>381</v>
+        <v>17</v>
+      </c>
+      <c r="K174" t="s">
+        <v>360</v>
       </c>
       <c r="L174" t="s">
         <v>16</v>
       </c>
       <c r="M174" t="s">
-        <v>392</v>
+        <v>316</v>
       </c>
       <c r="N174" t="s">
-        <v>393</v>
+        <v>317</v>
       </c>
     </row>
     <row r="175" spans="1:14">
@@ -6354,25 +6510,25 @@
         <v>174</v>
       </c>
       <c r="G175" t="s">
-        <v>446</v>
+        <v>363</v>
       </c>
       <c r="I175" t="s">
-        <v>364</v>
+        <v>334</v>
       </c>
       <c r="J175" t="s">
-        <v>365</v>
-      </c>
-      <c r="K175" s="5" t="s">
-        <v>394</v>
+        <v>17</v>
+      </c>
+      <c r="K175" t="s">
+        <v>360</v>
       </c>
       <c r="L175" t="s">
         <v>16</v>
       </c>
       <c r="M175" t="s">
-        <v>395</v>
+        <v>318</v>
       </c>
       <c r="N175" t="s">
-        <v>396</v>
+        <v>319</v>
       </c>
     </row>
     <row r="176" spans="1:14">
@@ -6380,25 +6536,25 @@
         <v>175</v>
       </c>
       <c r="G176" t="s">
-        <v>446</v>
+        <v>363</v>
       </c>
       <c r="I176" t="s">
-        <v>364</v>
+        <v>334</v>
       </c>
       <c r="J176" t="s">
-        <v>365</v>
-      </c>
-      <c r="K176" s="5" t="s">
-        <v>397</v>
+        <v>17</v>
+      </c>
+      <c r="K176" t="s">
+        <v>360</v>
       </c>
       <c r="L176" t="s">
         <v>16</v>
       </c>
       <c r="M176" t="s">
-        <v>398</v>
+        <v>320</v>
       </c>
       <c r="N176" t="s">
-        <v>399</v>
+        <v>321</v>
       </c>
     </row>
     <row r="177" spans="1:14">
@@ -6406,25 +6562,25 @@
         <v>176</v>
       </c>
       <c r="G177" t="s">
-        <v>446</v>
+        <v>363</v>
       </c>
       <c r="I177" t="s">
-        <v>364</v>
+        <v>334</v>
       </c>
       <c r="J177" t="s">
-        <v>365</v>
-      </c>
-      <c r="K177" s="5" t="s">
-        <v>400</v>
+        <v>17</v>
+      </c>
+      <c r="K177" t="s">
+        <v>360</v>
       </c>
       <c r="L177" t="s">
         <v>16</v>
       </c>
       <c r="M177" t="s">
-        <v>401</v>
+        <v>322</v>
       </c>
       <c r="N177" t="s">
-        <v>233</v>
+        <v>323</v>
       </c>
     </row>
     <row r="178" spans="1:14">
@@ -6432,25 +6588,25 @@
         <v>177</v>
       </c>
       <c r="G178" t="s">
-        <v>446</v>
+        <v>363</v>
       </c>
       <c r="I178" t="s">
-        <v>364</v>
+        <v>334</v>
       </c>
       <c r="J178" t="s">
-        <v>365</v>
-      </c>
-      <c r="K178" s="5" t="s">
-        <v>402</v>
+        <v>17</v>
+      </c>
+      <c r="K178" t="s">
+        <v>361</v>
       </c>
       <c r="L178" t="s">
         <v>16</v>
       </c>
       <c r="M178" t="s">
-        <v>403</v>
+        <v>324</v>
       </c>
       <c r="N178" t="s">
-        <v>404</v>
+        <v>325</v>
       </c>
     </row>
     <row r="179" spans="1:14">
@@ -6458,25 +6614,25 @@
         <v>178</v>
       </c>
       <c r="G179" t="s">
-        <v>446</v>
+        <v>363</v>
       </c>
       <c r="I179" t="s">
-        <v>364</v>
+        <v>334</v>
       </c>
       <c r="J179" t="s">
-        <v>365</v>
-      </c>
-      <c r="K179" s="5" t="s">
-        <v>405</v>
+        <v>17</v>
+      </c>
+      <c r="K179" t="s">
+        <v>361</v>
       </c>
       <c r="L179" t="s">
         <v>16</v>
       </c>
       <c r="M179" t="s">
-        <v>395</v>
+        <v>326</v>
       </c>
       <c r="N179" t="s">
-        <v>396</v>
+        <v>327</v>
       </c>
     </row>
     <row r="180" spans="1:14">
@@ -6484,25 +6640,25 @@
         <v>179</v>
       </c>
       <c r="G180" t="s">
-        <v>446</v>
+        <v>363</v>
       </c>
       <c r="I180" t="s">
-        <v>364</v>
+        <v>334</v>
       </c>
       <c r="J180" t="s">
-        <v>365</v>
-      </c>
-      <c r="K180" s="5" t="s">
-        <v>405</v>
+        <v>17</v>
+      </c>
+      <c r="K180" t="s">
+        <v>361</v>
       </c>
       <c r="L180" t="s">
         <v>16</v>
       </c>
       <c r="M180" t="s">
-        <v>395</v>
+        <v>328</v>
       </c>
       <c r="N180" t="s">
-        <v>396</v>
+        <v>329</v>
       </c>
     </row>
     <row r="181" spans="1:14">
@@ -6510,25 +6666,25 @@
         <v>180</v>
       </c>
       <c r="G181" t="s">
-        <v>446</v>
+        <v>363</v>
       </c>
       <c r="I181" t="s">
-        <v>364</v>
+        <v>334</v>
       </c>
       <c r="J181" t="s">
-        <v>365</v>
-      </c>
-      <c r="K181" s="5" t="s">
-        <v>405</v>
+        <v>17</v>
+      </c>
+      <c r="K181" t="s">
+        <v>361</v>
       </c>
       <c r="L181" t="s">
         <v>16</v>
       </c>
       <c r="M181" t="s">
-        <v>398</v>
+        <v>330</v>
       </c>
       <c r="N181" t="s">
-        <v>399</v>
+        <v>331</v>
       </c>
     </row>
     <row r="182" spans="1:14">
@@ -6536,25 +6692,25 @@
         <v>181</v>
       </c>
       <c r="G182" t="s">
-        <v>446</v>
+        <v>363</v>
       </c>
       <c r="I182" t="s">
-        <v>364</v>
+        <v>334</v>
       </c>
       <c r="J182" t="s">
-        <v>365</v>
-      </c>
-      <c r="K182" s="5" t="s">
-        <v>405</v>
+        <v>17</v>
+      </c>
+      <c r="K182" t="s">
+        <v>361</v>
       </c>
       <c r="L182" t="s">
         <v>16</v>
       </c>
       <c r="M182" t="s">
-        <v>406</v>
+        <v>332</v>
       </c>
       <c r="N182" t="s">
-        <v>407</v>
+        <v>333</v>
       </c>
     </row>
     <row r="183" spans="1:14">
@@ -6571,16 +6727,16 @@
         <v>365</v>
       </c>
       <c r="K183" s="5" t="s">
-        <v>405</v>
+        <v>366</v>
       </c>
       <c r="L183" t="s">
         <v>16</v>
       </c>
       <c r="M183" t="s">
-        <v>382</v>
+        <v>367</v>
       </c>
       <c r="N183" t="s">
-        <v>408</v>
+        <v>368</v>
       </c>
     </row>
     <row r="184" spans="1:14">
@@ -6597,16 +6753,16 @@
         <v>365</v>
       </c>
       <c r="K184" s="5" t="s">
-        <v>405</v>
+        <v>366</v>
       </c>
       <c r="L184" t="s">
         <v>16</v>
       </c>
       <c r="M184" t="s">
-        <v>409</v>
+        <v>369</v>
       </c>
       <c r="N184" t="s">
-        <v>410</v>
+        <v>209</v>
       </c>
     </row>
     <row r="185" spans="1:14">
@@ -6623,16 +6779,16 @@
         <v>365</v>
       </c>
       <c r="K185" s="5" t="s">
-        <v>405</v>
+        <v>366</v>
       </c>
       <c r="L185" t="s">
         <v>16</v>
       </c>
       <c r="M185" t="s">
-        <v>411</v>
+        <v>370</v>
       </c>
       <c r="N185" t="s">
-        <v>412</v>
+        <v>371</v>
       </c>
     </row>
     <row r="186" spans="1:14">
@@ -6649,16 +6805,16 @@
         <v>365</v>
       </c>
       <c r="K186" s="5" t="s">
-        <v>405</v>
+        <v>366</v>
       </c>
       <c r="L186" t="s">
         <v>16</v>
       </c>
       <c r="M186" t="s">
-        <v>403</v>
+        <v>372</v>
       </c>
       <c r="N186" t="s">
-        <v>404</v>
+        <v>373</v>
       </c>
     </row>
     <row r="187" spans="1:14">
@@ -6675,16 +6831,16 @@
         <v>365</v>
       </c>
       <c r="K187" s="5" t="s">
-        <v>413</v>
+        <v>374</v>
       </c>
       <c r="L187" t="s">
         <v>16</v>
       </c>
       <c r="M187" t="s">
-        <v>414</v>
+        <v>375</v>
       </c>
       <c r="N187" t="s">
-        <v>415</v>
+        <v>376</v>
       </c>
     </row>
     <row r="188" spans="1:14">
@@ -6701,16 +6857,16 @@
         <v>365</v>
       </c>
       <c r="K188" s="5" t="s">
-        <v>413</v>
+        <v>374</v>
       </c>
       <c r="L188" t="s">
         <v>16</v>
       </c>
       <c r="M188" t="s">
-        <v>416</v>
+        <v>377</v>
       </c>
       <c r="N188" t="s">
-        <v>417</v>
+        <v>378</v>
       </c>
     </row>
     <row r="189" spans="1:14">
@@ -6727,16 +6883,16 @@
         <v>365</v>
       </c>
       <c r="K189" s="5" t="s">
-        <v>418</v>
+        <v>374</v>
       </c>
       <c r="L189" t="s">
         <v>16</v>
       </c>
       <c r="M189" t="s">
-        <v>419</v>
+        <v>369</v>
       </c>
       <c r="N189" t="s">
-        <v>420</v>
+        <v>209</v>
       </c>
     </row>
     <row r="190" spans="1:14">
@@ -6753,16 +6909,16 @@
         <v>365</v>
       </c>
       <c r="K190" s="5" t="s">
-        <v>418</v>
+        <v>374</v>
       </c>
       <c r="L190" t="s">
         <v>16</v>
       </c>
       <c r="M190" t="s">
-        <v>421</v>
+        <v>379</v>
       </c>
       <c r="N190" t="s">
-        <v>422</v>
+        <v>380</v>
       </c>
     </row>
     <row r="191" spans="1:14">
@@ -6779,16 +6935,16 @@
         <v>365</v>
       </c>
       <c r="K191" s="5" t="s">
-        <v>418</v>
+        <v>374</v>
       </c>
       <c r="L191" t="s">
         <v>16</v>
       </c>
       <c r="M191" t="s">
-        <v>423</v>
+        <v>372</v>
       </c>
       <c r="N191" t="s">
-        <v>424</v>
+        <v>373</v>
       </c>
     </row>
     <row r="192" spans="1:14">
@@ -6805,16 +6961,16 @@
         <v>365</v>
       </c>
       <c r="K192" s="5" t="s">
-        <v>425</v>
+        <v>381</v>
       </c>
       <c r="L192" t="s">
         <v>16</v>
       </c>
       <c r="M192" t="s">
-        <v>426</v>
+        <v>382</v>
       </c>
       <c r="N192" t="s">
-        <v>427</v>
+        <v>383</v>
       </c>
     </row>
     <row r="193" spans="1:14">
@@ -6831,16 +6987,16 @@
         <v>365</v>
       </c>
       <c r="K193" s="5" t="s">
-        <v>428</v>
+        <v>381</v>
       </c>
       <c r="L193" t="s">
         <v>16</v>
       </c>
       <c r="M193" t="s">
-        <v>367</v>
+        <v>384</v>
       </c>
       <c r="N193" t="s">
-        <v>368</v>
+        <v>385</v>
       </c>
     </row>
     <row r="194" spans="1:14">
@@ -6857,16 +7013,16 @@
         <v>365</v>
       </c>
       <c r="K194" s="5" t="s">
-        <v>428</v>
+        <v>381</v>
       </c>
       <c r="L194" t="s">
         <v>16</v>
       </c>
       <c r="M194" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="N194" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
     </row>
     <row r="195" spans="1:14">
@@ -6883,16 +7039,16 @@
         <v>365</v>
       </c>
       <c r="K195" s="5" t="s">
-        <v>428</v>
+        <v>381</v>
       </c>
       <c r="L195" t="s">
         <v>16</v>
       </c>
       <c r="M195" t="s">
-        <v>419</v>
+        <v>386</v>
       </c>
       <c r="N195" t="s">
-        <v>420</v>
+        <v>387</v>
       </c>
     </row>
     <row r="196" spans="1:14">
@@ -6909,16 +7065,16 @@
         <v>365</v>
       </c>
       <c r="K196" s="5" t="s">
-        <v>428</v>
+        <v>381</v>
       </c>
       <c r="L196" t="s">
         <v>16</v>
       </c>
       <c r="M196" t="s">
-        <v>421</v>
+        <v>388</v>
       </c>
       <c r="N196" t="s">
-        <v>422</v>
+        <v>389</v>
       </c>
     </row>
     <row r="197" spans="1:14">
@@ -6935,16 +7091,16 @@
         <v>365</v>
       </c>
       <c r="K197" s="5" t="s">
-        <v>428</v>
+        <v>381</v>
       </c>
       <c r="L197" t="s">
         <v>16</v>
       </c>
       <c r="M197" t="s">
-        <v>423</v>
+        <v>390</v>
       </c>
       <c r="N197" t="s">
-        <v>424</v>
+        <v>391</v>
       </c>
     </row>
     <row r="198" spans="1:14">
@@ -6961,16 +7117,16 @@
         <v>365</v>
       </c>
       <c r="K198" s="5" t="s">
-        <v>428</v>
+        <v>381</v>
       </c>
       <c r="L198" t="s">
         <v>16</v>
       </c>
       <c r="M198" t="s">
-        <v>429</v>
+        <v>392</v>
       </c>
       <c r="N198" t="s">
-        <v>430</v>
+        <v>393</v>
       </c>
     </row>
     <row r="199" spans="1:14">
@@ -6987,16 +7143,16 @@
         <v>365</v>
       </c>
       <c r="K199" s="5" t="s">
-        <v>428</v>
+        <v>394</v>
       </c>
       <c r="L199" t="s">
         <v>16</v>
       </c>
       <c r="M199" t="s">
-        <v>431</v>
+        <v>395</v>
       </c>
       <c r="N199" t="s">
-        <v>430</v>
+        <v>396</v>
       </c>
     </row>
     <row r="200" spans="1:14">
@@ -7013,16 +7169,16 @@
         <v>365</v>
       </c>
       <c r="K200" s="5" t="s">
-        <v>428</v>
+        <v>397</v>
       </c>
       <c r="L200" t="s">
         <v>16</v>
       </c>
       <c r="M200" t="s">
-        <v>432</v>
+        <v>398</v>
       </c>
       <c r="N200" t="s">
-        <v>433</v>
+        <v>399</v>
       </c>
     </row>
     <row r="201" spans="1:14">
@@ -7039,16 +7195,16 @@
         <v>365</v>
       </c>
       <c r="K201" s="5" t="s">
-        <v>428</v>
+        <v>400</v>
       </c>
       <c r="L201" t="s">
         <v>16</v>
       </c>
       <c r="M201" t="s">
-        <v>434</v>
+        <v>401</v>
       </c>
       <c r="N201" t="s">
-        <v>435</v>
+        <v>233</v>
       </c>
     </row>
     <row r="202" spans="1:14">
@@ -7065,16 +7221,16 @@
         <v>365</v>
       </c>
       <c r="K202" s="5" t="s">
-        <v>428</v>
+        <v>402</v>
       </c>
       <c r="L202" t="s">
         <v>16</v>
       </c>
       <c r="M202" t="s">
-        <v>436</v>
+        <v>403</v>
       </c>
       <c r="N202" t="s">
-        <v>437</v>
+        <v>404</v>
       </c>
     </row>
     <row r="203" spans="1:14">
@@ -7091,16 +7247,16 @@
         <v>365</v>
       </c>
       <c r="K203" s="5" t="s">
-        <v>428</v>
+        <v>405</v>
       </c>
       <c r="L203" t="s">
         <v>16</v>
       </c>
       <c r="M203" t="s">
-        <v>438</v>
+        <v>395</v>
       </c>
       <c r="N203" t="s">
-        <v>439</v>
+        <v>396</v>
       </c>
     </row>
     <row r="204" spans="1:14">
@@ -7117,16 +7273,16 @@
         <v>365</v>
       </c>
       <c r="K204" s="5" t="s">
-        <v>428</v>
+        <v>405</v>
       </c>
       <c r="L204" t="s">
         <v>16</v>
       </c>
       <c r="M204" t="s">
-        <v>440</v>
+        <v>395</v>
       </c>
       <c r="N204" t="s">
-        <v>441</v>
+        <v>396</v>
       </c>
     </row>
     <row r="205" spans="1:14">
@@ -7143,16 +7299,16 @@
         <v>365</v>
       </c>
       <c r="K205" s="5" t="s">
-        <v>428</v>
+        <v>405</v>
       </c>
       <c r="L205" t="s">
         <v>16</v>
       </c>
       <c r="M205" t="s">
-        <v>442</v>
+        <v>398</v>
       </c>
       <c r="N205" t="s">
-        <v>443</v>
+        <v>399</v>
       </c>
     </row>
     <row r="206" spans="1:14">
@@ -7169,16 +7325,16 @@
         <v>365</v>
       </c>
       <c r="K206" s="5" t="s">
-        <v>428</v>
+        <v>405</v>
       </c>
       <c r="L206" t="s">
         <v>16</v>
       </c>
       <c r="M206" t="s">
-        <v>367</v>
+        <v>406</v>
       </c>
       <c r="N206" t="s">
-        <v>368</v>
+        <v>407</v>
       </c>
     </row>
     <row r="207" spans="1:14">
@@ -7195,16 +7351,16 @@
         <v>365</v>
       </c>
       <c r="K207" s="5" t="s">
-        <v>428</v>
+        <v>405</v>
       </c>
       <c r="L207" t="s">
         <v>16</v>
       </c>
       <c r="M207" t="s">
-        <v>426</v>
+        <v>382</v>
       </c>
       <c r="N207" t="s">
-        <v>427</v>
+        <v>408</v>
       </c>
     </row>
     <row r="208" spans="1:14">
@@ -7221,15 +7377,639 @@
         <v>365</v>
       </c>
       <c r="K208" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="L208" t="s">
+        <v>16</v>
+      </c>
+      <c r="M208" t="s">
+        <v>409</v>
+      </c>
+      <c r="N208" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="209" spans="1:14">
+      <c r="A209" s="1">
+        <v>208</v>
+      </c>
+      <c r="G209" t="s">
+        <v>446</v>
+      </c>
+      <c r="I209" t="s">
+        <v>364</v>
+      </c>
+      <c r="J209" t="s">
+        <v>365</v>
+      </c>
+      <c r="K209" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="L209" t="s">
+        <v>16</v>
+      </c>
+      <c r="M209" t="s">
+        <v>411</v>
+      </c>
+      <c r="N209" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="210" spans="1:14">
+      <c r="A210" s="1">
+        <v>209</v>
+      </c>
+      <c r="G210" t="s">
+        <v>446</v>
+      </c>
+      <c r="I210" t="s">
+        <v>364</v>
+      </c>
+      <c r="J210" t="s">
+        <v>365</v>
+      </c>
+      <c r="K210" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="L210" t="s">
+        <v>16</v>
+      </c>
+      <c r="M210" t="s">
+        <v>403</v>
+      </c>
+      <c r="N210" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="211" spans="1:14">
+      <c r="A211" s="1">
+        <v>210</v>
+      </c>
+      <c r="G211" t="s">
+        <v>446</v>
+      </c>
+      <c r="I211" t="s">
+        <v>364</v>
+      </c>
+      <c r="J211" t="s">
+        <v>365</v>
+      </c>
+      <c r="K211" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="L211" t="s">
+        <v>16</v>
+      </c>
+      <c r="M211" t="s">
+        <v>414</v>
+      </c>
+      <c r="N211" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="212" spans="1:14">
+      <c r="A212" s="1">
+        <v>211</v>
+      </c>
+      <c r="G212" t="s">
+        <v>446</v>
+      </c>
+      <c r="I212" t="s">
+        <v>364</v>
+      </c>
+      <c r="J212" t="s">
+        <v>365</v>
+      </c>
+      <c r="K212" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="L212" t="s">
+        <v>16</v>
+      </c>
+      <c r="M212" t="s">
+        <v>416</v>
+      </c>
+      <c r="N212" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="213" spans="1:14">
+      <c r="A213" s="1">
+        <v>212</v>
+      </c>
+      <c r="G213" t="s">
+        <v>446</v>
+      </c>
+      <c r="I213" t="s">
+        <v>364</v>
+      </c>
+      <c r="J213" t="s">
+        <v>365</v>
+      </c>
+      <c r="K213" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="L213" t="s">
+        <v>16</v>
+      </c>
+      <c r="M213" t="s">
+        <v>419</v>
+      </c>
+      <c r="N213" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="214" spans="1:14">
+      <c r="A214" s="1">
+        <v>213</v>
+      </c>
+      <c r="G214" t="s">
+        <v>446</v>
+      </c>
+      <c r="I214" t="s">
+        <v>364</v>
+      </c>
+      <c r="J214" t="s">
+        <v>365</v>
+      </c>
+      <c r="K214" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="L214" t="s">
+        <v>16</v>
+      </c>
+      <c r="M214" t="s">
+        <v>421</v>
+      </c>
+      <c r="N214" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="215" spans="1:14">
+      <c r="A215" s="1">
+        <v>214</v>
+      </c>
+      <c r="G215" t="s">
+        <v>446</v>
+      </c>
+      <c r="I215" t="s">
+        <v>364</v>
+      </c>
+      <c r="J215" t="s">
+        <v>365</v>
+      </c>
+      <c r="K215" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="L215" t="s">
+        <v>16</v>
+      </c>
+      <c r="M215" t="s">
+        <v>423</v>
+      </c>
+      <c r="N215" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="216" spans="1:14">
+      <c r="A216" s="1">
+        <v>215</v>
+      </c>
+      <c r="G216" t="s">
+        <v>446</v>
+      </c>
+      <c r="I216" t="s">
+        <v>364</v>
+      </c>
+      <c r="J216" t="s">
+        <v>365</v>
+      </c>
+      <c r="K216" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="L216" t="s">
+        <v>16</v>
+      </c>
+      <c r="M216" t="s">
+        <v>426</v>
+      </c>
+      <c r="N216" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="217" spans="1:14">
+      <c r="A217" s="1">
+        <v>216</v>
+      </c>
+      <c r="G217" t="s">
+        <v>446</v>
+      </c>
+      <c r="I217" t="s">
+        <v>364</v>
+      </c>
+      <c r="J217" t="s">
+        <v>365</v>
+      </c>
+      <c r="K217" s="5" t="s">
         <v>428</v>
       </c>
-      <c r="L208" t="s">
-        <v>16</v>
-      </c>
-      <c r="M208" t="s">
+      <c r="L217" t="s">
+        <v>16</v>
+      </c>
+      <c r="M217" t="s">
+        <v>367</v>
+      </c>
+      <c r="N217" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="218" spans="1:14">
+      <c r="A218" s="1">
+        <v>217</v>
+      </c>
+      <c r="G218" t="s">
+        <v>446</v>
+      </c>
+      <c r="I218" t="s">
+        <v>364</v>
+      </c>
+      <c r="J218" t="s">
+        <v>365</v>
+      </c>
+      <c r="K218" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="L218" t="s">
+        <v>16</v>
+      </c>
+      <c r="M218" t="s">
+        <v>367</v>
+      </c>
+      <c r="N218" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="219" spans="1:14">
+      <c r="A219" s="1">
+        <v>218</v>
+      </c>
+      <c r="G219" t="s">
+        <v>446</v>
+      </c>
+      <c r="I219" t="s">
+        <v>364</v>
+      </c>
+      <c r="J219" t="s">
+        <v>365</v>
+      </c>
+      <c r="K219" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="L219" t="s">
+        <v>16</v>
+      </c>
+      <c r="M219" t="s">
+        <v>419</v>
+      </c>
+      <c r="N219" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="220" spans="1:14">
+      <c r="A220" s="1">
+        <v>219</v>
+      </c>
+      <c r="G220" t="s">
+        <v>446</v>
+      </c>
+      <c r="I220" t="s">
+        <v>364</v>
+      </c>
+      <c r="J220" t="s">
+        <v>365</v>
+      </c>
+      <c r="K220" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="L220" t="s">
+        <v>16</v>
+      </c>
+      <c r="M220" t="s">
+        <v>421</v>
+      </c>
+      <c r="N220" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="221" spans="1:14">
+      <c r="A221" s="1">
+        <v>220</v>
+      </c>
+      <c r="G221" t="s">
+        <v>446</v>
+      </c>
+      <c r="I221" t="s">
+        <v>364</v>
+      </c>
+      <c r="J221" t="s">
+        <v>365</v>
+      </c>
+      <c r="K221" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="L221" t="s">
+        <v>16</v>
+      </c>
+      <c r="M221" t="s">
+        <v>423</v>
+      </c>
+      <c r="N221" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="222" spans="1:14">
+      <c r="A222" s="1">
+        <v>221</v>
+      </c>
+      <c r="G222" t="s">
+        <v>446</v>
+      </c>
+      <c r="I222" t="s">
+        <v>364</v>
+      </c>
+      <c r="J222" t="s">
+        <v>365</v>
+      </c>
+      <c r="K222" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="L222" t="s">
+        <v>16</v>
+      </c>
+      <c r="M222" t="s">
+        <v>429</v>
+      </c>
+      <c r="N222" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="223" spans="1:14">
+      <c r="A223" s="1">
+        <v>222</v>
+      </c>
+      <c r="G223" t="s">
+        <v>446</v>
+      </c>
+      <c r="I223" t="s">
+        <v>364</v>
+      </c>
+      <c r="J223" t="s">
+        <v>365</v>
+      </c>
+      <c r="K223" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="L223" t="s">
+        <v>16</v>
+      </c>
+      <c r="M223" t="s">
+        <v>431</v>
+      </c>
+      <c r="N223" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="224" spans="1:14">
+      <c r="A224" s="1">
+        <v>223</v>
+      </c>
+      <c r="G224" t="s">
+        <v>446</v>
+      </c>
+      <c r="I224" t="s">
+        <v>364</v>
+      </c>
+      <c r="J224" t="s">
+        <v>365</v>
+      </c>
+      <c r="K224" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="L224" t="s">
+        <v>16</v>
+      </c>
+      <c r="M224" t="s">
+        <v>432</v>
+      </c>
+      <c r="N224" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="225" spans="1:14">
+      <c r="A225" s="1">
+        <v>224</v>
+      </c>
+      <c r="G225" t="s">
+        <v>446</v>
+      </c>
+      <c r="I225" t="s">
+        <v>364</v>
+      </c>
+      <c r="J225" t="s">
+        <v>365</v>
+      </c>
+      <c r="K225" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="L225" t="s">
+        <v>16</v>
+      </c>
+      <c r="M225" t="s">
+        <v>434</v>
+      </c>
+      <c r="N225" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="226" spans="1:14">
+      <c r="A226" s="1">
+        <v>225</v>
+      </c>
+      <c r="G226" t="s">
+        <v>446</v>
+      </c>
+      <c r="I226" t="s">
+        <v>364</v>
+      </c>
+      <c r="J226" t="s">
+        <v>365</v>
+      </c>
+      <c r="K226" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="L226" t="s">
+        <v>16</v>
+      </c>
+      <c r="M226" t="s">
+        <v>436</v>
+      </c>
+      <c r="N226" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="227" spans="1:14">
+      <c r="A227" s="1">
+        <v>226</v>
+      </c>
+      <c r="G227" t="s">
+        <v>446</v>
+      </c>
+      <c r="I227" t="s">
+        <v>364</v>
+      </c>
+      <c r="J227" t="s">
+        <v>365</v>
+      </c>
+      <c r="K227" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="L227" t="s">
+        <v>16</v>
+      </c>
+      <c r="M227" t="s">
+        <v>438</v>
+      </c>
+      <c r="N227" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="228" spans="1:14">
+      <c r="A228" s="1">
+        <v>227</v>
+      </c>
+      <c r="G228" t="s">
+        <v>446</v>
+      </c>
+      <c r="I228" t="s">
+        <v>364</v>
+      </c>
+      <c r="J228" t="s">
+        <v>365</v>
+      </c>
+      <c r="K228" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="L228" t="s">
+        <v>16</v>
+      </c>
+      <c r="M228" t="s">
+        <v>440</v>
+      </c>
+      <c r="N228" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="229" spans="1:14">
+      <c r="A229" s="1">
+        <v>228</v>
+      </c>
+      <c r="G229" t="s">
+        <v>446</v>
+      </c>
+      <c r="I229" t="s">
+        <v>364</v>
+      </c>
+      <c r="J229" t="s">
+        <v>365</v>
+      </c>
+      <c r="K229" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="L229" t="s">
+        <v>16</v>
+      </c>
+      <c r="M229" t="s">
+        <v>442</v>
+      </c>
+      <c r="N229" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="230" spans="1:14">
+      <c r="A230" s="1">
+        <v>229</v>
+      </c>
+      <c r="G230" t="s">
+        <v>446</v>
+      </c>
+      <c r="I230" t="s">
+        <v>364</v>
+      </c>
+      <c r="J230" t="s">
+        <v>365</v>
+      </c>
+      <c r="K230" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="L230" t="s">
+        <v>16</v>
+      </c>
+      <c r="M230" t="s">
+        <v>367</v>
+      </c>
+      <c r="N230" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="231" spans="1:14">
+      <c r="A231" s="1">
+        <v>230</v>
+      </c>
+      <c r="G231" t="s">
+        <v>446</v>
+      </c>
+      <c r="I231" t="s">
+        <v>364</v>
+      </c>
+      <c r="J231" t="s">
+        <v>365</v>
+      </c>
+      <c r="K231" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="L231" t="s">
+        <v>16</v>
+      </c>
+      <c r="M231" t="s">
+        <v>426</v>
+      </c>
+      <c r="N231" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="232" spans="1:14">
+      <c r="A232" s="1">
+        <v>231</v>
+      </c>
+      <c r="G232" t="s">
+        <v>446</v>
+      </c>
+      <c r="I232" t="s">
+        <v>364</v>
+      </c>
+      <c r="J232" t="s">
+        <v>365</v>
+      </c>
+      <c r="K232" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="L232" t="s">
+        <v>16</v>
+      </c>
+      <c r="M232" t="s">
         <v>444</v>
       </c>
-      <c r="N208" t="s">
+      <c r="N232" t="s">
         <v>445</v>
       </c>
     </row>
